--- a/sports-iq/Football Data Fixtures.xlsx
+++ b/sports-iq/Football Data Fixtures.xlsx
@@ -413,137 +413,137 @@
     <row r="3">
       <c t="inlineStr" r="A3">
         <is>
-          <t xml:space="preserve">Wed 02 Jul 2025 21:00</t>
+          <t xml:space="preserve">Sun 06 Jul 2025 20:30</t>
         </is>
       </c>
       <c t="inlineStr" r="B3">
         <is>
-          <t xml:space="preserve">Juan Pablo II College v FBC Melgar</t>
+          <t xml:space="preserve">Anápolis v AO Itabaiana</t>
         </is>
       </c>
       <c t="inlineStr" r="C3">
         <is>
-          <t xml:space="preserve">Peru, Primera División</t>
+          <t xml:space="preserve">Brazil, Serie C</t>
         </is>
       </c>
       <c r="D3" s="65">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E3" s="66">
-        <v>87.50</v>
+        <v>56.25</v>
       </c>
       <c r="F3" s="66">
-        <v>56.25</v>
+        <v>25.00</v>
       </c>
       <c r="G3" s="66">
-        <v>31.25</v>
+        <v>6.25</v>
       </c>
       <c r="H3" s="66">
         <v>6.25</v>
       </c>
       <c r="I3" s="66">
-        <v>18.75</v>
+        <v>25.00</v>
       </c>
       <c r="J3" s="66">
-        <v>13.80</v>
+        <v>14.65</v>
       </c>
       <c r="K3" s="66">
-        <v>18.42</v>
+        <v>15.16</v>
       </c>
       <c r="L3" s="66">
-        <v>16.10</v>
+        <v>28.54</v>
       </c>
       <c r="M3" s="66">
-        <v>14.98</v>
+        <v>9.60</v>
       </c>
       <c r="N3" s="66">
-        <v>13.77</v>
+        <v>19.70</v>
       </c>
       <c r="O3" s="66">
-        <v>22.94</v>
+        <v>12.38</v>
       </c>
       <c r="P3" s="66">
-        <v>17.00</v>
+        <v>0.00</v>
       </c>
       <c r="Q3" s="66">
-        <v>-1.50</v>
+        <v>13.00</v>
       </c>
       <c r="R3" s="66">
-        <v>80.34</v>
+        <v>56.50</v>
       </c>
       <c r="S3" s="66">
-        <v>37.50</v>
+        <v>0.00</v>
       </c>
       <c r="T3" s="66">
-        <v>50.00</v>
+        <v>62.50</v>
       </c>
       <c r="U3" s="66">
-        <v>50.00</v>
+        <v>25.00</v>
       </c>
       <c r="V3" s="66">
-        <v>50.00</v>
+        <v>75.00</v>
       </c>
       <c r="W3" s="66">
-        <v>37.50</v>
+        <v>25.00</v>
       </c>
       <c r="X3" s="66">
         <v>18.75</v>
       </c>
       <c r="Y3" s="66">
-        <v>6.25</v>
+        <v>0.00</v>
       </c>
       <c r="Z3" s="66">
-        <v>48.31</v>
+        <v>58.34</v>
       </c>
       <c r="AA3" s="66">
-        <v>51.70</v>
+        <v>41.67</v>
       </c>
       <c r="AB3" s="66">
+        <v>1.95</v>
+      </c>
+      <c r="AC3" s="66">
         <v>4.00</v>
       </c>
-      <c r="AC3" s="66">
-        <v>1.70</v>
-      </c>
       <c r="AD3" s="66">
-        <v>3.75</v>
+        <v>2.90</v>
       </c>
       <c r="AE3" s="66">
-        <v>1.17</v>
+        <v>1.50</v>
       </c>
       <c r="AF3" s="66">
-        <v>1.40</v>
+        <v>1.11</v>
       </c>
       <c r="AG3" s="66">
-        <v>5.20</v>
+        <v>11.00</v>
       </c>
     </row>
     <row r="4">
       <c t="inlineStr" r="A4">
         <is>
-          <t xml:space="preserve">Wed 02 Jul 2025 21:30</t>
+          <t xml:space="preserve">Sun 06 Jul 2025 20:30</t>
         </is>
       </c>
       <c t="inlineStr" r="B4">
         <is>
-          <t xml:space="preserve">Ind. Juniors v 22 de Julio</t>
+          <t xml:space="preserve">Londrina v Guarani Campinas</t>
         </is>
       </c>
       <c t="inlineStr" r="C4">
         <is>
-          <t xml:space="preserve">Ecuador, Liga Pro Serie B</t>
+          <t xml:space="preserve">Brazil, Serie C</t>
         </is>
       </c>
       <c r="D4" s="65">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E4" s="66">
-        <v>56.25</v>
+        <v>68.75</v>
       </c>
       <c r="F4" s="66">
-        <v>37.50</v>
+        <v>31.25</v>
       </c>
       <c r="G4" s="66">
-        <v>25.00</v>
+        <v>12.50</v>
       </c>
       <c r="H4" s="66">
         <v>6.25</v>
@@ -552,566 +552,566 @@
         <v>43.75</v>
       </c>
       <c r="J4" s="66">
-        <v>7.54</v>
+        <v>17.60</v>
       </c>
       <c r="K4" s="66">
-        <v>22.43</v>
+        <v>12.04</v>
       </c>
       <c r="L4" s="66">
-        <v>19.86</v>
+        <v>30.56</v>
       </c>
       <c r="M4" s="66">
-        <v>15.17</v>
+        <v>9.26</v>
       </c>
       <c r="N4" s="66">
-        <v>15.17</v>
+        <v>12.96</v>
       </c>
       <c r="O4" s="66">
-        <v>19.86</v>
+        <v>17.60</v>
       </c>
       <c r="P4" s="66">
-        <v>-4.00</v>
+        <v>-13.00</v>
       </c>
       <c r="Q4" s="66">
-        <v>5.00</v>
+        <v>-6.50</v>
       </c>
       <c r="R4" s="66">
-        <v>63.67</v>
+        <v>63.25</v>
       </c>
       <c r="S4" s="66">
-        <v>37.50</v>
+        <v>50.00</v>
       </c>
       <c r="T4" s="66">
         <v>37.50</v>
       </c>
       <c r="U4" s="66">
-        <v>37.50</v>
+        <v>50.00</v>
       </c>
       <c r="V4" s="66">
-        <v>50.00</v>
+        <v>25.00</v>
       </c>
       <c r="W4" s="66">
-        <v>18.75</v>
+        <v>25.00</v>
       </c>
       <c r="X4" s="66">
-        <v>18.75</v>
+        <v>12.50</v>
       </c>
       <c r="Y4" s="66">
-        <v>0.00</v>
+        <v>6.25</v>
       </c>
       <c r="Z4" s="66">
-        <v>49.82</v>
+        <v>60.19</v>
       </c>
       <c r="AA4" s="66">
-        <v>50.19</v>
+        <v>39.82</v>
       </c>
       <c r="AB4" s="66">
-        <v>1.36</v>
+        <v>2.20</v>
       </c>
       <c r="AC4" s="66">
-        <v>7.00</v>
+        <v>3.30</v>
       </c>
       <c r="AD4" s="66">
-        <v>4.00</v>
+        <v>2.88</v>
       </c>
       <c r="AE4" s="66">
-        <v>1.33</v>
+        <v>1.45</v>
       </c>
       <c r="AF4" s="66">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AG4" s="66">
-        <v>7.50</v>
+        <v>11.00</v>
       </c>
     </row>
     <row r="5">
       <c t="inlineStr" r="A5">
         <is>
-          <t xml:space="preserve">Thu 03 Jul 2025 01:00</t>
+          <t xml:space="preserve">Sun 06 Jul 2025 21:00</t>
         </is>
       </c>
       <c t="inlineStr" r="B5">
         <is>
-          <t xml:space="preserve">Guayaquil City FC v Chacaritas</t>
+          <t xml:space="preserve">Central Norte v Defensores Unidos</t>
         </is>
       </c>
       <c t="inlineStr" r="C5">
         <is>
-          <t xml:space="preserve">Ecuador, Liga Pro Serie B</t>
+          <t xml:space="preserve">Argentina, Primera Nacional</t>
         </is>
       </c>
       <c r="D5" s="65">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E5" s="66">
-        <v>56.25</v>
+        <v>62.50</v>
       </c>
       <c r="F5" s="66">
-        <v>25.00</v>
+        <v>31.25</v>
       </c>
       <c r="G5" s="66">
-        <v>25.00</v>
+        <v>12.50</v>
       </c>
       <c r="H5" s="66">
-        <v>25.00</v>
+        <v>0.00</v>
       </c>
       <c r="I5" s="66">
+        <v>18.75</v>
+      </c>
+      <c r="J5" s="66">
+        <v>7.51</v>
+      </c>
+      <c r="K5" s="66">
+        <v>6.39</v>
+      </c>
+      <c r="L5" s="66">
+        <v>23.11</v>
+      </c>
+      <c r="M5" s="66">
+        <v>13.70</v>
+      </c>
+      <c r="N5" s="66">
+        <v>16.43</v>
+      </c>
+      <c r="O5" s="66">
+        <v>32.87</v>
+      </c>
+      <c r="P5" s="66">
+        <v>-10.00</v>
+      </c>
+      <c r="Q5" s="66">
+        <v>29.00</v>
+      </c>
+      <c r="R5" s="66">
+        <v>63.50</v>
+      </c>
+      <c r="S5" s="66">
+        <v>50.00</v>
+      </c>
+      <c r="T5" s="66">
         <v>37.50</v>
       </c>
-      <c r="J5" s="66">
-        <v>12.33</v>
-      </c>
-      <c r="K5" s="66">
-        <v>11.99</v>
-      </c>
-      <c r="L5" s="66">
-        <v>18.01</v>
-      </c>
-      <c r="M5" s="66">
-        <v>15.63</v>
-      </c>
-      <c r="N5" s="66">
-        <v>18.01</v>
-      </c>
-      <c r="O5" s="66">
-        <v>24.04</v>
-      </c>
-      <c r="P5" s="66">
-        <v>-17.00</v>
-      </c>
-      <c r="Q5" s="66">
-        <v>2.50</v>
-      </c>
-      <c r="R5" s="66">
-        <v>62.42</v>
-      </c>
-      <c r="S5" s="66">
-        <v>50.00</v>
-      </c>
-      <c r="T5" s="66">
-        <v>25.00</v>
-      </c>
       <c r="U5" s="66">
-        <v>25.00</v>
+        <v>12.50</v>
       </c>
       <c r="V5" s="66">
-        <v>75.00</v>
+        <v>87.50</v>
       </c>
       <c r="W5" s="66">
-        <v>37.50</v>
+        <v>18.75</v>
       </c>
       <c r="X5" s="66">
-        <v>12.50</v>
+        <v>0.00</v>
       </c>
       <c r="Y5" s="66">
         <v>0.00</v>
       </c>
       <c r="Z5" s="66">
-        <v>42.32</v>
+        <v>37.01</v>
       </c>
       <c r="AA5" s="66">
-        <v>57.68</v>
+        <v>63.00</v>
       </c>
       <c r="AB5" s="66">
-        <v>1.20</v>
+        <v>1.60</v>
       </c>
       <c r="AC5" s="66">
-        <v>11.00</v>
+        <v>6.00</v>
       </c>
       <c r="AD5" s="66">
-        <v>5.00</v>
+        <v>3.25</v>
       </c>
       <c r="AE5" s="66">
-        <v>1.20</v>
+        <v>1.57</v>
       </c>
       <c r="AF5" s="66">
-        <v>1.40</v>
+        <v>1.08</v>
       </c>
       <c r="AG5" s="66">
-        <v>5.50</v>
+        <v>13.00</v>
       </c>
     </row>
     <row r="6">
       <c t="inlineStr" r="A6">
         <is>
-          <t xml:space="preserve">Thu 03 Jul 2025 01:00</t>
+          <t xml:space="preserve">Sun 06 Jul 2025 21:10</t>
         </is>
       </c>
       <c t="inlineStr" r="B6">
         <is>
-          <t xml:space="preserve">Birmingham Legion v Charleston Battery</t>
+          <t xml:space="preserve">Club Atlético Güemes v San Martin Tucuman</t>
         </is>
       </c>
       <c t="inlineStr" r="C6">
         <is>
-          <t xml:space="preserve">USA, USL Championship</t>
+          <t xml:space="preserve">Argentina, Primera Nacional</t>
         </is>
       </c>
       <c r="D6" s="65">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E6" s="66">
-        <v>68.75</v>
+        <v>81.25</v>
       </c>
       <c r="F6" s="66">
-        <v>56.25</v>
+        <v>25.00</v>
       </c>
       <c r="G6" s="66">
-        <v>43.75</v>
+        <v>12.50</v>
       </c>
       <c r="H6" s="66">
-        <v>18.75</v>
+        <v>0.00</v>
       </c>
       <c r="I6" s="66">
+        <v>25.00</v>
+      </c>
+      <c r="J6" s="66">
+        <v>11.95</v>
+      </c>
+      <c r="K6" s="66">
+        <v>15.56</v>
+      </c>
+      <c r="L6" s="66">
+        <v>16.39</v>
+      </c>
+      <c r="M6" s="66">
+        <v>16.67</v>
+      </c>
+      <c r="N6" s="66">
+        <v>17.22</v>
+      </c>
+      <c r="O6" s="66">
+        <v>22.23</v>
+      </c>
+      <c r="P6" s="66">
+        <v>33.00</v>
+      </c>
+      <c r="Q6" s="66">
+        <v>-2.50</v>
+      </c>
+      <c r="R6" s="66">
+        <v>64.50</v>
+      </c>
+      <c r="S6" s="66">
+        <v>62.50</v>
+      </c>
+      <c r="T6" s="66">
+        <v>25.00</v>
+      </c>
+      <c r="U6" s="66">
+        <v>50.00</v>
+      </c>
+      <c r="V6" s="66">
+        <v>50.00</v>
+      </c>
+      <c r="W6" s="66">
         <v>12.50</v>
       </c>
-      <c r="J6" s="66">
-        <v>16.52</v>
-      </c>
-      <c r="K6" s="66">
-        <v>17.50</v>
-      </c>
-      <c r="L6" s="66">
-        <v>18.98</v>
-      </c>
-      <c r="M6" s="66">
-        <v>14.39</v>
-      </c>
-      <c r="N6" s="66">
-        <v>14.39</v>
-      </c>
-      <c r="O6" s="66">
-        <v>18.23</v>
-      </c>
-      <c r="P6" s="66">
-        <v>28.00</v>
-      </c>
-      <c r="Q6" s="66">
-        <v>-3.00</v>
-      </c>
-      <c r="R6" s="66">
-        <v>77.14</v>
-      </c>
-      <c r="S6" s="66">
-        <v>25.00</v>
-      </c>
-      <c r="T6" s="66">
-        <v>75.00</v>
-      </c>
-      <c r="U6" s="66">
-        <v>62.50</v>
-      </c>
-      <c r="V6" s="66">
-        <v>37.50</v>
-      </c>
-      <c r="W6" s="66">
-        <v>37.50</v>
-      </c>
       <c r="X6" s="66">
-        <v>31.25</v>
+        <v>0.00</v>
       </c>
       <c r="Y6" s="66">
-        <v>6.25</v>
+        <v>0.00</v>
       </c>
       <c r="Z6" s="66">
-        <v>52.99</v>
+        <v>43.89</v>
       </c>
       <c r="AA6" s="66">
-        <v>47.02</v>
+        <v>56.12</v>
       </c>
       <c r="AB6" s="66">
-        <v>4.33</v>
+        <v>2.63</v>
       </c>
       <c r="AC6" s="66">
-        <v>1.67</v>
+        <v>2.90</v>
       </c>
       <c r="AD6" s="66">
-        <v>3.75</v>
+        <v>2.60</v>
       </c>
       <c r="AE6" s="66">
-        <v>1.22</v>
+        <v>1.65</v>
       </c>
       <c r="AF6" s="66">
-        <v>1.40</v>
+        <v>1.06</v>
       </c>
       <c r="AG6" s="66">
-        <v>5.50</v>
+        <v>17.00</v>
       </c>
     </row>
     <row r="7">
       <c t="inlineStr" r="A7">
         <is>
-          <t xml:space="preserve">Thu 03 Jul 2025 16:30</t>
+          <t xml:space="preserve">Sun 06 Jul 2025 21:15</t>
         </is>
       </c>
       <c t="inlineStr" r="B7">
         <is>
-          <t xml:space="preserve">KäPa v Turku PS</t>
+          <t xml:space="preserve">Atletico Grau v Juan Pablo II College</t>
         </is>
       </c>
       <c t="inlineStr" r="C7">
         <is>
-          <t xml:space="preserve">Finland, Ykkösliiga</t>
+          <t xml:space="preserve">Peru, Primera División</t>
         </is>
       </c>
       <c r="D7" s="65">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E7" s="66">
-        <v>100.00</v>
+        <v>87.50</v>
       </c>
       <c r="F7" s="66">
-        <v>93.75</v>
+        <v>50.00</v>
       </c>
       <c r="G7" s="66">
-        <v>81.25</v>
+        <v>18.75</v>
       </c>
       <c r="H7" s="66">
+        <v>0.00</v>
+      </c>
+      <c r="I7" s="66">
         <v>37.50</v>
       </c>
-      <c r="I7" s="66">
-        <v>6.25</v>
-      </c>
       <c r="J7" s="66">
-        <v>15.23</v>
+        <v>12.62</v>
       </c>
       <c r="K7" s="66">
-        <v>12.71</v>
+        <v>17.06</v>
       </c>
       <c r="L7" s="66">
-        <v>21.46</v>
+        <v>12.54</v>
       </c>
       <c r="M7" s="66">
-        <v>17.75</v>
+        <v>17.15</v>
       </c>
       <c r="N7" s="66">
-        <v>15.97</v>
+        <v>15.08</v>
       </c>
       <c r="O7" s="66">
-        <v>16.89</v>
+        <v>25.56</v>
       </c>
       <c r="P7" s="66">
-        <v>11.00</v>
+        <v>-5.00</v>
       </c>
       <c r="Q7" s="66">
-        <v>1.50</v>
+        <v>3.50</v>
       </c>
       <c r="R7" s="66">
-        <v>97.09</v>
+        <v>75.63</v>
       </c>
       <c r="S7" s="66">
-        <v>25.00</v>
+        <v>50.00</v>
       </c>
       <c r="T7" s="66">
-        <v>75.00</v>
+        <v>37.50</v>
       </c>
       <c r="U7" s="66">
-        <v>75.00</v>
+        <v>25.00</v>
       </c>
       <c r="V7" s="66">
-        <v>25.00</v>
+        <v>62.50</v>
       </c>
       <c r="W7" s="66">
-        <v>68.75</v>
+        <v>25.00</v>
       </c>
       <c r="X7" s="66">
-        <v>37.50</v>
+        <v>12.50</v>
       </c>
       <c r="Y7" s="66">
         <v>0.00</v>
       </c>
       <c r="Z7" s="66">
-        <v>49.40</v>
+        <v>42.22</v>
       </c>
       <c r="AA7" s="66">
-        <v>50.61</v>
+        <v>57.78</v>
       </c>
       <c r="AB7" s="66">
-        <v>6.00</v>
+        <v>1.53</v>
       </c>
       <c r="AC7" s="66">
-        <v>1.30</v>
+        <v>5.50</v>
       </c>
       <c r="AD7" s="66">
-        <v>5.00</v>
+        <v>3.80</v>
       </c>
       <c r="AE7" s="66">
-        <v>1.03</v>
+        <v>1.25</v>
       </c>
       <c r="AF7" s="66">
-        <v>2.25</v>
+        <v>1.29</v>
       </c>
       <c r="AG7" s="66">
-        <v>2.25</v>
+        <v>7.00</v>
       </c>
     </row>
     <row r="8">
       <c t="inlineStr" r="A8">
         <is>
-          <t xml:space="preserve">Thu 03 Jul 2025 16:30</t>
+          <t xml:space="preserve">Sun 06 Jul 2025 21:30</t>
         </is>
       </c>
       <c t="inlineStr" r="B8">
         <is>
-          <t xml:space="preserve">Lahti v JIPPO</t>
+          <t xml:space="preserve">El Nacional v Manta FC</t>
         </is>
       </c>
       <c t="inlineStr" r="C8">
         <is>
-          <t xml:space="preserve">Finland, Ykkösliiga</t>
+          <t xml:space="preserve">Ecuador, Liga Pro</t>
         </is>
       </c>
       <c r="D8" s="65">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E8" s="66">
-        <v>81.25</v>
+        <v>87.50</v>
       </c>
       <c r="F8" s="66">
         <v>56.25</v>
       </c>
       <c r="G8" s="66">
-        <v>25.00</v>
+        <v>31.25</v>
       </c>
       <c r="H8" s="66">
-        <v>6.25</v>
+        <v>12.50</v>
       </c>
       <c r="I8" s="66">
-        <v>25.00</v>
+        <v>18.75</v>
       </c>
       <c r="J8" s="66">
-        <v>9.53</v>
+        <v>18.49</v>
       </c>
       <c r="K8" s="66">
-        <v>22.18</v>
+        <v>11.72</v>
       </c>
       <c r="L8" s="66">
-        <v>15.88</v>
+        <v>16.27</v>
       </c>
       <c r="M8" s="66">
-        <v>9.53</v>
+        <v>19.55</v>
       </c>
       <c r="N8" s="66">
-        <v>12.66</v>
+        <v>10.78</v>
       </c>
       <c r="O8" s="66">
-        <v>30.24</v>
+        <v>23.21</v>
       </c>
       <c r="P8" s="66">
-        <v>-7.00</v>
+        <v>1.00</v>
       </c>
       <c r="Q8" s="66">
-        <v>-1.50</v>
+        <v>5.50</v>
       </c>
       <c r="R8" s="66">
-        <v>76.25</v>
+        <v>75.70</v>
       </c>
       <c r="S8" s="66">
-        <v>87.50</v>
+        <v>50.00</v>
       </c>
       <c r="T8" s="66">
-        <v>12.50</v>
+        <v>37.50</v>
       </c>
       <c r="U8" s="66">
-        <v>50.00</v>
+        <v>37.50</v>
       </c>
       <c r="V8" s="66">
-        <v>37.50</v>
+        <v>50.00</v>
       </c>
       <c r="W8" s="66">
         <v>43.75</v>
       </c>
       <c r="X8" s="66">
-        <v>18.75</v>
+        <v>6.25</v>
       </c>
       <c r="Y8" s="66">
         <v>0.00</v>
       </c>
       <c r="Z8" s="66">
-        <v>47.58</v>
+        <v>46.47</v>
       </c>
       <c r="AA8" s="66">
-        <v>52.42</v>
+        <v>53.53</v>
       </c>
       <c r="AB8" s="66">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="AC8" s="66">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="AD8" s="66">
         <v>3.40</v>
       </c>
       <c r="AE8" s="66">
-        <v>1.30</v>
+        <v>1.22</v>
       </c>
       <c r="AF8" s="66">
-        <v>1.20</v>
+        <v>1.33</v>
       </c>
       <c r="AG8" s="66">
-        <v>8.00</v>
+        <v>5.50</v>
       </c>
     </row>
     <row r="9">
       <c t="inlineStr" r="A9">
         <is>
-          <t xml:space="preserve">Thu 03 Jul 2025 17:00</t>
+          <t xml:space="preserve">Sun 06 Jul 2025 22:00</t>
         </is>
       </c>
       <c t="inlineStr" r="B9">
         <is>
-          <t xml:space="preserve">Nõmme Kalju II v Nõmme United</t>
+          <t xml:space="preserve">Seattle Sounders v Columbus Crew</t>
         </is>
       </c>
       <c t="inlineStr" r="C9">
         <is>
-          <t xml:space="preserve">Estonia, Esiliiga A</t>
+          <t xml:space="preserve">USA, Major League Soccer</t>
         </is>
       </c>
       <c r="D9" s="65">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E9" s="66">
-        <v>87.50</v>
+        <v>81.25</v>
       </c>
       <c r="F9" s="66">
-        <v>81.25</v>
+        <v>56.25</v>
       </c>
       <c r="G9" s="66">
-        <v>56.25</v>
+        <v>43.75</v>
       </c>
       <c r="H9" s="66">
-        <v>43.75</v>
+        <v>18.75</v>
       </c>
       <c r="I9" s="66">
-        <v>37.50</v>
+        <v>25.00</v>
       </c>
       <c r="J9" s="66">
-        <v>9.49</v>
+        <v>14.02</v>
       </c>
       <c r="K9" s="66">
-        <v>18.25</v>
+        <v>17.86</v>
       </c>
       <c r="L9" s="66">
-        <v>16.81</v>
+        <v>20.86</v>
       </c>
       <c r="M9" s="66">
-        <v>16.56</v>
+        <v>18.32</v>
       </c>
       <c r="N9" s="66">
-        <v>19.12</v>
+        <v>11.25</v>
       </c>
       <c r="O9" s="66">
-        <v>19.79</v>
+        <v>17.70</v>
       </c>
       <c r="P9" s="66">
-        <v>14.00</v>
+        <v>4.00</v>
       </c>
       <c r="Q9" s="66">
-        <v>-2.00</v>
+        <v>-5.00</v>
       </c>
       <c r="R9" s="66">
-        <v>88.90</v>
+        <v>78.24</v>
       </c>
       <c r="S9" s="66">
         <v>62.50</v>
@@ -1120,336 +1120,334 @@
         <v>37.50</v>
       </c>
       <c r="U9" s="66">
-        <v>87.50</v>
+        <v>50.00</v>
       </c>
       <c r="V9" s="66">
-        <v>12.50</v>
+        <v>50.00</v>
       </c>
       <c r="W9" s="66">
-        <v>56.25</v>
+        <v>37.50</v>
       </c>
       <c r="X9" s="66">
-        <v>31.25</v>
+        <v>25.00</v>
       </c>
       <c r="Y9" s="66">
-        <v>18.75</v>
+        <v>0.00</v>
       </c>
       <c r="Z9" s="66">
-        <v>44.54</v>
+        <v>52.74</v>
       </c>
       <c r="AA9" s="66">
-        <v>55.46</v>
+        <v>47.27</v>
       </c>
       <c r="AB9" s="66">
-        <v>14.00</v>
+        <v>2.00</v>
       </c>
       <c r="AC9" s="66">
-        <v>1.10</v>
+        <v>3.50</v>
       </c>
       <c r="AD9" s="66">
-        <v>7.50</v>
+        <v>3.70</v>
       </c>
       <c r="AE9" s="66">
-        <v>1.06</v>
+        <v>1.14</v>
       </c>
       <c r="AF9" s="66">
-        <v>2.25</v>
-      </c>
-      <c t="inlineStr" r="AG9">
-        <is>
-          <t xml:space="preserve">-</t>
-        </is>
+        <v>1.57</v>
+      </c>
+      <c r="AG9" s="66">
+        <v>4.20</v>
       </c>
     </row>
     <row r="10">
       <c t="inlineStr" r="A10">
         <is>
-          <t xml:space="preserve">Thu 03 Jul 2025 17:00</t>
+          <t xml:space="preserve">Sun 06 Jul 2025 22:00</t>
         </is>
       </c>
       <c t="inlineStr" r="B10">
         <is>
-          <t xml:space="preserve">Kiffen v HJS Akatemia</t>
+          <t xml:space="preserve">Charleston Battery v North Carolina</t>
         </is>
       </c>
       <c t="inlineStr" r="C10">
         <is>
-          <t xml:space="preserve">Finland, Kakkonen - Lohko B</t>
+          <t xml:space="preserve">USA, USL Championship</t>
         </is>
       </c>
       <c r="D10" s="65">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E10" s="66">
-        <v>87.50</v>
+        <v>68.75</v>
       </c>
       <c r="F10" s="66">
-        <v>50.00</v>
+        <v>56.25</v>
       </c>
       <c r="G10" s="66">
-        <v>43.75</v>
+        <v>31.25</v>
       </c>
       <c r="H10" s="66">
-        <v>25.00</v>
+        <v>12.50</v>
       </c>
       <c r="I10" s="66">
         <v>31.25</v>
       </c>
       <c r="J10" s="66">
-        <v>21.68</v>
+        <v>9.58</v>
       </c>
       <c r="K10" s="66">
-        <v>13.03</v>
+        <v>15.48</v>
       </c>
       <c r="L10" s="66">
-        <v>14.45</v>
+        <v>25.79</v>
       </c>
       <c r="M10" s="66">
-        <v>15.97</v>
+        <v>13.51</v>
       </c>
       <c r="N10" s="66">
-        <v>20.26</v>
+        <v>16.54</v>
       </c>
       <c r="O10" s="66">
-        <v>14.62</v>
+        <v>19.12</v>
       </c>
       <c r="P10" s="66">
-        <v>2.00</v>
+        <v>-7.00</v>
       </c>
       <c r="Q10" s="66">
-        <v>-4.00</v>
+        <v>-13.50</v>
       </c>
       <c r="R10" s="66">
-        <v>79.50</v>
+        <v>74.37</v>
       </c>
       <c r="S10" s="66">
-        <v>50.00</v>
+        <v>62.50</v>
       </c>
       <c r="T10" s="66">
-        <v>50.00</v>
+        <v>25.00</v>
       </c>
       <c r="U10" s="66">
+        <v>62.50</v>
+      </c>
+      <c r="V10" s="66">
         <v>37.50</v>
       </c>
-      <c r="V10" s="66">
-        <v>62.50</v>
-      </c>
       <c r="W10" s="66">
-        <v>37.50</v>
+        <v>43.75</v>
       </c>
       <c r="X10" s="66">
-        <v>18.75</v>
+        <v>25.00</v>
       </c>
       <c r="Y10" s="66">
-        <v>12.50</v>
+        <v>0.00</v>
       </c>
       <c r="Z10" s="66">
-        <v>49.16</v>
+        <v>50.84</v>
       </c>
       <c r="AA10" s="66">
-        <v>50.84</v>
+        <v>49.17</v>
       </c>
       <c r="AB10" s="66">
-        <v>2.20</v>
+        <v>1.50</v>
       </c>
       <c r="AC10" s="66">
-        <v>2.70</v>
+        <v>5.50</v>
       </c>
       <c r="AD10" s="66">
-        <v>3.60</v>
+        <v>3.90</v>
       </c>
       <c r="AE10" s="66">
-        <v>1.11</v>
+        <v>1.25</v>
       </c>
       <c r="AF10" s="66">
-        <v>1.65</v>
+        <v>1.36</v>
       </c>
       <c r="AG10" s="66">
-        <v>3.60</v>
+        <v>6.00</v>
       </c>
     </row>
     <row r="11">
       <c t="inlineStr" r="A11">
         <is>
-          <t xml:space="preserve">Thu 03 Jul 2025 17:00</t>
+          <t xml:space="preserve">Sun 06 Jul 2025 22:00</t>
         </is>
       </c>
       <c t="inlineStr" r="B11">
         <is>
-          <t xml:space="preserve">Musa v HPS</t>
+          <t xml:space="preserve">Caracas FC v Rayo Zuliano</t>
         </is>
       </c>
       <c t="inlineStr" r="C11">
         <is>
-          <t xml:space="preserve">Finland, Kakkonen - Lohko B</t>
+          <t xml:space="preserve">Venezuela, Primera División</t>
         </is>
       </c>
       <c r="D11" s="65">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E11" s="66">
-        <v>81.25</v>
+        <v>62.50</v>
       </c>
       <c r="F11" s="66">
-        <v>62.50</v>
+        <v>37.50</v>
       </c>
       <c r="G11" s="66">
         <v>31.25</v>
       </c>
       <c r="H11" s="66">
-        <v>18.75</v>
+        <v>25.00</v>
       </c>
       <c r="I11" s="66">
-        <v>25.00</v>
+        <v>37.50</v>
       </c>
       <c r="J11" s="66">
-        <v>14.32</v>
+        <v>14.26</v>
       </c>
       <c r="K11" s="66">
-        <v>12.66</v>
+        <v>25.74</v>
       </c>
       <c r="L11" s="66">
-        <v>19.11</v>
+        <v>21.30</v>
       </c>
       <c r="M11" s="66">
-        <v>11.14</v>
+        <v>10.56</v>
       </c>
       <c r="N11" s="66">
-        <v>23.79</v>
+        <v>12.60</v>
       </c>
       <c r="O11" s="66">
-        <v>19.01</v>
+        <v>15.56</v>
       </c>
       <c r="P11" s="66">
-        <v>-7.00</v>
+        <v>0.00</v>
       </c>
       <c r="Q11" s="66">
-        <v>0.50</v>
+        <v>5.00</v>
       </c>
       <c r="R11" s="66">
-        <v>82.75</v>
+        <v>61.35</v>
       </c>
       <c r="S11" s="66">
+        <v>25.00</v>
+      </c>
+      <c r="T11" s="66">
+        <v>50.00</v>
+      </c>
+      <c r="U11" s="66">
+        <v>37.50</v>
+      </c>
+      <c r="V11" s="66">
         <v>62.50</v>
       </c>
-      <c r="T11" s="66">
-        <v>37.50</v>
-      </c>
-      <c r="U11" s="66">
-        <v>87.50</v>
-      </c>
-      <c r="V11" s="66">
-        <v>12.50</v>
-      </c>
       <c r="W11" s="66">
         <v>50.00</v>
       </c>
       <c r="X11" s="66">
-        <v>12.50</v>
+        <v>6.25</v>
       </c>
       <c r="Y11" s="66">
-        <v>12.50</v>
+        <v>0.00</v>
       </c>
       <c r="Z11" s="66">
-        <v>46.07</v>
+        <v>61.30</v>
       </c>
       <c r="AA11" s="66">
-        <v>53.93</v>
+        <v>38.71</v>
       </c>
       <c r="AB11" s="66">
-        <v>1.53</v>
+        <v>1.70</v>
       </c>
       <c r="AC11" s="66">
         <v>4.75</v>
       </c>
       <c r="AD11" s="66">
-        <v>4.20</v>
+        <v>3.30</v>
       </c>
       <c r="AE11" s="66">
-        <v>1.11</v>
+        <v>1.30</v>
       </c>
       <c r="AF11" s="66">
-        <v>1.65</v>
+        <v>1.22</v>
       </c>
       <c r="AG11" s="66">
-        <v>3.60</v>
+        <v>8.00</v>
       </c>
     </row>
     <row r="12">
       <c t="inlineStr" r="A12">
         <is>
-          <t xml:space="preserve">Thu 03 Jul 2025 19:00</t>
+          <t xml:space="preserve">Sun 06 Jul 2025 22:30</t>
         </is>
       </c>
       <c t="inlineStr" r="B12">
         <is>
-          <t xml:space="preserve">Vikingur Gota v KI Klaksvik</t>
+          <t xml:space="preserve">Gualberto Villarroel SJ v Oriente Petrolero</t>
         </is>
       </c>
       <c t="inlineStr" r="C12">
         <is>
-          <t xml:space="preserve">Faroe-Islands, Meistaradeildin</t>
+          <t xml:space="preserve">Bolivia, Primera División</t>
         </is>
       </c>
       <c r="D12" s="65">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E12" s="66">
-        <v>93.75</v>
+        <v>87.50</v>
       </c>
       <c r="F12" s="66">
+        <v>62.50</v>
+      </c>
+      <c r="G12" s="66">
+        <v>50.00</v>
+      </c>
+      <c r="H12" s="66">
+        <v>25.00</v>
+      </c>
+      <c r="I12" s="66">
+        <v>18.75</v>
+      </c>
+      <c r="J12" s="66">
+        <v>19.66</v>
+      </c>
+      <c r="K12" s="66">
+        <v>16.66</v>
+      </c>
+      <c r="L12" s="66">
+        <v>15.61</v>
+      </c>
+      <c r="M12" s="66">
+        <v>6.46</v>
+      </c>
+      <c r="N12" s="66">
+        <v>13.01</v>
+      </c>
+      <c r="O12" s="66">
+        <v>28.62</v>
+      </c>
+      <c r="P12" s="66">
+        <v>0.00</v>
+      </c>
+      <c r="Q12" s="66">
+        <v>2.00</v>
+      </c>
+      <c r="R12" s="66">
+        <v>82.32</v>
+      </c>
+      <c r="S12" s="66">
+        <v>62.50</v>
+      </c>
+      <c r="T12" s="66">
+        <v>25.00</v>
+      </c>
+      <c r="U12" s="66">
         <v>75.00</v>
       </c>
-      <c r="G12" s="66">
-        <v>37.50</v>
-      </c>
-      <c r="H12" s="66">
-        <v>18.75</v>
-      </c>
-      <c r="I12" s="66">
-        <v>37.50</v>
-      </c>
-      <c r="J12" s="66">
-        <v>13.34</v>
-      </c>
-      <c r="K12" s="66">
-        <v>15.89</v>
-      </c>
-      <c r="L12" s="66">
-        <v>17.89</v>
-      </c>
-      <c r="M12" s="66">
-        <v>14.24</v>
-      </c>
-      <c r="N12" s="66">
-        <v>15.09</v>
-      </c>
-      <c r="O12" s="66">
-        <v>23.56</v>
-      </c>
-      <c r="P12" s="66">
-        <v>4.00</v>
-      </c>
-      <c r="Q12" s="66">
-        <v>-6.00</v>
-      </c>
-      <c r="R12" s="66">
-        <v>85.09</v>
-      </c>
-      <c r="S12" s="66">
-        <v>50.00</v>
-      </c>
-      <c r="T12" s="66">
-        <v>50.00</v>
-      </c>
-      <c r="U12" s="66">
-        <v>100.00</v>
-      </c>
       <c r="V12" s="66">
-        <v>0.00</v>
+        <v>25.00</v>
       </c>
       <c r="W12" s="66">
-        <v>50.00</v>
+        <v>56.25</v>
       </c>
       <c r="X12" s="66">
         <v>25.00</v>
@@ -1458,96 +1456,96 @@
         <v>6.25</v>
       </c>
       <c r="Z12" s="66">
-        <v>47.12</v>
+        <v>51.93</v>
       </c>
       <c r="AA12" s="66">
-        <v>52.88</v>
+        <v>48.08</v>
       </c>
       <c r="AB12" s="66">
+        <v>1.53</v>
+      </c>
+      <c r="AC12" s="66">
         <v>4.75</v>
       </c>
-      <c r="AC12" s="66">
-        <v>1.55</v>
-      </c>
       <c r="AD12" s="66">
-        <v>4.00</v>
+        <v>4.20</v>
       </c>
       <c r="AE12" s="66">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AF12" s="66">
-        <v>1.50</v>
+        <v>1.60</v>
       </c>
       <c r="AG12" s="66">
-        <v>4.50</v>
+        <v>4.10</v>
       </c>
     </row>
     <row r="13">
       <c t="inlineStr" r="A13">
         <is>
-          <t xml:space="preserve">Thu 03 Jul 2025 19:00</t>
+          <t xml:space="preserve">Sun 06 Jul 2025 22:30</t>
         </is>
       </c>
       <c t="inlineStr" r="B13">
         <is>
-          <t xml:space="preserve">Thor Akureyri v Throttur Reykjavik</t>
+          <t xml:space="preserve">Botafogo SP v Novorizontino</t>
         </is>
       </c>
       <c t="inlineStr" r="C13">
         <is>
-          <t xml:space="preserve">Iceland, 1. Deild</t>
+          <t xml:space="preserve">Brazil, Serie B</t>
         </is>
       </c>
       <c r="D13" s="65">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E13" s="66">
-        <v>100.00</v>
+        <v>62.50</v>
       </c>
       <c r="F13" s="66">
-        <v>81.25</v>
+        <v>37.50</v>
       </c>
       <c r="G13" s="66">
-        <v>68.75</v>
+        <v>12.50</v>
       </c>
       <c r="H13" s="66">
+        <v>0.00</v>
+      </c>
+      <c r="I13" s="66">
         <v>43.75</v>
       </c>
-      <c r="I13" s="66">
-        <v>18.75</v>
-      </c>
       <c r="J13" s="66">
-        <v>16.91</v>
+        <v>17.55</v>
       </c>
       <c r="K13" s="66">
-        <v>13.81</v>
+        <v>14.04</v>
       </c>
       <c r="L13" s="66">
-        <v>17.15</v>
+        <v>15.83</v>
       </c>
       <c r="M13" s="66">
-        <v>15.95</v>
+        <v>21.12</v>
       </c>
       <c r="N13" s="66">
-        <v>17.86</v>
+        <v>14.04</v>
       </c>
       <c r="O13" s="66">
-        <v>18.34</v>
+        <v>17.43</v>
       </c>
       <c r="P13" s="66">
-        <v>-6.00</v>
+        <v>29.00</v>
       </c>
       <c r="Q13" s="66">
-        <v>-3.00</v>
+        <v>-2.50</v>
       </c>
       <c r="R13" s="66">
-        <v>93.25</v>
+        <v>65.89</v>
       </c>
       <c r="S13" s="66">
-        <v>62.50</v>
+        <v>37.50</v>
       </c>
       <c r="T13" s="66">
-        <v>37.50</v>
+        <v>50.00</v>
       </c>
       <c r="U13" s="66">
         <v>62.50</v>
@@ -1556,780 +1554,756 @@
         <v>37.50</v>
       </c>
       <c r="W13" s="66">
-        <v>50.00</v>
+        <v>25.00</v>
       </c>
       <c r="X13" s="66">
-        <v>37.50</v>
+        <v>0.00</v>
       </c>
       <c r="Y13" s="66">
-        <v>6.25</v>
+        <v>0.00</v>
       </c>
       <c r="Z13" s="66">
-        <v>47.86</v>
+        <v>47.42</v>
       </c>
       <c r="AA13" s="66">
-        <v>52.15</v>
+        <v>52.59</v>
       </c>
       <c r="AB13" s="66">
-        <v>1.85</v>
+        <v>3.50</v>
       </c>
       <c r="AC13" s="66">
-        <v>3.30</v>
+        <v>2.30</v>
       </c>
       <c r="AD13" s="66">
-        <v>3.80</v>
+        <v>2.75</v>
       </c>
       <c r="AE13" s="66">
-        <v>1.13</v>
+        <v>1.75</v>
       </c>
       <c r="AF13" s="66">
-        <v>1.65</v>
+        <v>1.08</v>
       </c>
       <c r="AG13" s="66">
-        <v>3.50</v>
+        <v>17.00</v>
       </c>
     </row>
     <row r="14">
       <c t="inlineStr" r="A14">
         <is>
-          <t xml:space="preserve">Thu 03 Jul 2025 20:15</t>
+          <t xml:space="preserve">Sun 06 Jul 2025 22:30</t>
         </is>
       </c>
       <c t="inlineStr" r="B14">
         <is>
-          <t xml:space="preserve">Grindavik v Njardvik</t>
+          <t xml:space="preserve">San Luis v Concepción</t>
         </is>
       </c>
       <c t="inlineStr" r="C14">
         <is>
-          <t xml:space="preserve">Iceland, 1. Deild</t>
+          <t xml:space="preserve">Chile, Primera B</t>
         </is>
       </c>
       <c r="D14" s="65">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E14" s="66">
-        <v>100.00</v>
+        <v>56.25</v>
       </c>
       <c r="F14" s="66">
-        <v>75.00</v>
+        <v>50.00</v>
       </c>
       <c r="G14" s="66">
-        <v>68.75</v>
+        <v>6.25</v>
       </c>
       <c r="H14" s="66">
-        <v>37.50</v>
+        <v>0.00</v>
       </c>
       <c r="I14" s="66">
-        <v>6.25</v>
+        <v>50.00</v>
       </c>
       <c r="J14" s="66">
-        <v>15.69</v>
+        <v>7.98</v>
       </c>
       <c r="K14" s="66">
-        <v>8.15</v>
+        <v>14.50</v>
       </c>
       <c r="L14" s="66">
-        <v>12.57</v>
+        <v>17.76</v>
       </c>
       <c r="M14" s="66">
-        <v>12.57</v>
+        <v>15.65</v>
       </c>
       <c r="N14" s="66">
-        <v>24.45</v>
+        <v>17.44</v>
       </c>
       <c r="O14" s="66">
-        <v>26.59</v>
+        <v>26.68</v>
       </c>
       <c r="P14" s="66">
-        <v>11.00</v>
+        <v>0.00</v>
       </c>
       <c r="Q14" s="66">
-        <v>-3.50</v>
+        <v>0.00</v>
       </c>
       <c r="R14" s="66">
-        <v>91.00</v>
+        <v>61.79</v>
       </c>
       <c r="S14" s="66">
         <v>37.50</v>
       </c>
       <c r="T14" s="66">
-        <v>62.50</v>
+        <v>50.00</v>
       </c>
       <c r="U14" s="66">
         <v>50.00</v>
       </c>
       <c r="V14" s="66">
-        <v>50.00</v>
+        <v>25.00</v>
       </c>
       <c r="W14" s="66">
-        <v>50.00</v>
+        <v>37.50</v>
       </c>
       <c r="X14" s="66">
-        <v>25.00</v>
+        <v>6.25</v>
       </c>
       <c r="Y14" s="66">
         <v>0.00</v>
       </c>
       <c r="Z14" s="66">
-        <v>36.40</v>
+        <v>40.24</v>
       </c>
       <c r="AA14" s="66">
-        <v>63.61</v>
+        <v>59.77</v>
       </c>
       <c r="AB14" s="66">
-        <v>4.50</v>
+        <v>2.38</v>
       </c>
       <c r="AC14" s="66">
-        <v>1.60</v>
+        <v>2.80</v>
       </c>
       <c r="AD14" s="66">
-        <v>4.20</v>
+        <v>3.00</v>
       </c>
       <c r="AE14" s="66">
-        <v>1.10</v>
+        <v>1.40</v>
       </c>
       <c r="AF14" s="66">
-        <v>1.87</v>
+        <v>1.22</v>
       </c>
       <c r="AG14" s="66">
-        <v>3.10</v>
+        <v>8.50</v>
       </c>
     </row>
     <row r="15">
       <c t="inlineStr" r="A15">
         <is>
-          <t xml:space="preserve">Thu 03 Jul 2025 20:15</t>
+          <t xml:space="preserve">Sun 06 Jul 2025 22:30</t>
         </is>
       </c>
       <c t="inlineStr" r="B15">
         <is>
-          <t xml:space="preserve">Keflavik v Selfoss</t>
+          <t xml:space="preserve">Club Guarani v 2 de Mayo</t>
         </is>
       </c>
       <c t="inlineStr" r="C15">
         <is>
-          <t xml:space="preserve">Iceland, 1. Deild</t>
+          <t xml:space="preserve">Paraguay, Division Profesional - Clausura</t>
         </is>
       </c>
       <c r="D15" s="65">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E15" s="66">
-        <v>87.50</v>
+        <v>0.00</v>
       </c>
       <c r="F15" s="66">
-        <v>50.00</v>
+        <v>0.00</v>
       </c>
       <c r="G15" s="66">
-        <v>37.50</v>
+        <v>0.00</v>
       </c>
       <c r="H15" s="66">
-        <v>18.75</v>
+        <v>0.00</v>
       </c>
       <c r="I15" s="66">
-        <v>18.75</v>
+        <v>0.00</v>
       </c>
       <c r="J15" s="66">
-        <v>8.87</v>
+        <v>0.00</v>
       </c>
       <c r="K15" s="66">
-        <v>15.89</v>
+        <v>0.00</v>
       </c>
       <c r="L15" s="66">
-        <v>15.70</v>
+        <v>0.00</v>
       </c>
       <c r="M15" s="66">
-        <v>17.37</v>
+        <v>0.00</v>
       </c>
       <c r="N15" s="66">
-        <v>17.55</v>
+        <v>0.00</v>
       </c>
       <c r="O15" s="66">
-        <v>24.63</v>
+        <v>0.00</v>
       </c>
       <c r="P15" s="66">
-        <v>-9.00</v>
+        <v>6.00</v>
       </c>
       <c r="Q15" s="66">
-        <v>2.50</v>
+        <v>-8.00</v>
       </c>
       <c r="R15" s="66">
-        <v>79.81</v>
+        <v>0.00</v>
       </c>
       <c r="S15" s="66">
-        <v>50.00</v>
+        <v>0.00</v>
       </c>
       <c r="T15" s="66">
-        <v>37.50</v>
+        <v>0.00</v>
       </c>
       <c r="U15" s="66">
-        <v>37.50</v>
+        <v>0.00</v>
       </c>
       <c r="V15" s="66">
-        <v>62.50</v>
+        <v>0.00</v>
       </c>
       <c r="W15" s="66">
-        <v>31.25</v>
+        <v>0.00</v>
       </c>
       <c r="X15" s="66">
-        <v>6.25</v>
+        <v>0.00</v>
       </c>
       <c r="Y15" s="66">
-        <v>6.25</v>
+        <v>0.00</v>
       </c>
       <c r="Z15" s="66">
-        <v>40.46</v>
+        <v>0.00</v>
       </c>
       <c r="AA15" s="66">
-        <v>59.55</v>
+        <v>0.00</v>
       </c>
       <c r="AB15" s="66">
-        <v>1.25</v>
+        <v>2.40</v>
       </c>
       <c r="AC15" s="66">
-        <v>8.00</v>
+        <v>3.10</v>
       </c>
       <c r="AD15" s="66">
-        <v>5.50</v>
+        <v>2.90</v>
       </c>
       <c r="AE15" s="66">
-        <v>1.10</v>
+        <v>1.47</v>
       </c>
       <c r="AF15" s="66">
-        <v>1.73</v>
+        <v>1.17</v>
       </c>
       <c r="AG15" s="66">
-        <v>3.40</v>
+        <v>11.00</v>
       </c>
     </row>
     <row r="16">
       <c t="inlineStr" r="A16">
         <is>
-          <t xml:space="preserve">Thu 03 Jul 2025 20:15</t>
+          <t xml:space="preserve">Sun 06 Jul 2025 23:00</t>
         </is>
       </c>
       <c t="inlineStr" r="B16">
         <is>
-          <t xml:space="preserve">Afturelding v Breidablik</t>
+          <t xml:space="preserve">Brusque v Figueirense</t>
         </is>
       </c>
       <c t="inlineStr" r="C16">
         <is>
-          <t xml:space="preserve">Iceland, Úrvalsdeild</t>
+          <t xml:space="preserve">Brazil, Serie C</t>
         </is>
       </c>
       <c r="D16" s="65">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E16" s="66">
-        <v>81.25</v>
+        <v>56.25</v>
       </c>
       <c r="F16" s="66">
-        <v>50.00</v>
+        <v>37.50</v>
       </c>
       <c r="G16" s="66">
-        <v>31.25</v>
+        <v>18.75</v>
       </c>
       <c r="H16" s="66">
-        <v>25.00</v>
+        <v>18.75</v>
       </c>
       <c r="I16" s="66">
-        <v>18.75</v>
+        <v>43.75</v>
       </c>
       <c r="J16" s="66">
-        <v>14.14</v>
+        <v>7.88</v>
       </c>
       <c r="K16" s="66">
-        <v>11.84</v>
+        <v>16.94</v>
       </c>
       <c r="L16" s="66">
-        <v>16.15</v>
+        <v>19.77</v>
       </c>
       <c r="M16" s="66">
-        <v>16.89</v>
+        <v>14.83</v>
       </c>
       <c r="N16" s="66">
-        <v>17.34</v>
+        <v>16.83</v>
       </c>
       <c r="O16" s="66">
-        <v>23.66</v>
+        <v>23.77</v>
       </c>
       <c r="P16" s="66">
-        <v>3.00</v>
+        <v>-6.00</v>
       </c>
       <c r="Q16" s="66">
-        <v>-2.50</v>
+        <v>-1.00</v>
       </c>
       <c r="R16" s="66">
-        <v>74.23</v>
+        <v>61.00</v>
       </c>
       <c r="S16" s="66">
-        <v>0.00</v>
+        <v>62.50</v>
       </c>
       <c r="T16" s="66">
-        <v>87.50</v>
+        <v>12.50</v>
       </c>
       <c r="U16" s="66">
-        <v>37.50</v>
+        <v>62.50</v>
       </c>
       <c r="V16" s="66">
-        <v>62.50</v>
+        <v>25.00</v>
       </c>
       <c r="W16" s="66">
-        <v>37.50</v>
+        <v>12.50</v>
       </c>
       <c r="X16" s="66">
         <v>12.50</v>
       </c>
       <c r="Y16" s="66">
-        <v>6.25</v>
+        <v>0.00</v>
       </c>
       <c r="Z16" s="66">
-        <v>42.12</v>
+        <v>44.59</v>
       </c>
       <c r="AA16" s="66">
-        <v>57.89</v>
+        <v>55.41</v>
       </c>
       <c r="AB16" s="66">
-        <v>4.00</v>
+        <v>2.90</v>
       </c>
       <c r="AC16" s="66">
-        <v>1.73</v>
+        <v>2.55</v>
       </c>
       <c r="AD16" s="66">
-        <v>3.80</v>
+        <v>2.70</v>
       </c>
       <c r="AE16" s="66">
-        <v>1.17</v>
+        <v>1.62</v>
       </c>
       <c r="AF16" s="66">
-        <v>1.53</v>
+        <v>1.10</v>
       </c>
       <c r="AG16" s="66">
-        <v>4.50</v>
+        <v>15.00</v>
       </c>
     </row>
     <row r="17">
       <c t="inlineStr" r="A17">
         <is>
-          <t xml:space="preserve">Thu 03 Jul 2025 21:30</t>
+          <t xml:space="preserve">Sun 06 Jul 2025 23:00</t>
         </is>
       </c>
       <c t="inlineStr" r="B17">
         <is>
-          <t xml:space="preserve">Atlético Vinotinto v Leones del Norte</t>
+          <t xml:space="preserve">Ypiranga-RS v Maringá</t>
         </is>
       </c>
       <c t="inlineStr" r="C17">
         <is>
-          <t xml:space="preserve">Ecuador, Liga Pro Serie B</t>
+          <t xml:space="preserve">Brazil, Serie C</t>
         </is>
       </c>
       <c r="D17" s="65">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E17" s="66">
-        <v>50.00</v>
+        <v>56.25</v>
       </c>
       <c r="F17" s="66">
-        <v>37.50</v>
+        <v>31.25</v>
       </c>
       <c r="G17" s="66">
-        <v>25.00</v>
+        <v>18.75</v>
       </c>
       <c r="H17" s="66">
         <v>12.50</v>
       </c>
       <c r="I17" s="66">
-        <v>43.75</v>
+        <v>37.50</v>
       </c>
       <c r="J17" s="66">
-        <v>14.27</v>
+        <v>19.05</v>
       </c>
       <c r="K17" s="66">
-        <v>11.99</v>
+        <v>12.50</v>
       </c>
       <c r="L17" s="66">
-        <v>11.59</v>
+        <v>16.08</v>
       </c>
       <c r="M17" s="66">
-        <v>21.25</v>
+        <v>10.12</v>
       </c>
       <c r="N17" s="66">
-        <v>17.76</v>
+        <v>19.65</v>
       </c>
       <c r="O17" s="66">
-        <v>23.17</v>
+        <v>22.62</v>
       </c>
       <c r="P17" s="66">
-        <v>4.00</v>
+        <v>-6.00</v>
       </c>
       <c r="Q17" s="66">
         <v>-2.00</v>
       </c>
       <c r="R17" s="66">
-        <v>61.08</v>
+        <v>65.25</v>
       </c>
       <c r="S17" s="66">
-        <v>12.50</v>
+        <v>62.50</v>
       </c>
       <c r="T17" s="66">
+        <v>25.00</v>
+      </c>
+      <c r="U17" s="66">
+        <v>25.00</v>
+      </c>
+      <c r="V17" s="66">
         <v>75.00</v>
       </c>
-      <c r="U17" s="66">
-        <v>50.00</v>
-      </c>
-      <c r="V17" s="66">
-        <v>25.00</v>
-      </c>
       <c r="W17" s="66">
-        <v>18.75</v>
+        <v>31.25</v>
       </c>
       <c r="X17" s="66">
-        <v>12.50</v>
+        <v>6.25</v>
       </c>
       <c r="Y17" s="66">
         <v>0.00</v>
       </c>
       <c r="Z17" s="66">
-        <v>37.84</v>
+        <v>47.62</v>
       </c>
       <c r="AA17" s="66">
-        <v>62.17</v>
+        <v>52.38</v>
       </c>
       <c r="AB17" s="66">
-        <v>2.80</v>
+        <v>2.20</v>
       </c>
       <c r="AC17" s="66">
-        <v>2.50</v>
+        <v>3.00</v>
       </c>
       <c r="AD17" s="66">
-        <v>2.90</v>
+        <v>3.00</v>
       </c>
       <c r="AE17" s="66">
-        <v>1.44</v>
+        <v>1.40</v>
       </c>
       <c r="AF17" s="66">
-        <v>1.20</v>
+        <v>1.22</v>
       </c>
       <c r="AG17" s="66">
-        <v>10.00</v>
+        <v>8.50</v>
       </c>
     </row>
     <row r="18">
       <c t="inlineStr" r="A18">
         <is>
-          <t xml:space="preserve">Thu 03 Jul 2025 23:00</t>
+          <t xml:space="preserve">Sun 06 Jul 2025 23:00</t>
         </is>
       </c>
       <c t="inlineStr" r="B18">
         <is>
-          <t xml:space="preserve">Cerro Porteno v General Caballero</t>
+          <t xml:space="preserve">Academia Anzoátegui v UCV</t>
         </is>
       </c>
       <c t="inlineStr" r="C18">
         <is>
-          <t xml:space="preserve">Paraguay, Division Profesional - Clausura</t>
+          <t xml:space="preserve">Venezuela, Primera División</t>
         </is>
       </c>
       <c r="D18" s="65">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E18" s="66">
-        <v>0.00</v>
+        <v>50.00</v>
       </c>
       <c r="F18" s="66">
-        <v>0.00</v>
+        <v>18.75</v>
       </c>
       <c r="G18" s="66">
-        <v>0.00</v>
+        <v>18.75</v>
       </c>
       <c r="H18" s="66">
-        <v>0.00</v>
+        <v>12.50</v>
       </c>
       <c r="I18" s="66">
-        <v>0.00</v>
+        <v>62.50</v>
       </c>
       <c r="J18" s="66">
-        <v>0.00</v>
+        <v>14.87</v>
       </c>
       <c r="K18" s="66">
-        <v>0.00</v>
+        <v>15.23</v>
       </c>
       <c r="L18" s="66">
-        <v>0.00</v>
+        <v>23.21</v>
       </c>
       <c r="M18" s="66">
-        <v>0.00</v>
+        <v>11.79</v>
       </c>
       <c r="N18" s="66">
-        <v>0.00</v>
+        <v>14.87</v>
       </c>
       <c r="O18" s="66">
-        <v>0.00</v>
+        <v>20.05</v>
       </c>
       <c r="P18" s="66">
-        <v>-6.00</v>
+        <v>1.00</v>
       </c>
       <c r="Q18" s="66">
-        <v>-4.00</v>
+        <v>-6.50</v>
       </c>
       <c r="R18" s="66">
-        <v>0.00</v>
+        <v>53.37</v>
       </c>
       <c r="S18" s="66">
-        <v>0.00</v>
+        <v>12.50</v>
       </c>
       <c r="T18" s="66">
-        <v>0.00</v>
+        <v>50.00</v>
       </c>
       <c r="U18" s="66">
-        <v>0.00</v>
+        <v>75.00</v>
       </c>
       <c r="V18" s="66">
-        <v>0.00</v>
+        <v>12.50</v>
       </c>
       <c r="W18" s="66">
-        <v>0.00</v>
+        <v>31.25</v>
       </c>
       <c r="X18" s="66">
-        <v>0.00</v>
+        <v>6.25</v>
       </c>
       <c r="Y18" s="66">
         <v>0.00</v>
       </c>
       <c r="Z18" s="66">
-        <v>0.00</v>
+        <v>53.31</v>
       </c>
       <c r="AA18" s="66">
-        <v>0.00</v>
-      </c>
-      <c t="inlineStr" r="AB18">
-        <is>
-          <t xml:space="preserve">-</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="AC18">
-        <is>
-          <t xml:space="preserve">-</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="AD18">
-        <is>
-          <t xml:space="preserve">-</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="AE18">
-        <is>
-          <t xml:space="preserve">-</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="AF18">
-        <is>
-          <t xml:space="preserve">-</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="AG18">
-        <is>
-          <t xml:space="preserve">-</t>
-        </is>
+        <v>46.70</v>
+      </c>
+      <c r="AB18" s="66">
+        <v>3.10</v>
+      </c>
+      <c r="AC18" s="66">
+        <v>2.20</v>
+      </c>
+      <c r="AD18" s="66">
+        <v>2.90</v>
+      </c>
+      <c r="AE18" s="66">
+        <v>1.40</v>
+      </c>
+      <c r="AF18" s="66">
+        <v>1.20</v>
+      </c>
+      <c r="AG18" s="66">
+        <v>9.00</v>
       </c>
     </row>
     <row r="19">
       <c t="inlineStr" r="A19">
         <is>
-          <t xml:space="preserve">Thu 03 Jul 2025 23:00</t>
+          <t xml:space="preserve">Sun 06 Jul 2025 23:10</t>
         </is>
       </c>
       <c t="inlineStr" r="B19">
         <is>
-          <t xml:space="preserve">Club Guarani v 2 de Mayo</t>
+          <t xml:space="preserve">Almirante Brown v Temperley</t>
         </is>
       </c>
       <c t="inlineStr" r="C19">
         <is>
-          <t xml:space="preserve">Paraguay, Division Profesional - Clausura</t>
+          <t xml:space="preserve">Argentina, Primera Nacional</t>
         </is>
       </c>
       <c r="D19" s="65">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E19" s="66">
-        <v>0.00</v>
+        <v>68.75</v>
       </c>
       <c r="F19" s="66">
-        <v>0.00</v>
+        <v>37.50</v>
       </c>
       <c r="G19" s="66">
-        <v>0.00</v>
+        <v>18.75</v>
       </c>
       <c r="H19" s="66">
         <v>0.00</v>
       </c>
       <c r="I19" s="66">
-        <v>0.00</v>
+        <v>31.25</v>
       </c>
       <c r="J19" s="66">
-        <v>0.00</v>
+        <v>9.32</v>
       </c>
       <c r="K19" s="66">
-        <v>0.00</v>
+        <v>15.66</v>
       </c>
       <c r="L19" s="66">
-        <v>0.00</v>
+        <v>19.72</v>
       </c>
       <c r="M19" s="66">
-        <v>0.00</v>
+        <v>21.07</v>
       </c>
       <c r="N19" s="66">
-        <v>0.00</v>
+        <v>7.90</v>
       </c>
       <c r="O19" s="66">
-        <v>0.00</v>
+        <v>26.34</v>
       </c>
       <c r="P19" s="66">
-        <v>6.00</v>
+        <v>37.00</v>
       </c>
       <c r="Q19" s="66">
-        <v>-8.00</v>
+        <v>9.50</v>
       </c>
       <c r="R19" s="66">
-        <v>0.00</v>
+        <v>63.50</v>
       </c>
       <c r="S19" s="66">
-        <v>0.00</v>
+        <v>25.00</v>
       </c>
       <c r="T19" s="66">
-        <v>0.00</v>
+        <v>62.50</v>
       </c>
       <c r="U19" s="66">
-        <v>0.00</v>
+        <v>37.50</v>
       </c>
       <c r="V19" s="66">
-        <v>0.00</v>
+        <v>37.50</v>
       </c>
       <c r="W19" s="66">
-        <v>0.00</v>
+        <v>31.25</v>
       </c>
       <c r="X19" s="66">
-        <v>0.00</v>
+        <v>6.25</v>
       </c>
       <c r="Y19" s="66">
         <v>0.00</v>
       </c>
       <c r="Z19" s="66">
-        <v>0.00</v>
+        <v>44.70</v>
       </c>
       <c r="AA19" s="66">
-        <v>0.00</v>
-      </c>
-      <c t="inlineStr" r="AB19">
-        <is>
-          <t xml:space="preserve">-</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="AC19">
-        <is>
-          <t xml:space="preserve">-</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="AD19">
-        <is>
-          <t xml:space="preserve">-</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="AE19">
-        <is>
-          <t xml:space="preserve">-</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="AF19">
-        <is>
-          <t xml:space="preserve">-</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="AG19">
-        <is>
-          <t xml:space="preserve">-</t>
-        </is>
+        <v>55.31</v>
+      </c>
+      <c r="AB19" s="66">
+        <v>3.40</v>
+      </c>
+      <c r="AC19" s="66">
+        <v>2.30</v>
+      </c>
+      <c r="AD19" s="66">
+        <v>2.63</v>
+      </c>
+      <c r="AE19" s="66">
+        <v>1.67</v>
+      </c>
+      <c r="AF19" s="66">
+        <v>1.10</v>
+      </c>
+      <c r="AG19" s="66">
+        <v>15.00</v>
       </c>
     </row>
     <row r="20">
       <c t="inlineStr" r="A20">
         <is>
-          <t xml:space="preserve">Thu 03 Jul 2025 23:00</t>
+          <t xml:space="preserve">Sun 06 Jul 2025 23:30</t>
         </is>
       </c>
       <c t="inlineStr" r="B20">
         <is>
-          <t xml:space="preserve">Deportivo Recoleta v Sportivo Trinidense</t>
+          <t xml:space="preserve">Deportivo Garcilaso v Universitario</t>
         </is>
       </c>
       <c t="inlineStr" r="C20">
         <is>
-          <t xml:space="preserve">Paraguay, Division Profesional - Clausura</t>
+          <t xml:space="preserve">Peru, Primera División</t>
         </is>
       </c>
       <c r="D20" s="65">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E20" s="66">
-        <v>0.00</v>
+        <v>68.75</v>
       </c>
       <c r="F20" s="66">
-        <v>0.00</v>
+        <v>43.75</v>
       </c>
       <c r="G20" s="66">
-        <v>0.00</v>
+        <v>31.25</v>
       </c>
       <c r="H20" s="66">
-        <v>0.00</v>
+        <v>18.75</v>
       </c>
       <c r="I20" s="66">
-        <v>0.00</v>
+        <v>43.75</v>
       </c>
       <c r="J20" s="66">
-        <v>0.00</v>
+        <v>6.26</v>
       </c>
       <c r="K20" s="66">
-        <v>0.00</v>
+        <v>13.80</v>
       </c>
       <c r="L20" s="66">
-        <v>0.00</v>
+        <v>18.97</v>
       </c>
       <c r="M20" s="66">
-        <v>0.00</v>
+        <v>16.80</v>
       </c>
       <c r="N20" s="66">
-        <v>0.00</v>
+        <v>26.38</v>
       </c>
       <c r="O20" s="66">
-        <v>0.00</v>
+        <v>17.82</v>
       </c>
       <c r="P20" s="66">
-        <v>-14.00</v>
+        <v>4.00</v>
       </c>
       <c r="Q20" s="66">
-        <v>4.00</v>
+        <v>-15.00</v>
       </c>
       <c r="R20" s="66">
-        <v>0.00</v>
+        <v>73.42</v>
       </c>
       <c r="S20" s="66">
-        <v>0.00</v>
+        <v>12.50</v>
       </c>
       <c r="T20" s="66">
-        <v>0.00</v>
+        <v>75.00</v>
       </c>
       <c r="U20" s="66">
-        <v>0.00</v>
+        <v>62.50</v>
       </c>
       <c r="V20" s="66">
-        <v>0.00</v>
+        <v>37.50</v>
       </c>
       <c r="W20" s="66">
-        <v>0.00</v>
+        <v>25.00</v>
       </c>
       <c r="X20" s="66">
         <v>0.00</v>
@@ -2338,413 +2312,365 @@
         <v>0.00</v>
       </c>
       <c r="Z20" s="66">
-        <v>0.00</v>
+        <v>39.02</v>
       </c>
       <c r="AA20" s="66">
-        <v>0.00</v>
-      </c>
-      <c t="inlineStr" r="AB20">
-        <is>
-          <t xml:space="preserve">-</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="AC20">
-        <is>
-          <t xml:space="preserve">-</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="AD20">
-        <is>
-          <t xml:space="preserve">-</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="AE20">
-        <is>
-          <t xml:space="preserve">-</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="AF20">
-        <is>
-          <t xml:space="preserve">-</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="AG20">
-        <is>
-          <t xml:space="preserve">-</t>
-        </is>
+        <v>60.99</v>
+      </c>
+      <c r="AB20" s="66">
+        <v>3.00</v>
+      </c>
+      <c r="AC20" s="66">
+        <v>2.30</v>
+      </c>
+      <c r="AD20" s="66">
+        <v>3.00</v>
+      </c>
+      <c r="AE20" s="66">
+        <v>1.40</v>
+      </c>
+      <c r="AF20" s="66">
+        <v>1.20</v>
+      </c>
+      <c r="AG20" s="66">
+        <v>9.00</v>
       </c>
     </row>
     <row r="21">
       <c t="inlineStr" r="A21">
         <is>
-          <t xml:space="preserve">Thu 03 Jul 2025 23:00</t>
+          <t xml:space="preserve">Mon 07 Jul 2025 00:00</t>
         </is>
       </c>
       <c t="inlineStr" r="B21">
         <is>
-          <t xml:space="preserve">Libertad Asuncion v Sportivo Luqueno</t>
+          <t xml:space="preserve">Delfin SC v LDU de Quito</t>
         </is>
       </c>
       <c t="inlineStr" r="C21">
         <is>
-          <t xml:space="preserve">Paraguay, Division Profesional - Clausura</t>
+          <t xml:space="preserve">Ecuador, Liga Pro</t>
         </is>
       </c>
       <c r="D21" s="65">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E21" s="66">
-        <v>0.00</v>
+        <v>75.00</v>
       </c>
       <c r="F21" s="66">
-        <v>0.00</v>
+        <v>50.00</v>
       </c>
       <c r="G21" s="66">
-        <v>0.00</v>
+        <v>31.25</v>
       </c>
       <c r="H21" s="66">
-        <v>0.00</v>
+        <v>6.25</v>
       </c>
       <c r="I21" s="66">
-        <v>0.00</v>
+        <v>31.25</v>
       </c>
       <c r="J21" s="66">
-        <v>0.00</v>
+        <v>11.01</v>
       </c>
       <c r="K21" s="66">
-        <v>0.00</v>
+        <v>11.01</v>
       </c>
       <c r="L21" s="66">
-        <v>0.00</v>
+        <v>17.86</v>
       </c>
       <c r="M21" s="66">
-        <v>0.00</v>
+        <v>11.31</v>
       </c>
       <c r="N21" s="66">
-        <v>0.00</v>
+        <v>17.71</v>
       </c>
       <c r="O21" s="66">
-        <v>0.00</v>
+        <v>31.10</v>
       </c>
       <c r="P21" s="66">
-        <v>-8.00</v>
+        <v>17.00</v>
       </c>
       <c r="Q21" s="66">
-        <v>5.00</v>
+        <v>-1.50</v>
       </c>
       <c r="R21" s="66">
-        <v>0.00</v>
+        <v>72.09</v>
       </c>
       <c r="S21" s="66">
-        <v>0.00</v>
+        <v>75.00</v>
       </c>
       <c r="T21" s="66">
-        <v>0.00</v>
+        <v>12.50</v>
       </c>
       <c r="U21" s="66">
-        <v>0.00</v>
+        <v>37.50</v>
       </c>
       <c r="V21" s="66">
-        <v>0.00</v>
+        <v>62.50</v>
       </c>
       <c r="W21" s="66">
-        <v>0.00</v>
+        <v>18.75</v>
       </c>
       <c r="X21" s="66">
-        <v>0.00</v>
+        <v>12.50</v>
       </c>
       <c r="Y21" s="66">
-        <v>0.00</v>
+        <v>6.25</v>
       </c>
       <c r="Z21" s="66">
-        <v>0.00</v>
+        <v>39.89</v>
       </c>
       <c r="AA21" s="66">
-        <v>0.00</v>
-      </c>
-      <c t="inlineStr" r="AB21">
-        <is>
-          <t xml:space="preserve">-</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="AC21">
-        <is>
-          <t xml:space="preserve">-</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="AD21">
-        <is>
-          <t xml:space="preserve">-</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="AE21">
-        <is>
-          <t xml:space="preserve">-</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="AF21">
-        <is>
-          <t xml:space="preserve">-</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="AG21">
-        <is>
-          <t xml:space="preserve">-</t>
-        </is>
+        <v>60.12</v>
+      </c>
+      <c r="AB21" s="66">
+        <v>3.40</v>
+      </c>
+      <c r="AC21" s="66">
+        <v>2.05</v>
+      </c>
+      <c r="AD21" s="66">
+        <v>3.00</v>
+      </c>
+      <c r="AE21" s="66">
+        <v>1.40</v>
+      </c>
+      <c r="AF21" s="66">
+        <v>1.20</v>
+      </c>
+      <c r="AG21" s="66">
+        <v>9.00</v>
       </c>
     </row>
     <row r="22">
       <c t="inlineStr" r="A22">
         <is>
-          <t xml:space="preserve">Thu 03 Jul 2025 23:00</t>
+          <t xml:space="preserve">Mon 07 Jul 2025 00:30</t>
         </is>
       </c>
       <c t="inlineStr" r="B22">
         <is>
-          <t xml:space="preserve">Olimpia v Nacional Asuncion</t>
+          <t xml:space="preserve">Blooming v Real Oruro</t>
         </is>
       </c>
       <c t="inlineStr" r="C22">
         <is>
-          <t xml:space="preserve">Paraguay, Division Profesional - Clausura</t>
+          <t xml:space="preserve">Bolivia, Primera División</t>
         </is>
       </c>
       <c r="D22" s="65">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E22" s="66">
-        <v>0.00</v>
+        <v>87.50</v>
       </c>
       <c r="F22" s="66">
-        <v>0.00</v>
+        <v>75.00</v>
       </c>
       <c r="G22" s="66">
-        <v>0.00</v>
+        <v>62.50</v>
       </c>
       <c r="H22" s="66">
-        <v>0.00</v>
+        <v>18.75</v>
       </c>
       <c r="I22" s="66">
-        <v>0.00</v>
+        <v>18.75</v>
       </c>
       <c r="J22" s="66">
-        <v>0.00</v>
+        <v>17.94</v>
       </c>
       <c r="K22" s="66">
-        <v>0.00</v>
+        <v>11.17</v>
       </c>
       <c r="L22" s="66">
-        <v>0.00</v>
+        <v>13.39</v>
       </c>
       <c r="M22" s="66">
-        <v>0.00</v>
+        <v>19.56</v>
       </c>
       <c r="N22" s="66">
-        <v>0.00</v>
+        <v>16.07</v>
       </c>
       <c r="O22" s="66">
-        <v>0.00</v>
+        <v>21.88</v>
       </c>
       <c r="P22" s="66">
-        <v>2.00</v>
+        <v>-8.00</v>
       </c>
       <c r="Q22" s="66">
-        <v>4.00</v>
+        <v>-4.00</v>
       </c>
       <c r="R22" s="66">
-        <v>0.00</v>
+        <v>82.50</v>
       </c>
       <c r="S22" s="66">
-        <v>0.00</v>
+        <v>50.00</v>
       </c>
       <c r="T22" s="66">
-        <v>0.00</v>
+        <v>37.50</v>
       </c>
       <c r="U22" s="66">
-        <v>0.00</v>
+        <v>75.00</v>
       </c>
       <c r="V22" s="66">
-        <v>0.00</v>
+        <v>12.50</v>
       </c>
       <c r="W22" s="66">
-        <v>0.00</v>
+        <v>56.25</v>
       </c>
       <c r="X22" s="66">
-        <v>0.00</v>
+        <v>18.75</v>
       </c>
       <c r="Y22" s="66">
-        <v>0.00</v>
+        <v>6.25</v>
       </c>
       <c r="Z22" s="66">
-        <v>0.00</v>
+        <v>42.49</v>
       </c>
       <c r="AA22" s="66">
-        <v>0.00</v>
-      </c>
-      <c t="inlineStr" r="AB22">
-        <is>
-          <t xml:space="preserve">-</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="AC22">
-        <is>
-          <t xml:space="preserve">-</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="AD22">
-        <is>
-          <t xml:space="preserve">-</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="AE22">
-        <is>
-          <t xml:space="preserve">-</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="AF22">
-        <is>
-          <t xml:space="preserve">-</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="AG22">
-        <is>
-          <t xml:space="preserve">-</t>
-        </is>
+        <v>57.51</v>
+      </c>
+      <c r="AB22" s="66">
+        <v>1.22</v>
+      </c>
+      <c r="AC22" s="66">
+        <v>9.50</v>
+      </c>
+      <c r="AD22" s="66">
+        <v>5.00</v>
+      </c>
+      <c r="AE22" s="66">
+        <v>1.17</v>
+      </c>
+      <c r="AF22" s="66">
+        <v>1.50</v>
+      </c>
+      <c r="AG22" s="66">
+        <v>4.50</v>
       </c>
     </row>
     <row r="23">
       <c t="inlineStr" r="A23">
         <is>
-          <t xml:space="preserve">Thu 03 Jul 2025 23:00</t>
+          <t xml:space="preserve">Mon 07 Jul 2025 00:30</t>
         </is>
       </c>
       <c t="inlineStr" r="B23">
         <is>
-          <t xml:space="preserve">Sportivo Ameliano v Atlético Tembetary</t>
+          <t xml:space="preserve">Zamora FC v Deportivo Tachira FC</t>
         </is>
       </c>
       <c t="inlineStr" r="C23">
         <is>
-          <t xml:space="preserve">Paraguay, Division Profesional - Clausura</t>
+          <t xml:space="preserve">Venezuela, Primera División</t>
         </is>
       </c>
       <c r="D23" s="65">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E23" s="66">
-        <v>0.00</v>
+        <v>68.75</v>
       </c>
       <c r="F23" s="66">
-        <v>0.00</v>
+        <v>43.75</v>
       </c>
       <c r="G23" s="66">
-        <v>0.00</v>
+        <v>18.75</v>
       </c>
       <c r="H23" s="66">
-        <v>0.00</v>
+        <v>12.50</v>
       </c>
       <c r="I23" s="66">
-        <v>0.00</v>
+        <v>31.25</v>
       </c>
       <c r="J23" s="66">
-        <v>0.00</v>
+        <v>21.33</v>
       </c>
       <c r="K23" s="66">
-        <v>0.00</v>
+        <v>16.03</v>
       </c>
       <c r="L23" s="66">
-        <v>0.00</v>
+        <v>14.43</v>
       </c>
       <c r="M23" s="66">
-        <v>0.00</v>
+        <v>16.16</v>
       </c>
       <c r="N23" s="66">
-        <v>0.00</v>
+        <v>14.30</v>
       </c>
       <c r="O23" s="66">
-        <v>0.00</v>
+        <v>17.75</v>
       </c>
       <c r="P23" s="66">
-        <v>16.00</v>
+        <v>19.00</v>
       </c>
       <c r="Q23" s="66">
-        <v>-1.00</v>
+        <v>-0.50</v>
       </c>
       <c r="R23" s="66">
-        <v>0.00</v>
+        <v>64.14</v>
       </c>
       <c r="S23" s="66">
-        <v>0.00</v>
+        <v>25.00</v>
       </c>
       <c r="T23" s="66">
-        <v>0.00</v>
+        <v>62.50</v>
       </c>
       <c r="U23" s="66">
-        <v>0.00</v>
+        <v>50.00</v>
       </c>
       <c r="V23" s="66">
-        <v>0.00</v>
+        <v>25.00</v>
       </c>
       <c r="W23" s="66">
-        <v>0.00</v>
+        <v>37.50</v>
       </c>
       <c r="X23" s="66">
-        <v>0.00</v>
+        <v>25.00</v>
       </c>
       <c r="Y23" s="66">
         <v>0.00</v>
       </c>
       <c r="Z23" s="66">
-        <v>0.00</v>
+        <v>51.79</v>
       </c>
       <c r="AA23" s="66">
-        <v>0.00</v>
-      </c>
-      <c t="inlineStr" r="AB23">
-        <is>
-          <t xml:space="preserve">-</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="AC23">
-        <is>
-          <t xml:space="preserve">-</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="AD23">
-        <is>
-          <t xml:space="preserve">-</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="AE23">
-        <is>
-          <t xml:space="preserve">-</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="AF23">
-        <is>
-          <t xml:space="preserve">-</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="AG23">
-        <is>
-          <t xml:space="preserve">-</t>
-        </is>
+        <v>48.22</v>
+      </c>
+      <c r="AB23" s="66">
+        <v>3.40</v>
+      </c>
+      <c r="AC23" s="66">
+        <v>2.00</v>
+      </c>
+      <c r="AD23" s="66">
+        <v>3.25</v>
+      </c>
+      <c r="AE23" s="66">
+        <v>1.36</v>
+      </c>
+      <c r="AF23" s="66">
+        <v>1.22</v>
+      </c>
+      <c r="AG23" s="66">
+        <v>8.00</v>
       </c>
     </row>
     <row r="24">
       <c t="inlineStr" r="A24">
         <is>
-          <t xml:space="preserve">Fri 04 Jul 2025 00:00</t>
+          <t xml:space="preserve">Mon 07 Jul 2025 16:00</t>
         </is>
       </c>
       <c t="inlineStr" r="B24">
         <is>
-          <t xml:space="preserve">Loudoun United v Orange County SC</t>
+          <t xml:space="preserve">Kooteepee v Gnistan</t>
         </is>
       </c>
       <c t="inlineStr" r="C24">
         <is>
-          <t xml:space="preserve">USA, USL Championship</t>
+          <t xml:space="preserve">Finland, Veikkausliiga</t>
         </is>
       </c>
       <c r="D24" s="65">
@@ -2757,76 +2683,76 @@
         <v>75.00</v>
       </c>
       <c r="G24" s="66">
+        <v>50.00</v>
+      </c>
+      <c r="H24" s="66">
         <v>31.25</v>
       </c>
-      <c r="H24" s="66">
-        <v>18.75</v>
-      </c>
       <c r="I24" s="66">
-        <v>6.25</v>
+        <v>12.50</v>
       </c>
       <c r="J24" s="66">
-        <v>6.12</v>
+        <v>9.14</v>
       </c>
       <c r="K24" s="66">
-        <v>15.85</v>
+        <v>11.27</v>
       </c>
       <c r="L24" s="66">
-        <v>21.75</v>
+        <v>18.98</v>
       </c>
       <c r="M24" s="66">
-        <v>20.12</v>
+        <v>17.10</v>
       </c>
       <c r="N24" s="66">
-        <v>15.14</v>
+        <v>17.65</v>
       </c>
       <c r="O24" s="66">
-        <v>21.04</v>
+        <v>25.86</v>
       </c>
       <c r="P24" s="66">
-        <v>-13.00</v>
+        <v>8.00</v>
       </c>
       <c r="Q24" s="66">
-        <v>-1.50</v>
+        <v>7.00</v>
       </c>
       <c r="R24" s="66">
-        <v>83.93</v>
+        <v>82.31</v>
       </c>
       <c r="S24" s="66">
         <v>12.50</v>
       </c>
       <c r="T24" s="66">
-        <v>87.50</v>
+        <v>75.00</v>
       </c>
       <c r="U24" s="66">
-        <v>50.00</v>
+        <v>37.50</v>
       </c>
       <c r="V24" s="66">
         <v>50.00</v>
       </c>
       <c r="W24" s="66">
-        <v>43.75</v>
+        <v>50.00</v>
       </c>
       <c r="X24" s="66">
         <v>18.75</v>
       </c>
       <c r="Y24" s="66">
-        <v>0.00</v>
+        <v>6.25</v>
       </c>
       <c r="Z24" s="66">
-        <v>43.71</v>
+        <v>39.39</v>
       </c>
       <c r="AA24" s="66">
-        <v>56.30</v>
+        <v>60.61</v>
       </c>
       <c r="AB24" s="66">
-        <v>1.67</v>
+        <v>3.10</v>
       </c>
       <c r="AC24" s="66">
-        <v>4.20</v>
+        <v>1.95</v>
       </c>
       <c r="AD24" s="66">
-        <v>3.90</v>
+        <v>3.60</v>
       </c>
       <c r="AE24" s="66">
         <v>1.17</v>
@@ -2835,182 +2761,182 @@
         <v>1.53</v>
       </c>
       <c r="AG24" s="66">
-        <v>4.33</v>
+        <v>4.50</v>
       </c>
     </row>
     <row r="25">
       <c t="inlineStr" r="A25">
         <is>
-          <t xml:space="preserve">Fri 04 Jul 2025 00:30</t>
+          <t xml:space="preserve">Mon 07 Jul 2025 16:30</t>
         </is>
       </c>
       <c t="inlineStr" r="B25">
         <is>
-          <t xml:space="preserve">New York City FC v Toronto FC</t>
+          <t xml:space="preserve">VIFK v VPS II</t>
         </is>
       </c>
       <c t="inlineStr" r="C25">
         <is>
-          <t xml:space="preserve">USA, Major League Soccer</t>
+          <t xml:space="preserve">Finland, Kakkonen - Lohko C</t>
         </is>
       </c>
       <c r="D25" s="65">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E25" s="66">
+        <v>93.75</v>
+      </c>
+      <c r="F25" s="66">
+        <v>87.50</v>
+      </c>
+      <c r="G25" s="66">
+        <v>62.50</v>
+      </c>
+      <c r="H25" s="66">
+        <v>43.75</v>
+      </c>
+      <c r="I25" s="66">
+        <v>25.00</v>
+      </c>
+      <c r="J25" s="66">
+        <v>14.02</v>
+      </c>
+      <c r="K25" s="66">
+        <v>19.48</v>
+      </c>
+      <c r="L25" s="66">
+        <v>13.00</v>
+      </c>
+      <c r="M25" s="66">
+        <v>8.61</v>
+      </c>
+      <c r="N25" s="66">
+        <v>19.72</v>
+      </c>
+      <c r="O25" s="66">
+        <v>25.18</v>
+      </c>
+      <c r="P25" s="66">
+        <v>4.00</v>
+      </c>
+      <c r="Q25" s="66">
+        <v>-5.00</v>
+      </c>
+      <c r="R25" s="66">
+        <v>91.53</v>
+      </c>
+      <c r="S25" s="66">
+        <v>62.50</v>
+      </c>
+      <c r="T25" s="66">
+        <v>37.50</v>
+      </c>
+      <c r="U25" s="66">
+        <v>62.50</v>
+      </c>
+      <c r="V25" s="66">
+        <v>37.50</v>
+      </c>
+      <c r="W25" s="66">
         <v>75.00</v>
       </c>
-      <c r="F25" s="66">
-        <v>50.00</v>
-      </c>
-      <c r="G25" s="66">
-        <v>25.00</v>
-      </c>
-      <c r="H25" s="66">
+      <c r="X25" s="66">
+        <v>25.00</v>
+      </c>
+      <c r="Y25" s="66">
         <v>6.25</v>
       </c>
-      <c r="I25" s="66">
-        <v>31.25</v>
-      </c>
-      <c r="J25" s="66">
-        <v>11.94</v>
-      </c>
-      <c r="K25" s="66">
-        <v>14.17</v>
-      </c>
-      <c r="L25" s="66">
-        <v>14.07</v>
-      </c>
-      <c r="M25" s="66">
-        <v>21.94</v>
-      </c>
-      <c r="N25" s="66">
-        <v>17.36</v>
-      </c>
-      <c r="O25" s="66">
-        <v>20.55</v>
-      </c>
-      <c r="P25" s="66">
-        <v>-10.00</v>
-      </c>
-      <c r="Q25" s="66">
-        <v>-1.00</v>
-      </c>
-      <c r="R25" s="66">
-        <v>70.07</v>
-      </c>
-      <c r="S25" s="66">
-        <v>25.00</v>
-      </c>
-      <c r="T25" s="66">
-        <v>62.50</v>
-      </c>
-      <c r="U25" s="66">
-        <v>50.00</v>
-      </c>
-      <c r="V25" s="66">
-        <v>50.00</v>
-      </c>
-      <c r="W25" s="66">
-        <v>12.50</v>
-      </c>
-      <c r="X25" s="66">
-        <v>6.25</v>
-      </c>
-      <c r="Y25" s="66">
-        <v>0.00</v>
-      </c>
       <c r="Z25" s="66">
-        <v>40.17</v>
+        <v>46.51</v>
       </c>
       <c r="AA25" s="66">
-        <v>59.84</v>
+        <v>53.50</v>
       </c>
       <c r="AB25" s="66">
-        <v>1.60</v>
+        <v>3.00</v>
       </c>
       <c r="AC25" s="66">
-        <v>5.00</v>
+        <v>1.90</v>
       </c>
       <c r="AD25" s="66">
         <v>4.00</v>
       </c>
       <c r="AE25" s="66">
-        <v>1.22</v>
+        <v>1.03</v>
       </c>
       <c r="AF25" s="66">
-        <v>1.40</v>
+        <v>2.25</v>
       </c>
       <c r="AG25" s="66">
-        <v>5.50</v>
+        <v>2.40</v>
       </c>
     </row>
     <row r="26">
       <c t="inlineStr" r="A26">
         <is>
-          <t xml:space="preserve">Fri 04 Jul 2025 01:00</t>
+          <t xml:space="preserve">Mon 07 Jul 2025 16:30</t>
         </is>
       </c>
       <c t="inlineStr" r="B26">
         <is>
-          <t xml:space="preserve">Vargas Torres v Imbabura</t>
+          <t xml:space="preserve">Inter Turku II v JJK</t>
         </is>
       </c>
       <c t="inlineStr" r="C26">
         <is>
-          <t xml:space="preserve">Ecuador, Liga Pro Serie B</t>
+          <t xml:space="preserve">Finland, Ykkönen</t>
         </is>
       </c>
       <c r="D26" s="65">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E26" s="66">
-        <v>75.00</v>
+        <v>81.25</v>
       </c>
       <c r="F26" s="66">
-        <v>75.00</v>
+        <v>68.75</v>
       </c>
       <c r="G26" s="66">
         <v>50.00</v>
       </c>
       <c r="H26" s="66">
-        <v>25.00</v>
+        <v>31.25</v>
       </c>
       <c r="I26" s="66">
-        <v>25.00</v>
+        <v>12.50</v>
       </c>
       <c r="J26" s="66">
-        <v>7.76</v>
+        <v>11.81</v>
       </c>
       <c r="K26" s="66">
-        <v>20.78</v>
+        <v>24.83</v>
       </c>
       <c r="L26" s="66">
-        <v>15.59</v>
+        <v>15.87</v>
       </c>
       <c r="M26" s="66">
-        <v>16.81</v>
+        <v>19.44</v>
       </c>
       <c r="N26" s="66">
-        <v>20.92</v>
+        <v>11.99</v>
       </c>
       <c r="O26" s="66">
-        <v>18.15</v>
+        <v>16.05</v>
       </c>
       <c r="P26" s="66">
-        <v>-5.00</v>
+        <v>1.00</v>
       </c>
       <c r="Q26" s="66">
-        <v>-0.50</v>
+        <v>-5.50</v>
       </c>
       <c r="R26" s="66">
-        <v>74.17</v>
+        <v>83.75</v>
       </c>
       <c r="S26" s="66">
         <v>75.00</v>
       </c>
       <c r="T26" s="66">
-        <v>12.50</v>
+        <v>25.00</v>
       </c>
       <c r="U26" s="66">
         <v>25.00</v>
@@ -3019,102 +2945,102 @@
         <v>62.50</v>
       </c>
       <c r="W26" s="66">
-        <v>43.75</v>
+        <v>56.25</v>
       </c>
       <c r="X26" s="66">
         <v>31.25</v>
       </c>
       <c r="Y26" s="66">
-        <v>0.00</v>
+        <v>18.75</v>
       </c>
       <c r="Z26" s="66">
-        <v>44.13</v>
+        <v>52.52</v>
       </c>
       <c r="AA26" s="66">
-        <v>55.87</v>
+        <v>47.48</v>
       </c>
       <c r="AB26" s="66">
-        <v>2.15</v>
+        <v>1.53</v>
       </c>
       <c r="AC26" s="66">
-        <v>3.10</v>
+        <v>4.33</v>
       </c>
       <c r="AD26" s="66">
-        <v>3.30</v>
+        <v>4.60</v>
       </c>
       <c r="AE26" s="66">
-        <v>1.33</v>
+        <v>1.06</v>
       </c>
       <c r="AF26" s="66">
-        <v>1.29</v>
+        <v>2.25</v>
       </c>
       <c r="AG26" s="66">
-        <v>8.00</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="27">
       <c t="inlineStr" r="A27">
         <is>
-          <t xml:space="preserve">Fri 04 Jul 2025 01:35</t>
+          <t xml:space="preserve">Mon 07 Jul 2025 16:30</t>
         </is>
       </c>
       <c t="inlineStr" r="B27">
         <is>
-          <t xml:space="preserve">Atletico Goianiense v CRB</t>
+          <t xml:space="preserve">OLS v Rops</t>
         </is>
       </c>
       <c t="inlineStr" r="C27">
         <is>
-          <t xml:space="preserve">Brazil, Serie B</t>
+          <t xml:space="preserve">Finland, Ykkönen</t>
         </is>
       </c>
       <c r="D27" s="65">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E27" s="66">
+        <v>93.75</v>
+      </c>
+      <c r="F27" s="66">
         <v>56.25</v>
       </c>
-      <c r="F27" s="66">
-        <v>25.00</v>
-      </c>
       <c r="G27" s="66">
-        <v>0.00</v>
+        <v>56.25</v>
       </c>
       <c r="H27" s="66">
-        <v>0.00</v>
+        <v>12.50</v>
       </c>
       <c r="I27" s="66">
-        <v>43.75</v>
+        <v>18.75</v>
       </c>
       <c r="J27" s="66">
-        <v>22.72</v>
+        <v>7.36</v>
       </c>
       <c r="K27" s="66">
-        <v>13.25</v>
+        <v>12.09</v>
       </c>
       <c r="L27" s="66">
-        <v>18.80</v>
+        <v>22.25</v>
       </c>
       <c r="M27" s="66">
-        <v>11.40</v>
+        <v>17.35</v>
       </c>
       <c r="N27" s="66">
-        <v>5.70</v>
+        <v>19.08</v>
       </c>
       <c r="O27" s="66">
-        <v>28.14</v>
+        <v>21.89</v>
       </c>
       <c r="P27" s="66">
-        <v>6.00</v>
+        <v>-12.00</v>
       </c>
       <c r="Q27" s="66">
-        <v>-2.00</v>
+        <v>0.00</v>
       </c>
       <c r="R27" s="66">
-        <v>60.90</v>
+        <v>82.92</v>
       </c>
       <c r="S27" s="66">
-        <v>37.50</v>
+        <v>50.00</v>
       </c>
       <c r="T27" s="66">
         <v>37.50</v>
@@ -3126,342 +3052,340 @@
         <v>50.00</v>
       </c>
       <c r="W27" s="66">
+        <v>31.25</v>
+      </c>
+      <c r="X27" s="66">
         <v>18.75</v>
       </c>
-      <c r="X27" s="66">
-        <v>12.50</v>
-      </c>
       <c r="Y27" s="66">
-        <v>0.00</v>
+        <v>6.25</v>
       </c>
       <c r="Z27" s="66">
-        <v>54.77</v>
+        <v>41.69</v>
       </c>
       <c r="AA27" s="66">
-        <v>45.23</v>
+        <v>58.31</v>
       </c>
       <c r="AB27" s="66">
-        <v>1.80</v>
+        <v>1.40</v>
       </c>
       <c r="AC27" s="66">
-        <v>4.60</v>
+        <v>5.00</v>
       </c>
       <c r="AD27" s="66">
-        <v>3.30</v>
+        <v>4.75</v>
       </c>
       <c r="AE27" s="66">
-        <v>1.36</v>
+        <v>1.07</v>
       </c>
       <c r="AF27" s="66">
-        <v>1.22</v>
+        <v>1.90</v>
       </c>
       <c r="AG27" s="66">
-        <v>8.50</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="28">
       <c t="inlineStr" r="A28">
         <is>
-          <t xml:space="preserve">Fri 04 Jul 2025 16:00</t>
+          <t xml:space="preserve">Mon 07 Jul 2025 17:00</t>
         </is>
       </c>
       <c t="inlineStr" r="B28">
         <is>
-          <t xml:space="preserve">AC Oulu v KuPS</t>
+          <t xml:space="preserve">Ilves II v Kiffen</t>
         </is>
       </c>
       <c t="inlineStr" r="C28">
         <is>
-          <t xml:space="preserve">Finland, Veikkausliiga</t>
+          <t xml:space="preserve">Finland, Kakkonen - Lohko B</t>
         </is>
       </c>
       <c r="D28" s="65">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E28" s="66">
-        <v>75.00</v>
+        <v>93.75</v>
       </c>
       <c r="F28" s="66">
-        <v>68.75</v>
+        <v>62.50</v>
       </c>
       <c r="G28" s="66">
+        <v>62.50</v>
+      </c>
+      <c r="H28" s="66">
+        <v>31.25</v>
+      </c>
+      <c r="I28" s="66">
+        <v>25.00</v>
+      </c>
+      <c r="J28" s="66">
+        <v>12.90</v>
+      </c>
+      <c r="K28" s="66">
+        <v>13.94</v>
+      </c>
+      <c r="L28" s="66">
+        <v>13.47</v>
+      </c>
+      <c r="M28" s="66">
+        <v>20.44</v>
+      </c>
+      <c r="N28" s="66">
+        <v>18.35</v>
+      </c>
+      <c r="O28" s="66">
+        <v>20.92</v>
+      </c>
+      <c r="P28" s="66">
+        <v>-5.00</v>
+      </c>
+      <c r="Q28" s="66">
+        <v>-2.50</v>
+      </c>
+      <c r="R28" s="66">
+        <v>87.62</v>
+      </c>
+      <c r="S28" s="66">
+        <v>62.50</v>
+      </c>
+      <c r="T28" s="66">
         <v>37.50</v>
       </c>
-      <c r="H28" s="66">
-        <v>12.50</v>
-      </c>
-      <c r="I28" s="66">
+      <c r="U28" s="66">
+        <v>62.50</v>
+      </c>
+      <c r="V28" s="66">
+        <v>37.50</v>
+      </c>
+      <c r="W28" s="66">
+        <v>37.50</v>
+      </c>
+      <c r="X28" s="66">
         <v>18.75</v>
-      </c>
-      <c r="J28" s="66">
-        <v>3.64</v>
-      </c>
-      <c r="K28" s="66">
-        <v>13.18</v>
-      </c>
-      <c r="L28" s="66">
-        <v>19.21</v>
-      </c>
-      <c r="M28" s="66">
-        <v>17.84</v>
-      </c>
-      <c r="N28" s="66">
-        <v>17.73</v>
-      </c>
-      <c r="O28" s="66">
-        <v>28.41</v>
-      </c>
-      <c r="P28" s="66">
-        <v>10.00</v>
-      </c>
-      <c r="Q28" s="66">
-        <v>0.00</v>
-      </c>
-      <c r="R28" s="66">
-        <v>75.53</v>
-      </c>
-      <c r="S28" s="66">
-        <v>37.50</v>
-      </c>
-      <c r="T28" s="66">
-        <v>50.00</v>
-      </c>
-      <c r="U28" s="66">
-        <v>25.00</v>
-      </c>
-      <c r="V28" s="66">
-        <v>62.50</v>
-      </c>
-      <c r="W28" s="66">
-        <v>25.00</v>
-      </c>
-      <c r="X28" s="66">
-        <v>6.25</v>
       </c>
       <c r="Y28" s="66">
         <v>6.25</v>
       </c>
       <c r="Z28" s="66">
-        <v>36.03</v>
+        <v>40.31</v>
       </c>
       <c r="AA28" s="66">
-        <v>63.98</v>
+        <v>59.70</v>
       </c>
       <c r="AB28" s="66">
+        <v>1.62</v>
+      </c>
+      <c r="AC28" s="66">
         <v>4.00</v>
       </c>
-      <c r="AC28" s="66">
-        <v>1.75</v>
-      </c>
       <c r="AD28" s="66">
-        <v>3.60</v>
+        <v>4.20</v>
       </c>
       <c r="AE28" s="66">
-        <v>1.22</v>
+        <v>1.06</v>
       </c>
       <c r="AF28" s="66">
-        <v>1.40</v>
+        <v>1.91</v>
       </c>
       <c r="AG28" s="66">
-        <v>5.50</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="29">
       <c t="inlineStr" r="A29">
         <is>
-          <t xml:space="preserve">Fri 04 Jul 2025 16:00</t>
+          <t xml:space="preserve">Mon 07 Jul 2025 17:00</t>
         </is>
       </c>
       <c t="inlineStr" r="B29">
         <is>
-          <t xml:space="preserve">Kairat Almaty v Turan Turkistan</t>
+          <t xml:space="preserve">Panevėžys v Suduva Marijampole</t>
         </is>
       </c>
       <c t="inlineStr" r="C29">
         <is>
-          <t xml:space="preserve">Kazakhstan, Premier League</t>
+          <t xml:space="preserve">Lithuania, A Lyga</t>
         </is>
       </c>
       <c r="D29" s="65">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E29" s="66">
-        <v>62.50</v>
+        <v>87.50</v>
       </c>
       <c r="F29" s="66">
         <v>56.25</v>
       </c>
       <c r="G29" s="66">
+        <v>25.00</v>
+      </c>
+      <c r="H29" s="66">
         <v>12.50</v>
       </c>
-      <c r="H29" s="66">
+      <c r="I29" s="66">
+        <v>43.75</v>
+      </c>
+      <c r="J29" s="66">
+        <v>10.85</v>
+      </c>
+      <c r="K29" s="66">
+        <v>15.97</v>
+      </c>
+      <c r="L29" s="66">
+        <v>18.77</v>
+      </c>
+      <c r="M29" s="66">
+        <v>14.99</v>
+      </c>
+      <c r="N29" s="66">
+        <v>18.35</v>
+      </c>
+      <c r="O29" s="66">
+        <v>21.08</v>
+      </c>
+      <c r="P29" s="66">
+        <v>8.00</v>
+      </c>
+      <c r="Q29" s="66">
+        <v>-2.00</v>
+      </c>
+      <c r="R29" s="66">
+        <v>75.28</v>
+      </c>
+      <c r="S29" s="66">
+        <v>75.00</v>
+      </c>
+      <c r="T29" s="66">
+        <v>25.00</v>
+      </c>
+      <c r="U29" s="66">
+        <v>62.50</v>
+      </c>
+      <c r="V29" s="66">
+        <v>25.00</v>
+      </c>
+      <c r="W29" s="66">
+        <v>25.00</v>
+      </c>
+      <c r="X29" s="66">
+        <v>12.50</v>
+      </c>
+      <c r="Y29" s="66">
         <v>6.25</v>
       </c>
-      <c r="I29" s="66">
-        <v>25.00</v>
-      </c>
-      <c r="J29" s="66">
-        <v>9.08</v>
-      </c>
-      <c r="K29" s="66">
-        <v>12.20</v>
-      </c>
-      <c r="L29" s="66">
-        <v>19.65</v>
-      </c>
-      <c r="M29" s="66">
-        <v>18.98</v>
-      </c>
-      <c r="N29" s="66">
-        <v>18.90</v>
-      </c>
-      <c r="O29" s="66">
-        <v>21.21</v>
-      </c>
-      <c r="P29" s="66">
-        <v>-17.00</v>
-      </c>
-      <c r="Q29" s="66">
-        <v>-2.50</v>
-      </c>
-      <c r="R29" s="66">
-        <v>73.55</v>
-      </c>
-      <c r="S29" s="66">
-        <v>50.00</v>
-      </c>
-      <c r="T29" s="66">
-        <v>50.00</v>
-      </c>
-      <c r="U29" s="66">
-        <v>25.00</v>
-      </c>
-      <c r="V29" s="66">
-        <v>62.50</v>
-      </c>
-      <c r="W29" s="66">
-        <v>18.75</v>
-      </c>
-      <c r="X29" s="66">
-        <v>6.25</v>
-      </c>
-      <c r="Y29" s="66">
-        <v>0.00</v>
-      </c>
       <c r="Z29" s="66">
-        <v>40.93</v>
+        <v>45.59</v>
       </c>
       <c r="AA29" s="66">
-        <v>59.08</v>
+        <v>54.41</v>
       </c>
       <c r="AB29" s="66">
-        <v>1.10</v>
+        <v>2.30</v>
       </c>
       <c r="AC29" s="66">
-        <v>18.00</v>
+        <v>2.90</v>
       </c>
       <c r="AD29" s="66">
-        <v>7.00</v>
+        <v>3.20</v>
       </c>
       <c r="AE29" s="66">
-        <v>1.20</v>
+        <v>1.29</v>
       </c>
       <c r="AF29" s="66">
-        <v>1.40</v>
-      </c>
-      <c t="inlineStr" r="AG29">
-        <is>
-          <t xml:space="preserve">-</t>
-        </is>
+        <v>1.30</v>
+      </c>
+      <c r="AG29" s="66">
+        <v>6.50</v>
       </c>
     </row>
     <row r="30">
       <c t="inlineStr" r="A30">
         <is>
-          <t xml:space="preserve">Fri 04 Jul 2025 16:30</t>
+          <t xml:space="preserve">Mon 07 Jul 2025 17:00</t>
         </is>
       </c>
       <c t="inlineStr" r="B30">
         <is>
-          <t xml:space="preserve">Reipas v VJS</t>
+          <t xml:space="preserve">Sandviken v Brann II</t>
         </is>
       </c>
       <c t="inlineStr" r="C30">
         <is>
-          <t xml:space="preserve">Finland, Kakkonen - Lohko A</t>
+          <t xml:space="preserve">Norway, 2. Division - Group 1</t>
         </is>
       </c>
       <c r="D30" s="65">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E30" s="66">
-        <v>93.75</v>
+        <v>100.00</v>
       </c>
       <c r="F30" s="66">
+        <v>68.75</v>
+      </c>
+      <c r="G30" s="66">
+        <v>37.50</v>
+      </c>
+      <c r="H30" s="66">
+        <v>18.75</v>
+      </c>
+      <c r="I30" s="66">
+        <v>0.00</v>
+      </c>
+      <c r="J30" s="66">
+        <v>8.62</v>
+      </c>
+      <c r="K30" s="66">
+        <v>15.84</v>
+      </c>
+      <c r="L30" s="66">
+        <v>13.67</v>
+      </c>
+      <c r="M30" s="66">
+        <v>17.43</v>
+      </c>
+      <c r="N30" s="66">
+        <v>19.02</v>
+      </c>
+      <c r="O30" s="66">
+        <v>25.43</v>
+      </c>
+      <c r="P30" s="66">
+        <v>1.00</v>
+      </c>
+      <c r="Q30" s="66">
+        <v>4.50</v>
+      </c>
+      <c r="R30" s="66">
+        <v>89.90</v>
+      </c>
+      <c r="S30" s="66">
+        <v>50.00</v>
+      </c>
+      <c r="T30" s="66">
+        <v>50.00</v>
+      </c>
+      <c r="U30" s="66">
+        <v>25.00</v>
+      </c>
+      <c r="V30" s="66">
         <v>75.00</v>
       </c>
-      <c r="G30" s="66">
-        <v>62.50</v>
-      </c>
-      <c r="H30" s="66">
-        <v>50.00</v>
-      </c>
-      <c r="I30" s="66">
-        <v>18.75</v>
-      </c>
-      <c r="J30" s="66">
-        <v>13.05</v>
-      </c>
-      <c r="K30" s="66">
-        <v>17.31</v>
-      </c>
-      <c r="L30" s="66">
-        <v>19.72</v>
-      </c>
-      <c r="M30" s="66">
-        <v>13.00</v>
-      </c>
-      <c r="N30" s="66">
-        <v>15.18</v>
-      </c>
-      <c r="O30" s="66">
-        <v>21.75</v>
-      </c>
-      <c r="P30" s="66">
-        <v>8.00</v>
-      </c>
-      <c r="Q30" s="66">
-        <v>-4.00</v>
-      </c>
-      <c r="R30" s="66">
-        <v>90.75</v>
-      </c>
-      <c r="S30" s="66">
-        <v>50.00</v>
-      </c>
-      <c r="T30" s="66">
-        <v>50.00</v>
-      </c>
-      <c r="U30" s="66">
-        <v>75.00</v>
-      </c>
-      <c r="V30" s="66">
-        <v>25.00</v>
-      </c>
       <c r="W30" s="66">
-        <v>68.75</v>
+        <v>37.50</v>
       </c>
       <c r="X30" s="66">
-        <v>50.00</v>
+        <v>6.25</v>
       </c>
       <c r="Y30" s="66">
-        <v>31.25</v>
+        <v>6.25</v>
       </c>
       <c r="Z30" s="66">
-        <v>50.07</v>
+        <v>38.13</v>
       </c>
       <c r="AA30" s="66">
-        <v>49.93</v>
+        <v>61.88</v>
       </c>
       <c t="inlineStr" r="AB30">
         <is>
@@ -3497,170 +3421,170 @@
     <row r="31">
       <c t="inlineStr" r="A31">
         <is>
-          <t xml:space="preserve">Fri 04 Jul 2025 16:30</t>
+          <t xml:space="preserve">Mon 07 Jul 2025 18:00</t>
         </is>
       </c>
       <c t="inlineStr" r="B31">
         <is>
-          <t xml:space="preserve">JäPS v SalPa</t>
+          <t xml:space="preserve">IFK Norrkoping v IF Brommapojkarna</t>
         </is>
       </c>
       <c t="inlineStr" r="C31">
         <is>
-          <t xml:space="preserve">Finland, Ykkösliiga</t>
+          <t xml:space="preserve">Sweden, Allsvenskan</t>
         </is>
       </c>
       <c r="D31" s="65">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E31" s="66">
         <v>75.00</v>
       </c>
       <c r="F31" s="66">
-        <v>43.75</v>
+        <v>50.00</v>
       </c>
       <c r="G31" s="66">
-        <v>31.25</v>
+        <v>18.75</v>
       </c>
       <c r="H31" s="66">
         <v>6.25</v>
       </c>
       <c r="I31" s="66">
-        <v>18.75</v>
+        <v>6.25</v>
       </c>
       <c r="J31" s="66">
-        <v>17.26</v>
+        <v>5.08</v>
       </c>
       <c r="K31" s="66">
-        <v>17.16</v>
+        <v>19.21</v>
       </c>
       <c r="L31" s="66">
-        <v>11.80</v>
+        <v>12.86</v>
       </c>
       <c r="M31" s="66">
-        <v>15.08</v>
+        <v>20.64</v>
       </c>
       <c r="N31" s="66">
-        <v>21.65</v>
+        <v>13.50</v>
       </c>
       <c r="O31" s="66">
-        <v>17.07</v>
+        <v>28.73</v>
       </c>
       <c r="P31" s="66">
-        <v>1.00</v>
+        <v>-3.00</v>
       </c>
       <c r="Q31" s="66">
-        <v>4.50</v>
+        <v>1.50</v>
       </c>
       <c r="R31" s="66">
-        <v>71.55</v>
+        <v>75.77</v>
       </c>
       <c r="S31" s="66">
-        <v>12.50</v>
+        <v>37.50</v>
       </c>
       <c r="T31" s="66">
-        <v>87.50</v>
+        <v>62.50</v>
       </c>
       <c r="U31" s="66">
         <v>25.00</v>
       </c>
       <c r="V31" s="66">
-        <v>50.00</v>
+        <v>75.00</v>
       </c>
       <c r="W31" s="66">
         <v>31.25</v>
       </c>
       <c r="X31" s="66">
+        <v>12.50</v>
+      </c>
+      <c r="Y31" s="66">
         <v>6.25</v>
       </c>
-      <c r="Y31" s="66">
-        <v>0.00</v>
-      </c>
       <c r="Z31" s="66">
-        <v>46.21</v>
+        <v>37.15</v>
       </c>
       <c r="AA31" s="66">
-        <v>53.79</v>
+        <v>62.86</v>
       </c>
       <c r="AB31" s="66">
-        <v>1.60</v>
+        <v>2.45</v>
       </c>
       <c r="AC31" s="66">
-        <v>4.40</v>
+        <v>2.63</v>
       </c>
       <c r="AD31" s="66">
-        <v>4.00</v>
+        <v>3.60</v>
       </c>
       <c r="AE31" s="66">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="AF31" s="66">
-        <v>1.60</v>
+        <v>1.57</v>
       </c>
       <c r="AG31" s="66">
-        <v>3.80</v>
+        <v>4.10</v>
       </c>
     </row>
     <row r="32">
       <c t="inlineStr" r="A32">
         <is>
-          <t xml:space="preserve">Fri 04 Jul 2025 17:00</t>
+          <t xml:space="preserve">Mon 07 Jul 2025 19:00</t>
         </is>
       </c>
       <c t="inlineStr" r="B32">
         <is>
-          <t xml:space="preserve">Paide v FC Levadia Tallinn</t>
+          <t xml:space="preserve">Club River Plate v Tacuary</t>
         </is>
       </c>
       <c t="inlineStr" r="C32">
         <is>
-          <t xml:space="preserve">Estonia, Meistriliiga</t>
+          <t xml:space="preserve">Paraguay, Division Intermedia</t>
         </is>
       </c>
       <c r="D32" s="65">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E32" s="66">
-        <v>81.25</v>
+        <v>68.75</v>
       </c>
       <c r="F32" s="66">
-        <v>68.75</v>
+        <v>50.00</v>
       </c>
       <c r="G32" s="66">
-        <v>25.00</v>
+        <v>31.25</v>
       </c>
       <c r="H32" s="66">
-        <v>0.00</v>
+        <v>12.50</v>
       </c>
       <c r="I32" s="66">
-        <v>25.00</v>
+        <v>31.25</v>
       </c>
       <c r="J32" s="66">
-        <v>14.72</v>
+        <v>11.82</v>
       </c>
       <c r="K32" s="66">
-        <v>12.81</v>
+        <v>14.79</v>
       </c>
       <c r="L32" s="66">
-        <v>20.42</v>
+        <v>12.01</v>
       </c>
       <c r="M32" s="66">
-        <v>18.80</v>
+        <v>20.35</v>
       </c>
       <c r="N32" s="66">
-        <v>16.07</v>
+        <v>12.88</v>
       </c>
       <c r="O32" s="66">
-        <v>17.18</v>
+        <v>28.17</v>
       </c>
       <c r="P32" s="66">
-        <v>3.00</v>
+        <v>-3.00</v>
       </c>
       <c r="Q32" s="66">
-        <v>-6.50</v>
+        <v>1.50</v>
       </c>
       <c r="R32" s="66">
-        <v>80.53</v>
+        <v>72.50</v>
       </c>
       <c r="S32" s="66">
         <v>75.00</v>
@@ -3669,1074 +3593,1110 @@
         <v>25.00</v>
       </c>
       <c r="U32" s="66">
-        <v>75.00</v>
+        <v>37.50</v>
       </c>
       <c r="V32" s="66">
-        <v>25.00</v>
+        <v>50.00</v>
       </c>
       <c r="W32" s="66">
-        <v>43.75</v>
+        <v>25.00</v>
       </c>
       <c r="X32" s="66">
-        <v>12.50</v>
+        <v>6.25</v>
       </c>
       <c r="Y32" s="66">
         <v>0.00</v>
       </c>
       <c r="Z32" s="66">
-        <v>47.95</v>
+        <v>38.61</v>
       </c>
       <c r="AA32" s="66">
-        <v>52.05</v>
-      </c>
-      <c r="AB32" s="66">
-        <v>3.40</v>
-      </c>
-      <c r="AC32" s="66">
-        <v>1.91</v>
-      </c>
-      <c r="AD32" s="66">
-        <v>3.50</v>
-      </c>
-      <c r="AE32" s="66">
-        <v>1.20</v>
-      </c>
-      <c r="AF32" s="66">
-        <v>1.44</v>
-      </c>
-      <c r="AG32" s="66">
-        <v>5.00</v>
+        <v>61.40</v>
+      </c>
+      <c t="inlineStr" r="AB32">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="AC32">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="AD32">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="AE32">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="AF32">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="AG32">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
       </c>
     </row>
     <row r="33">
       <c t="inlineStr" r="A33">
         <is>
-          <t xml:space="preserve">Fri 04 Jul 2025 17:00</t>
+          <t xml:space="preserve">Mon 07 Jul 2025 19:30</t>
         </is>
       </c>
       <c t="inlineStr" r="B33">
         <is>
-          <t xml:space="preserve">Rīgas FS v FK Liepaja</t>
+          <t xml:space="preserve">Deportivo Español v Lugano</t>
         </is>
       </c>
       <c t="inlineStr" r="C33">
         <is>
-          <t xml:space="preserve">Latvia, Virsliga</t>
+          <t xml:space="preserve">Argentina, Primera C</t>
         </is>
       </c>
       <c r="D33" s="65">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E33" s="66">
-        <v>68.75</v>
+        <v>62.50</v>
       </c>
       <c r="F33" s="66">
-        <v>43.75</v>
+        <v>18.75</v>
       </c>
       <c r="G33" s="66">
+        <v>12.50</v>
+      </c>
+      <c r="H33" s="66">
+        <v>0.00</v>
+      </c>
+      <c r="I33" s="66">
+        <v>50.00</v>
+      </c>
+      <c r="J33" s="66">
+        <v>6.09</v>
+      </c>
+      <c r="K33" s="66">
+        <v>11.38</v>
+      </c>
+      <c r="L33" s="66">
+        <v>20.64</v>
+      </c>
+      <c r="M33" s="66">
+        <v>24.87</v>
+      </c>
+      <c r="N33" s="66">
+        <v>18.79</v>
+      </c>
+      <c r="O33" s="66">
+        <v>18.26</v>
+      </c>
+      <c r="P33" s="66">
+        <v>-15.00</v>
+      </c>
+      <c r="Q33" s="66">
+        <v>6.50</v>
+      </c>
+      <c r="R33" s="66">
+        <v>54.11</v>
+      </c>
+      <c r="S33" s="66">
         <v>37.50</v>
       </c>
-      <c r="H33" s="66">
-        <v>18.75</v>
-      </c>
-      <c r="I33" s="66">
-        <v>50.00</v>
-      </c>
-      <c r="J33" s="66">
-        <v>14.63</v>
-      </c>
-      <c r="K33" s="66">
-        <v>16.37</v>
-      </c>
-      <c r="L33" s="66">
-        <v>14.01</v>
-      </c>
-      <c r="M33" s="66">
-        <v>20.48</v>
-      </c>
-      <c r="N33" s="66">
-        <v>12.45</v>
-      </c>
-      <c r="O33" s="66">
-        <v>22.08</v>
-      </c>
-      <c r="P33" s="66">
-        <v>-5.00</v>
-      </c>
-      <c r="Q33" s="66">
-        <v>-4.50</v>
-      </c>
-      <c r="R33" s="66">
-        <v>73.16</v>
-      </c>
-      <c r="S33" s="66">
+      <c r="T33" s="66">
+        <v>25.00</v>
+      </c>
+      <c r="U33" s="66">
+        <v>12.50</v>
+      </c>
+      <c r="V33" s="66">
         <v>75.00</v>
       </c>
-      <c r="T33" s="66">
-        <v>25.00</v>
-      </c>
-      <c r="U33" s="66">
-        <v>75.00</v>
-      </c>
-      <c r="V33" s="66">
+      <c r="W33" s="66">
         <v>12.50</v>
       </c>
-      <c r="W33" s="66">
-        <v>37.50</v>
-      </c>
       <c r="X33" s="66">
-        <v>25.00</v>
+        <v>6.25</v>
       </c>
       <c r="Y33" s="66">
-        <v>6.25</v>
+        <v>0.00</v>
       </c>
       <c r="Z33" s="66">
-        <v>45.00</v>
+        <v>38.10</v>
       </c>
       <c r="AA33" s="66">
-        <v>55.00</v>
+        <v>61.91</v>
       </c>
       <c r="AB33" s="66">
-        <v>1.22</v>
+        <v>1.75</v>
       </c>
       <c r="AC33" s="66">
-        <v>9.50</v>
+        <v>5.00</v>
       </c>
       <c r="AD33" s="66">
-        <v>5.50</v>
+        <v>3.00</v>
       </c>
       <c r="AE33" s="66">
-        <v>1.13</v>
+        <v>1.65</v>
       </c>
       <c r="AF33" s="66">
-        <v>1.67</v>
+        <v>1.10</v>
       </c>
       <c r="AG33" s="66">
-        <v>3.50</v>
+        <v>15.00</v>
       </c>
     </row>
     <row r="34">
       <c t="inlineStr" r="A34">
         <is>
-          <t xml:space="preserve">Fri 04 Jul 2025 17:00</t>
+          <t xml:space="preserve">Mon 07 Jul 2025 19:30</t>
         </is>
       </c>
       <c t="inlineStr" r="B34">
         <is>
-          <t xml:space="preserve">FK Zalgiris Vilnius v Banga</t>
+          <t xml:space="preserve">Deportivo Muñiz v Central Cordoba</t>
         </is>
       </c>
       <c t="inlineStr" r="C34">
         <is>
-          <t xml:space="preserve">Lithuania, A Lyga</t>
+          <t xml:space="preserve">Argentina, Primera C</t>
         </is>
       </c>
       <c r="D34" s="65">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E34" s="66">
-        <v>75.00</v>
+        <v>50.00</v>
       </c>
       <c r="F34" s="66">
-        <v>37.50</v>
+        <v>31.25</v>
       </c>
       <c r="G34" s="66">
         <v>12.50</v>
       </c>
       <c r="H34" s="66">
-        <v>6.25</v>
+        <v>0.00</v>
       </c>
       <c r="I34" s="66">
-        <v>18.75</v>
+        <v>43.75</v>
       </c>
       <c r="J34" s="66">
-        <v>7.95</v>
+        <v>12.07</v>
       </c>
       <c r="K34" s="66">
-        <v>16.46</v>
+        <v>19.46</v>
       </c>
       <c r="L34" s="66">
-        <v>22.48</v>
+        <v>6.76</v>
       </c>
       <c r="M34" s="66">
-        <v>10.33</v>
+        <v>14.78</v>
       </c>
       <c r="N34" s="66">
-        <v>14.28</v>
+        <v>20.81</v>
       </c>
       <c r="O34" s="66">
-        <v>28.50</v>
+        <v>26.13</v>
       </c>
       <c r="P34" s="66">
-        <v>1.00</v>
+        <v>24.00</v>
       </c>
       <c r="Q34" s="66">
-        <v>1.50</v>
+        <v>-9.00</v>
       </c>
       <c r="R34" s="66">
-        <v>71.25</v>
+        <v>54.11</v>
       </c>
       <c r="S34" s="66">
         <v>37.50</v>
       </c>
       <c r="T34" s="66">
-        <v>50.00</v>
+        <v>25.00</v>
       </c>
       <c r="U34" s="66">
-        <v>25.00</v>
+        <v>50.00</v>
       </c>
       <c r="V34" s="66">
-        <v>75.00</v>
+        <v>37.50</v>
       </c>
       <c r="W34" s="66">
-        <v>31.25</v>
+        <v>12.50</v>
       </c>
       <c r="X34" s="66">
-        <v>6.25</v>
+        <v>0.00</v>
       </c>
       <c r="Y34" s="66">
-        <v>6.25</v>
+        <v>0.00</v>
       </c>
       <c r="Z34" s="66">
-        <v>46.89</v>
+        <v>38.29</v>
       </c>
       <c r="AA34" s="66">
-        <v>53.11</v>
-      </c>
-      <c r="AB34" s="66">
-        <v>1.29</v>
-      </c>
-      <c r="AC34" s="66">
-        <v>8.50</v>
-      </c>
-      <c r="AD34" s="66">
-        <v>4.75</v>
-      </c>
-      <c r="AE34" s="66">
-        <v>1.22</v>
-      </c>
-      <c r="AF34" s="66">
-        <v>1.40</v>
-      </c>
-      <c r="AG34" s="66">
-        <v>6.00</v>
+        <v>61.72</v>
+      </c>
+      <c t="inlineStr" r="AB34">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="AC34">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="AD34">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="AE34">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="AF34">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="AG34">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
       </c>
     </row>
     <row r="35">
       <c t="inlineStr" r="A35">
         <is>
-          <t xml:space="preserve">Fri 04 Jul 2025 19:00</t>
+          <t xml:space="preserve">Mon 07 Jul 2025 20:00</t>
         </is>
       </c>
       <c t="inlineStr" r="B35">
         <is>
-          <t xml:space="preserve">Encarnación v Independiente F.b.c.</t>
+          <t xml:space="preserve">ABB v Nacional Potosí</t>
         </is>
       </c>
       <c t="inlineStr" r="C35">
         <is>
-          <t xml:space="preserve">Paraguay, Division Intermedia</t>
+          <t xml:space="preserve">Bolivia, Primera División</t>
         </is>
       </c>
       <c r="D35" s="65">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E35" s="66">
-        <v>68.75</v>
+        <v>81.25</v>
       </c>
       <c r="F35" s="66">
         <v>43.75</v>
       </c>
       <c r="G35" s="66">
-        <v>6.25</v>
+        <v>25.00</v>
       </c>
       <c r="H35" s="66">
-        <v>6.25</v>
+        <v>12.50</v>
       </c>
       <c r="I35" s="66">
-        <v>25.00</v>
+        <v>18.75</v>
       </c>
       <c r="J35" s="66">
-        <v>10.00</v>
+        <v>4.20</v>
       </c>
       <c r="K35" s="66">
-        <v>8.34</v>
+        <v>10.32</v>
       </c>
       <c r="L35" s="66">
-        <v>20.00</v>
+        <v>29.02</v>
       </c>
       <c r="M35" s="66">
-        <v>20.00</v>
+        <v>16.44</v>
       </c>
       <c r="N35" s="66">
-        <v>20.00</v>
+        <v>10.67</v>
       </c>
       <c r="O35" s="66">
-        <v>21.67</v>
+        <v>29.37</v>
       </c>
       <c r="P35" s="66">
         <v>4.00</v>
       </c>
       <c r="Q35" s="66">
-        <v>7.00</v>
+        <v>0.00</v>
       </c>
       <c r="R35" s="66">
-        <v>68.58</v>
+        <v>69.67</v>
       </c>
       <c r="S35" s="66">
-        <v>25.00</v>
+        <v>0.00</v>
       </c>
       <c r="T35" s="66">
+        <v>87.50</v>
+      </c>
+      <c r="U35" s="66">
         <v>62.50</v>
       </c>
-      <c r="U35" s="66">
-        <v>37.50</v>
-      </c>
       <c r="V35" s="66">
-        <v>62.50</v>
+        <v>25.00</v>
       </c>
       <c r="W35" s="66">
+        <v>25.00</v>
+      </c>
+      <c r="X35" s="66">
         <v>6.25</v>
       </c>
-      <c r="X35" s="66">
-        <v>0.00</v>
-      </c>
       <c r="Y35" s="66">
         <v>0.00</v>
       </c>
       <c r="Z35" s="66">
-        <v>38.34</v>
+        <v>43.53</v>
       </c>
       <c r="AA35" s="66">
-        <v>61.67</v>
+        <v>56.47</v>
       </c>
       <c r="AB35" s="66">
-        <v>2.15</v>
+        <v>2.55</v>
       </c>
       <c r="AC35" s="66">
-        <v>3.00</v>
+        <v>2.40</v>
       </c>
       <c r="AD35" s="66">
-        <v>3.30</v>
+        <v>3.50</v>
       </c>
       <c r="AE35" s="66">
-        <v>1.22</v>
+        <v>1.14</v>
       </c>
       <c r="AF35" s="66">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="AG35" s="66">
-        <v>5.50</v>
+        <v>4.20</v>
       </c>
     </row>
     <row r="36">
       <c t="inlineStr" r="A36">
         <is>
-          <t xml:space="preserve">Fri 04 Jul 2025 19:00</t>
+          <t xml:space="preserve">Mon 07 Jul 2025 20:15</t>
         </is>
       </c>
       <c t="inlineStr" r="B36">
         <is>
-          <t xml:space="preserve">Sport Huancayo v UTC</t>
+          <t xml:space="preserve">Grindavik v Keflavik</t>
         </is>
       </c>
       <c t="inlineStr" r="C36">
         <is>
-          <t xml:space="preserve">Peru, Primera División</t>
+          <t xml:space="preserve">Iceland, 1. Deild</t>
         </is>
       </c>
       <c r="D36" s="65">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E36" s="66">
+        <v>93.75</v>
+      </c>
+      <c r="F36" s="66">
         <v>75.00</v>
       </c>
-      <c r="F36" s="66">
+      <c r="G36" s="66">
+        <v>62.50</v>
+      </c>
+      <c r="H36" s="66">
         <v>56.25</v>
       </c>
-      <c r="G36" s="66">
-        <v>25.00</v>
-      </c>
-      <c r="H36" s="66">
+      <c r="I36" s="66">
+        <v>12.50</v>
+      </c>
+      <c r="J36" s="66">
+        <v>19.87</v>
+      </c>
+      <c r="K36" s="66">
+        <v>17.09</v>
+      </c>
+      <c r="L36" s="66">
+        <v>9.18</v>
+      </c>
+      <c r="M36" s="66">
+        <v>8.59</v>
+      </c>
+      <c r="N36" s="66">
+        <v>22.39</v>
+      </c>
+      <c r="O36" s="66">
+        <v>22.90</v>
+      </c>
+      <c r="P36" s="66">
+        <v>5.00</v>
+      </c>
+      <c r="Q36" s="66">
+        <v>-0.50</v>
+      </c>
+      <c r="R36" s="66">
+        <v>88.50</v>
+      </c>
+      <c r="S36" s="66">
+        <v>37.50</v>
+      </c>
+      <c r="T36" s="66">
+        <v>62.50</v>
+      </c>
+      <c r="U36" s="66">
+        <v>62.50</v>
+      </c>
+      <c r="V36" s="66">
+        <v>25.00</v>
+      </c>
+      <c r="W36" s="66">
+        <v>56.25</v>
+      </c>
+      <c r="X36" s="66">
+        <v>37.50</v>
+      </c>
+      <c r="Y36" s="66">
         <v>18.75</v>
       </c>
-      <c r="I36" s="66">
-        <v>31.25</v>
-      </c>
-      <c r="J36" s="66">
-        <v>7.25</v>
-      </c>
-      <c r="K36" s="66">
-        <v>14.75</v>
-      </c>
-      <c r="L36" s="66">
-        <v>20.50</v>
-      </c>
-      <c r="M36" s="66">
-        <v>20.00</v>
-      </c>
-      <c r="N36" s="66">
-        <v>15.25</v>
-      </c>
-      <c r="O36" s="66">
-        <v>22.25</v>
-      </c>
-      <c r="P36" s="66">
-        <v>-19.00</v>
-      </c>
-      <c r="Q36" s="66">
-        <v>6.50</v>
-      </c>
-      <c r="R36" s="66">
-        <v>75.63</v>
-      </c>
-      <c r="S36" s="66">
-        <v>50.00</v>
-      </c>
-      <c r="T36" s="66">
-        <v>37.50</v>
-      </c>
-      <c r="U36" s="66">
-        <v>37.50</v>
-      </c>
-      <c r="V36" s="66">
-        <v>62.50</v>
-      </c>
-      <c r="W36" s="66">
-        <v>31.25</v>
-      </c>
-      <c r="X36" s="66">
-        <v>6.25</v>
-      </c>
-      <c r="Y36" s="66">
-        <v>6.25</v>
-      </c>
       <c r="Z36" s="66">
-        <v>42.50</v>
+        <v>46.13</v>
       </c>
       <c r="AA36" s="66">
-        <v>57.50</v>
+        <v>53.87</v>
       </c>
       <c r="AB36" s="66">
-        <v>1.44</v>
+        <v>4.00</v>
       </c>
       <c r="AC36" s="66">
-        <v>6.00</v>
+        <v>1.67</v>
       </c>
       <c r="AD36" s="66">
         <v>4.00</v>
       </c>
       <c r="AE36" s="66">
-        <v>1.20</v>
+        <v>1.10</v>
       </c>
       <c r="AF36" s="66">
-        <v>1.40</v>
+        <v>1.73</v>
       </c>
       <c r="AG36" s="66">
-        <v>5.50</v>
+        <v>3.40</v>
       </c>
     </row>
     <row r="37">
       <c t="inlineStr" r="A37">
         <is>
-          <t xml:space="preserve">Fri 04 Jul 2025 19:45</t>
+          <t xml:space="preserve">Mon 07 Jul 2025 20:15</t>
         </is>
       </c>
       <c t="inlineStr" r="B37">
         <is>
-          <t xml:space="preserve">Bray Wanderers v Wexford</t>
+          <t xml:space="preserve">FH hafnarfjordur v Stjarnan</t>
         </is>
       </c>
       <c t="inlineStr" r="C37">
         <is>
-          <t xml:space="preserve">Ireland, First Division</t>
+          <t xml:space="preserve">Iceland, Úrvalsdeild</t>
         </is>
       </c>
       <c r="D37" s="65">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E37" s="66">
+        <v>93.75</v>
+      </c>
+      <c r="F37" s="66">
+        <v>62.50</v>
+      </c>
+      <c r="G37" s="66">
+        <v>50.00</v>
+      </c>
+      <c r="H37" s="66">
+        <v>25.00</v>
+      </c>
+      <c r="I37" s="66">
+        <v>31.25</v>
+      </c>
+      <c r="J37" s="66">
+        <v>11.52</v>
+      </c>
+      <c r="K37" s="66">
+        <v>15.46</v>
+      </c>
+      <c r="L37" s="66">
+        <v>13.87</v>
+      </c>
+      <c r="M37" s="66">
+        <v>12.56</v>
+      </c>
+      <c r="N37" s="66">
+        <v>21.22</v>
+      </c>
+      <c r="O37" s="66">
+        <v>25.38</v>
+      </c>
+      <c r="P37" s="66">
+        <v>-2.00</v>
+      </c>
+      <c r="Q37" s="66">
+        <v>0.00</v>
+      </c>
+      <c r="R37" s="66">
+        <v>86.16</v>
+      </c>
+      <c r="S37" s="66">
+        <v>62.50</v>
+      </c>
+      <c r="T37" s="66">
+        <v>25.00</v>
+      </c>
+      <c r="U37" s="66">
         <v>87.50</v>
       </c>
-      <c r="F37" s="66">
-        <v>68.75</v>
-      </c>
-      <c r="G37" s="66">
-        <v>43.75</v>
-      </c>
-      <c r="H37" s="66">
+      <c r="V37" s="66">
         <v>12.50</v>
       </c>
-      <c r="I37" s="66">
+      <c r="W37" s="66">
+        <v>18.75</v>
+      </c>
+      <c r="X37" s="66">
         <v>12.50</v>
-      </c>
-      <c r="J37" s="66">
-        <v>19.86</v>
-      </c>
-      <c r="K37" s="66">
-        <v>13.15</v>
-      </c>
-      <c r="L37" s="66">
-        <v>14.20</v>
-      </c>
-      <c r="M37" s="66">
-        <v>14.06</v>
-      </c>
-      <c r="N37" s="66">
-        <v>17.84</v>
-      </c>
-      <c r="O37" s="66">
-        <v>20.91</v>
-      </c>
-      <c r="P37" s="66">
-        <v>-1.00</v>
-      </c>
-      <c r="Q37" s="66">
-        <v>-1.50</v>
-      </c>
-      <c r="R37" s="66">
-        <v>82.38</v>
-      </c>
-      <c r="S37" s="66">
-        <v>25.00</v>
-      </c>
-      <c r="T37" s="66">
-        <v>75.00</v>
-      </c>
-      <c r="U37" s="66">
-        <v>25.00</v>
-      </c>
-      <c r="V37" s="66">
-        <v>62.50</v>
-      </c>
-      <c r="W37" s="66">
-        <v>50.00</v>
-      </c>
-      <c r="X37" s="66">
-        <v>18.75</v>
       </c>
       <c r="Y37" s="66">
         <v>6.25</v>
       </c>
       <c r="Z37" s="66">
-        <v>47.21</v>
+        <v>40.85</v>
       </c>
       <c r="AA37" s="66">
-        <v>52.80</v>
+        <v>59.16</v>
       </c>
       <c r="AB37" s="66">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="AC37" s="66">
-        <v>3.40</v>
+        <v>2.90</v>
       </c>
       <c r="AD37" s="66">
-        <v>3.40</v>
+        <v>3.70</v>
       </c>
       <c r="AE37" s="66">
-        <v>1.20</v>
+        <v>1.13</v>
       </c>
       <c r="AF37" s="66">
-        <v>1.44</v>
+        <v>1.67</v>
       </c>
       <c r="AG37" s="66">
-        <v>5.00</v>
+        <v>3.50</v>
       </c>
     </row>
     <row r="38">
       <c t="inlineStr" r="A38">
         <is>
-          <t xml:space="preserve">Fri 04 Jul 2025 19:45</t>
+          <t xml:space="preserve">Mon 07 Jul 2025 21:30</t>
         </is>
       </c>
       <c t="inlineStr" r="B38">
         <is>
-          <t xml:space="preserve">Cobh Ramblers v Athlone Town</t>
+          <t xml:space="preserve">Rubio NU v Deportivo Santani</t>
         </is>
       </c>
       <c t="inlineStr" r="C38">
         <is>
-          <t xml:space="preserve">Ireland, First Division</t>
+          <t xml:space="preserve">Paraguay, Division Intermedia</t>
         </is>
       </c>
       <c r="D38" s="65">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E38" s="66">
-        <v>81.25</v>
+        <v>68.75</v>
       </c>
       <c r="F38" s="66">
         <v>56.25</v>
       </c>
       <c r="G38" s="66">
+        <v>25.00</v>
+      </c>
+      <c r="H38" s="66">
+        <v>12.50</v>
+      </c>
+      <c r="I38" s="66">
+        <v>25.00</v>
+      </c>
+      <c r="J38" s="66">
+        <v>17.44</v>
+      </c>
+      <c r="K38" s="66">
+        <v>15.98</v>
+      </c>
+      <c r="L38" s="66">
+        <v>7.92</v>
+      </c>
+      <c r="M38" s="66">
+        <v>17.49</v>
+      </c>
+      <c r="N38" s="66">
+        <v>19.05</v>
+      </c>
+      <c r="O38" s="66">
+        <v>22.13</v>
+      </c>
+      <c r="P38" s="66">
+        <v>-23.00</v>
+      </c>
+      <c r="Q38" s="66">
+        <v>-1.50</v>
+      </c>
+      <c r="R38" s="66">
+        <v>69.75</v>
+      </c>
+      <c r="S38" s="66">
+        <v>62.50</v>
+      </c>
+      <c r="T38" s="66">
+        <v>25.00</v>
+      </c>
+      <c r="U38" s="66">
         <v>37.50</v>
-      </c>
-      <c r="H38" s="66">
-        <v>18.75</v>
-      </c>
-      <c r="I38" s="66">
-        <v>31.25</v>
-      </c>
-      <c r="J38" s="66">
-        <v>16.91</v>
-      </c>
-      <c r="K38" s="66">
-        <v>14.46</v>
-      </c>
-      <c r="L38" s="66">
-        <v>13.28</v>
-      </c>
-      <c r="M38" s="66">
-        <v>17.91</v>
-      </c>
-      <c r="N38" s="66">
-        <v>14.55</v>
-      </c>
-      <c r="O38" s="66">
-        <v>22.91</v>
-      </c>
-      <c r="P38" s="66">
-        <v>-16.00</v>
-      </c>
-      <c r="Q38" s="66">
-        <v>0.00</v>
-      </c>
-      <c r="R38" s="66">
-        <v>73.39</v>
-      </c>
-      <c r="S38" s="66">
-        <v>75.00</v>
-      </c>
-      <c r="T38" s="66">
-        <v>25.00</v>
-      </c>
-      <c r="U38" s="66">
-        <v>25.00</v>
       </c>
       <c r="V38" s="66">
         <v>62.50</v>
       </c>
       <c r="W38" s="66">
-        <v>50.00</v>
+        <v>37.50</v>
       </c>
       <c r="X38" s="66">
         <v>12.50</v>
       </c>
       <c r="Y38" s="66">
-        <v>0.00</v>
+        <v>6.25</v>
       </c>
       <c r="Z38" s="66">
-        <v>44.64</v>
+        <v>41.33</v>
       </c>
       <c r="AA38" s="66">
-        <v>55.37</v>
+        <v>58.67</v>
       </c>
       <c r="AB38" s="66">
-        <v>1.36</v>
+        <v>1.55</v>
       </c>
       <c r="AC38" s="66">
-        <v>6.50</v>
+        <v>6.00</v>
       </c>
       <c r="AD38" s="66">
-        <v>4.33</v>
+        <v>3.30</v>
       </c>
       <c r="AE38" s="66">
-        <v>1.20</v>
+        <v>1.45</v>
       </c>
       <c r="AF38" s="66">
-        <v>1.40</v>
+        <v>1.11</v>
       </c>
       <c r="AG38" s="66">
-        <v>5.50</v>
+        <v>11.00</v>
       </c>
     </row>
     <row r="39">
       <c t="inlineStr" r="A39">
         <is>
-          <t xml:space="preserve">Fri 04 Jul 2025 19:45</t>
+          <t xml:space="preserve">Mon 07 Jul 2025 22:30</t>
         </is>
       </c>
       <c t="inlineStr" r="B39">
         <is>
-          <t xml:space="preserve">Finn Harps v Longford Town</t>
+          <t xml:space="preserve">Sportivo Ameliano v Atlético Tembetary</t>
         </is>
       </c>
       <c t="inlineStr" r="C39">
         <is>
-          <t xml:space="preserve">Ireland, First Division</t>
+          <t xml:space="preserve">Paraguay, Division Profesional - Clausura</t>
         </is>
       </c>
       <c r="D39" s="65">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="E39" s="66">
-        <v>62.50</v>
+        <v>0.00</v>
       </c>
       <c r="F39" s="66">
-        <v>25.00</v>
+        <v>0.00</v>
       </c>
       <c r="G39" s="66">
-        <v>18.75</v>
+        <v>0.00</v>
       </c>
       <c r="H39" s="66">
-        <v>12.50</v>
+        <v>0.00</v>
       </c>
       <c r="I39" s="66">
-        <v>37.50</v>
+        <v>0.00</v>
       </c>
       <c r="J39" s="66">
-        <v>12.23</v>
+        <v>0.00</v>
       </c>
       <c r="K39" s="66">
-        <v>13.89</v>
+        <v>0.00</v>
       </c>
       <c r="L39" s="66">
-        <v>16.62</v>
+        <v>0.00</v>
       </c>
       <c r="M39" s="66">
-        <v>12.90</v>
+        <v>0.00</v>
       </c>
       <c r="N39" s="66">
-        <v>20.23</v>
+        <v>0.00</v>
       </c>
       <c r="O39" s="66">
-        <v>24.15</v>
+        <v>0.00</v>
       </c>
       <c r="P39" s="66">
-        <v>-5.00</v>
+        <v>16.00</v>
       </c>
       <c r="Q39" s="66">
-        <v>4.50</v>
+        <v>-1.00</v>
       </c>
       <c r="R39" s="66">
-        <v>63.28</v>
+        <v>0.00</v>
       </c>
       <c r="S39" s="66">
-        <v>37.50</v>
+        <v>0.00</v>
       </c>
       <c r="T39" s="66">
-        <v>37.50</v>
+        <v>0.00</v>
       </c>
       <c r="U39" s="66">
-        <v>37.50</v>
+        <v>0.00</v>
       </c>
       <c r="V39" s="66">
-        <v>50.00</v>
+        <v>0.00</v>
       </c>
       <c r="W39" s="66">
-        <v>18.75</v>
+        <v>0.00</v>
       </c>
       <c r="X39" s="66">
-        <v>12.50</v>
+        <v>0.00</v>
       </c>
       <c r="Y39" s="66">
         <v>0.00</v>
       </c>
       <c r="Z39" s="66">
-        <v>42.73</v>
+        <v>0.00</v>
       </c>
       <c r="AA39" s="66">
-        <v>57.28</v>
-      </c>
-      <c r="AB39" s="66">
-        <v>2.10</v>
-      </c>
-      <c r="AC39" s="66">
-        <v>3.00</v>
-      </c>
-      <c r="AD39" s="66">
-        <v>3.30</v>
-      </c>
-      <c r="AE39" s="66">
-        <v>1.22</v>
-      </c>
-      <c r="AF39" s="66">
-        <v>1.40</v>
-      </c>
-      <c r="AG39" s="66">
-        <v>6.00</v>
+        <v>0.00</v>
+      </c>
+      <c t="inlineStr" r="AB39">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="AC39">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="AD39">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="AE39">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="AF39">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="AG39">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
       </c>
     </row>
     <row r="40">
       <c t="inlineStr" r="A40">
         <is>
-          <t xml:space="preserve">Fri 04 Jul 2025 19:45</t>
+          <t xml:space="preserve">Mon 07 Jul 2025 22:30</t>
         </is>
       </c>
       <c t="inlineStr" r="B40">
         <is>
-          <t xml:space="preserve">Kerry v Dundalk</t>
+          <t xml:space="preserve">Sportivo Ameliano v Atlético Tembetary</t>
         </is>
       </c>
       <c t="inlineStr" r="C40">
         <is>
-          <t xml:space="preserve">Ireland, First Division</t>
+          <t xml:space="preserve">Paraguay, Division Profesional - Clausura</t>
         </is>
       </c>
       <c r="D40" s="65">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="E40" s="66">
-        <v>75.00</v>
+        <v>0.00</v>
       </c>
       <c r="F40" s="66">
-        <v>37.50</v>
+        <v>0.00</v>
       </c>
       <c r="G40" s="66">
-        <v>25.00</v>
+        <v>0.00</v>
       </c>
       <c r="H40" s="66">
-        <v>12.50</v>
+        <v>0.00</v>
       </c>
       <c r="I40" s="66">
-        <v>25.00</v>
+        <v>0.00</v>
       </c>
       <c r="J40" s="66">
-        <v>13.47</v>
+        <v>0.00</v>
       </c>
       <c r="K40" s="66">
-        <v>14.76</v>
+        <v>0.00</v>
       </c>
       <c r="L40" s="66">
-        <v>17.63</v>
+        <v>0.00</v>
       </c>
       <c r="M40" s="66">
-        <v>13.98</v>
+        <v>0.00</v>
       </c>
       <c r="N40" s="66">
-        <v>13.16</v>
+        <v>0.00</v>
       </c>
       <c r="O40" s="66">
-        <v>27.02</v>
+        <v>0.00</v>
       </c>
       <c r="P40" s="66">
-        <v>9.00</v>
+        <v>16.00</v>
       </c>
       <c r="Q40" s="66">
-        <v>-1.50</v>
+        <v>-1.00</v>
       </c>
       <c r="R40" s="66">
-        <v>70.60</v>
+        <v>0.00</v>
       </c>
       <c r="S40" s="66">
-        <v>62.50</v>
+        <v>0.00</v>
       </c>
       <c r="T40" s="66">
-        <v>37.50</v>
+        <v>0.00</v>
       </c>
       <c r="U40" s="66">
-        <v>87.50</v>
+        <v>0.00</v>
       </c>
       <c r="V40" s="66">
-        <v>12.50</v>
+        <v>0.00</v>
       </c>
       <c r="W40" s="66">
-        <v>31.25</v>
+        <v>0.00</v>
       </c>
       <c r="X40" s="66">
-        <v>12.50</v>
+        <v>0.00</v>
       </c>
       <c r="Y40" s="66">
-        <v>6.25</v>
+        <v>0.00</v>
       </c>
       <c r="Z40" s="66">
-        <v>45.85</v>
+        <v>0.00</v>
       </c>
       <c r="AA40" s="66">
-        <v>54.16</v>
+        <v>0.00</v>
       </c>
       <c r="AB40" s="66">
-        <v>4.75</v>
+        <v>1.75</v>
       </c>
       <c r="AC40" s="66">
-        <v>1.62</v>
+        <v>5.00</v>
       </c>
       <c r="AD40" s="66">
-        <v>3.60</v>
+        <v>3.30</v>
       </c>
       <c r="AE40" s="66">
-        <v>1.30</v>
+        <v>1.47</v>
       </c>
       <c r="AF40" s="66">
-        <v>1.29</v>
+        <v>1.17</v>
       </c>
       <c r="AG40" s="66">
-        <v>7.50</v>
+        <v>10.00</v>
       </c>
     </row>
     <row r="41">
       <c t="inlineStr" r="A41">
         <is>
-          <t xml:space="preserve">Fri 04 Jul 2025 19:45</t>
+          <t xml:space="preserve">Mon 07 Jul 2025 23:00</t>
         </is>
       </c>
       <c t="inlineStr" r="B41">
         <is>
-          <t xml:space="preserve">UCD v Treaty United</t>
+          <t xml:space="preserve">Bolívar v Independiente Petrolero</t>
         </is>
       </c>
       <c t="inlineStr" r="C41">
         <is>
-          <t xml:space="preserve">Ireland, First Division</t>
+          <t xml:space="preserve">Bolivia, Primera División</t>
         </is>
       </c>
       <c r="D41" s="65">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E41" s="66">
-        <v>81.25</v>
+        <v>93.75</v>
       </c>
       <c r="F41" s="66">
-        <v>50.00</v>
+        <v>56.25</v>
       </c>
       <c r="G41" s="66">
-        <v>25.00</v>
+        <v>43.75</v>
       </c>
       <c r="H41" s="66">
+        <v>25.00</v>
+      </c>
+      <c r="I41" s="66">
+        <v>18.75</v>
+      </c>
+      <c r="J41" s="66">
+        <v>10.07</v>
+      </c>
+      <c r="K41" s="66">
+        <v>9.05</v>
+      </c>
+      <c r="L41" s="66">
+        <v>16.06</v>
+      </c>
+      <c r="M41" s="66">
+        <v>21.62</v>
+      </c>
+      <c r="N41" s="66">
+        <v>16.79</v>
+      </c>
+      <c r="O41" s="66">
+        <v>26.43</v>
+      </c>
+      <c r="P41" s="66">
+        <v>-12.00</v>
+      </c>
+      <c r="Q41" s="66">
+        <v>0.00</v>
+      </c>
+      <c r="R41" s="66">
+        <v>80.48</v>
+      </c>
+      <c r="S41" s="66">
+        <v>75.00</v>
+      </c>
+      <c r="T41" s="66">
+        <v>25.00</v>
+      </c>
+      <c r="U41" s="66">
+        <v>25.00</v>
+      </c>
+      <c r="V41" s="66">
+        <v>62.50</v>
+      </c>
+      <c r="W41" s="66">
+        <v>37.50</v>
+      </c>
+      <c r="X41" s="66">
+        <v>12.50</v>
+      </c>
+      <c r="Y41" s="66">
         <v>6.25</v>
       </c>
-      <c r="I41" s="66">
-        <v>25.00</v>
-      </c>
-      <c r="J41" s="66">
-        <v>9.51</v>
-      </c>
-      <c r="K41" s="66">
-        <v>7.66</v>
-      </c>
-      <c r="L41" s="66">
-        <v>18.38</v>
-      </c>
-      <c r="M41" s="66">
-        <v>18.09</v>
-      </c>
-      <c r="N41" s="66">
-        <v>20.53</v>
-      </c>
-      <c r="O41" s="66">
-        <v>25.84</v>
-      </c>
-      <c r="P41" s="66">
-        <v>7.00</v>
-      </c>
-      <c r="Q41" s="66">
-        <v>-1.50</v>
-      </c>
-      <c r="R41" s="66">
-        <v>72.62</v>
-      </c>
-      <c r="S41" s="66">
-        <v>50.00</v>
-      </c>
-      <c r="T41" s="66">
-        <v>50.00</v>
-      </c>
-      <c r="U41" s="66">
-        <v>37.50</v>
-      </c>
-      <c r="V41" s="66">
-        <v>50.00</v>
-      </c>
-      <c r="W41" s="66">
-        <v>25.00</v>
-      </c>
-      <c r="X41" s="66">
-        <v>6.25</v>
-      </c>
-      <c r="Y41" s="66">
-        <v>0.00</v>
-      </c>
       <c r="Z41" s="66">
-        <v>35.55</v>
+        <v>35.18</v>
       </c>
       <c r="AA41" s="66">
-        <v>64.46</v>
+        <v>64.82</v>
       </c>
       <c r="AB41" s="66">
-        <v>2.30</v>
+        <v>1.10</v>
       </c>
       <c r="AC41" s="66">
-        <v>2.70</v>
+        <v>15.00</v>
       </c>
       <c r="AD41" s="66">
-        <v>3.25</v>
+        <v>8.50</v>
       </c>
       <c r="AE41" s="66">
-        <v>1.29</v>
+        <v>1.05</v>
       </c>
       <c r="AF41" s="66">
-        <v>1.33</v>
+        <v>2.38</v>
       </c>
       <c r="AG41" s="66">
-        <v>6.50</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="42">
       <c t="inlineStr" r="A42">
         <is>
-          <t xml:space="preserve">Fri 04 Jul 2025 19:45</t>
+          <t xml:space="preserve">Mon 07 Jul 2025 23:00</t>
         </is>
       </c>
       <c t="inlineStr" r="B42">
         <is>
-          <t xml:space="preserve">Derry City v Waterford</t>
+          <t xml:space="preserve">Operario-PR v Chapecoense-sc</t>
         </is>
       </c>
       <c t="inlineStr" r="C42">
         <is>
-          <t xml:space="preserve">Ireland, Premier Division</t>
+          <t xml:space="preserve">Brazil, Serie B</t>
         </is>
       </c>
       <c r="D42" s="65">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E42" s="66">
+        <v>81.25</v>
+      </c>
+      <c r="F42" s="66">
         <v>62.50</v>
       </c>
-      <c r="F42" s="66">
-        <v>50.00</v>
-      </c>
       <c r="G42" s="66">
-        <v>25.00</v>
+        <v>18.75</v>
       </c>
       <c r="H42" s="66">
-        <v>0.00</v>
+        <v>6.25</v>
       </c>
       <c r="I42" s="66">
-        <v>25.00</v>
+        <v>18.75</v>
       </c>
       <c r="J42" s="66">
-        <v>21.02</v>
+        <v>15.64</v>
       </c>
       <c r="K42" s="66">
-        <v>12.09</v>
+        <v>10.90</v>
       </c>
       <c r="L42" s="66">
-        <v>18.32</v>
+        <v>10.80</v>
       </c>
       <c r="M42" s="66">
-        <v>11.78</v>
+        <v>25.12</v>
       </c>
       <c r="N42" s="66">
-        <v>16.09</v>
+        <v>9.29</v>
       </c>
       <c r="O42" s="66">
-        <v>20.71</v>
+        <v>28.25</v>
       </c>
       <c r="P42" s="66">
-        <v>-13.00</v>
+        <v>10.00</v>
       </c>
       <c r="Q42" s="66">
-        <v>-0.50</v>
+        <v>-1.00</v>
       </c>
       <c r="R42" s="66">
-        <v>72.96</v>
+        <v>75.18</v>
       </c>
       <c r="S42" s="66">
-        <v>62.50</v>
+        <v>50.00</v>
       </c>
       <c r="T42" s="66">
-        <v>37.50</v>
+        <v>50.00</v>
       </c>
       <c r="U42" s="66">
         <v>62.50</v>
@@ -4745,7 +4705,7 @@
         <v>37.50</v>
       </c>
       <c r="W42" s="66">
-        <v>43.75</v>
+        <v>25.00</v>
       </c>
       <c r="X42" s="66">
         <v>6.25</v>
@@ -4754,530 +4714,542 @@
         <v>0.00</v>
       </c>
       <c r="Z42" s="66">
-        <v>51.43</v>
+        <v>37.34</v>
       </c>
       <c r="AA42" s="66">
-        <v>48.58</v>
+        <v>62.66</v>
       </c>
       <c r="AB42" s="66">
-        <v>1.50</v>
+        <v>1.75</v>
       </c>
       <c r="AC42" s="66">
-        <v>6.00</v>
+        <v>5.50</v>
       </c>
       <c r="AD42" s="66">
-        <v>4.00</v>
+        <v>3.20</v>
       </c>
       <c r="AE42" s="66">
-        <v>1.29</v>
+        <v>1.53</v>
       </c>
       <c r="AF42" s="66">
-        <v>1.30</v>
+        <v>1.13</v>
       </c>
       <c r="AG42" s="66">
-        <v>6.50</v>
+        <v>12.00</v>
       </c>
     </row>
     <row r="43">
       <c t="inlineStr" r="A43">
         <is>
-          <t xml:space="preserve">Fri 04 Jul 2025 19:45</t>
+          <t xml:space="preserve">Mon 07 Jul 2025 23:30</t>
         </is>
       </c>
       <c t="inlineStr" r="B43">
         <is>
-          <t xml:space="preserve">Drogheda United v Galway United</t>
+          <t xml:space="preserve">Botafogo PB v São Bernardo</t>
         </is>
       </c>
       <c t="inlineStr" r="C43">
         <is>
-          <t xml:space="preserve">Ireland, Premier Division</t>
+          <t xml:space="preserve">Brazil, Serie C</t>
         </is>
       </c>
       <c r="D43" s="65">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E43" s="66">
-        <v>56.25</v>
+        <v>43.75</v>
       </c>
       <c r="F43" s="66">
-        <v>37.50</v>
+        <v>31.25</v>
       </c>
       <c r="G43" s="66">
         <v>12.50</v>
       </c>
       <c r="H43" s="66">
-        <v>0.00</v>
+        <v>6.25</v>
       </c>
       <c r="I43" s="66">
-        <v>31.25</v>
+        <v>43.75</v>
       </c>
       <c r="J43" s="66">
-        <v>8.49</v>
+        <v>17.77</v>
       </c>
       <c r="K43" s="66">
-        <v>14.15</v>
+        <v>14.64</v>
       </c>
       <c r="L43" s="66">
-        <v>24.53</v>
+        <v>11.02</v>
       </c>
       <c r="M43" s="66">
-        <v>13.21</v>
+        <v>11.02</v>
       </c>
       <c r="N43" s="66">
-        <v>20.76</v>
+        <v>19.90</v>
       </c>
       <c r="O43" s="66">
-        <v>18.87</v>
+        <v>25.66</v>
       </c>
       <c r="P43" s="66">
-        <v>-3.00</v>
+        <v>11.00</v>
       </c>
       <c r="Q43" s="66">
-        <v>-2.50</v>
+        <v>-1.50</v>
       </c>
       <c r="R43" s="66">
-        <v>63.71</v>
+        <v>55.50</v>
       </c>
       <c r="S43" s="66">
-        <v>50.00</v>
+        <v>37.50</v>
       </c>
       <c r="T43" s="66">
-        <v>25.00</v>
+        <v>50.00</v>
       </c>
       <c r="U43" s="66">
-        <v>37.50</v>
+        <v>62.50</v>
       </c>
       <c r="V43" s="66">
-        <v>50.00</v>
+        <v>25.00</v>
       </c>
       <c r="W43" s="66">
-        <v>31.25</v>
+        <v>18.75</v>
       </c>
       <c r="X43" s="66">
         <v>6.25</v>
       </c>
       <c r="Y43" s="66">
-        <v>6.25</v>
+        <v>0.00</v>
       </c>
       <c r="Z43" s="66">
-        <v>47.17</v>
+        <v>43.42</v>
       </c>
       <c r="AA43" s="66">
-        <v>52.83</v>
+        <v>56.58</v>
       </c>
       <c r="AB43" s="66">
-        <v>2.70</v>
+        <v>2.30</v>
       </c>
       <c r="AC43" s="66">
-        <v>2.70</v>
+        <v>3.10</v>
       </c>
       <c r="AD43" s="66">
-        <v>3.00</v>
+        <v>2.88</v>
       </c>
       <c r="AE43" s="66">
-        <v>1.44</v>
+        <v>1.50</v>
       </c>
       <c r="AF43" s="66">
-        <v>1.20</v>
+        <v>1.14</v>
       </c>
       <c r="AG43" s="66">
-        <v>9.00</v>
+        <v>11.00</v>
       </c>
     </row>
     <row r="44">
       <c t="inlineStr" r="A44">
         <is>
-          <t xml:space="preserve">Fri 04 Jul 2025 19:45</t>
+          <t xml:space="preserve">Mon 07 Jul 2025 23:30</t>
         </is>
       </c>
       <c t="inlineStr" r="B44">
         <is>
-          <t xml:space="preserve">Shelbourne v Cork City</t>
+          <t xml:space="preserve">CSA v Caxias</t>
         </is>
       </c>
       <c t="inlineStr" r="C44">
         <is>
-          <t xml:space="preserve">Ireland, Premier Division</t>
+          <t xml:space="preserve">Brazil, Serie C</t>
         </is>
       </c>
       <c r="D44" s="65">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="E44" s="66">
-        <v>75.00</v>
+        <v>68.75</v>
       </c>
       <c r="F44" s="66">
-        <v>43.75</v>
+        <v>62.50</v>
       </c>
       <c r="G44" s="66">
-        <v>25.00</v>
+        <v>37.50</v>
       </c>
       <c r="H44" s="66">
-        <v>18.75</v>
+        <v>31.25</v>
       </c>
       <c r="I44" s="66">
         <v>18.75</v>
       </c>
       <c r="J44" s="66">
-        <v>20.84</v>
+        <v>6.86</v>
       </c>
       <c r="K44" s="66">
-        <v>10.58</v>
+        <v>26.86</v>
       </c>
       <c r="L44" s="66">
-        <v>16.69</v>
+        <v>30.29</v>
       </c>
       <c r="M44" s="66">
-        <v>18.57</v>
+        <v>6.29</v>
       </c>
       <c r="N44" s="66">
-        <v>13.86</v>
+        <v>8.86</v>
       </c>
       <c r="O44" s="66">
-        <v>19.47</v>
+        <v>20.86</v>
       </c>
       <c r="P44" s="66">
-        <v>-8.00</v>
+        <v>-6.00</v>
       </c>
       <c r="Q44" s="66">
-        <v>5.00</v>
+        <v>-9.00</v>
       </c>
       <c r="R44" s="66">
-        <v>69.21</v>
+        <v>72.85</v>
       </c>
       <c r="S44" s="66">
         <v>37.50</v>
       </c>
       <c r="T44" s="66">
-        <v>50.00</v>
+        <v>37.50</v>
       </c>
       <c r="U44" s="66">
-        <v>12.50</v>
+        <v>50.00</v>
       </c>
       <c r="V44" s="66">
-        <v>75.00</v>
+        <v>50.00</v>
       </c>
       <c r="W44" s="66">
+        <v>43.75</v>
+      </c>
+      <c r="X44" s="66">
         <v>31.25</v>
       </c>
-      <c r="X44" s="66">
-        <v>12.50</v>
-      </c>
       <c r="Y44" s="66">
-        <v>0.00</v>
+        <v>18.75</v>
       </c>
       <c r="Z44" s="66">
-        <v>48.10</v>
+        <v>64.00</v>
       </c>
       <c r="AA44" s="66">
-        <v>51.91</v>
-      </c>
-      <c r="AB44" s="66">
-        <v>1.57</v>
-      </c>
-      <c r="AC44" s="66">
-        <v>5.50</v>
-      </c>
-      <c r="AD44" s="66">
-        <v>3.80</v>
-      </c>
-      <c r="AE44" s="66">
-        <v>1.33</v>
-      </c>
-      <c r="AF44" s="66">
-        <v>1.29</v>
-      </c>
-      <c r="AG44" s="66">
-        <v>8.00</v>
+        <v>36.00</v>
+      </c>
+      <c t="inlineStr" r="AB44">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="AC44">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="AD44">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="AE44">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="AF44">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="AG44">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
       </c>
     </row>
     <row r="45">
       <c t="inlineStr" r="A45">
         <is>
-          <t xml:space="preserve">Fri 04 Jul 2025 19:45</t>
+          <t xml:space="preserve">Mon 07 Jul 2025 23:30</t>
         </is>
       </c>
       <c t="inlineStr" r="B45">
         <is>
-          <t xml:space="preserve">St Patrick's Athl. v Bohemians</t>
+          <t xml:space="preserve">Ponte Preta v Tombense</t>
         </is>
       </c>
       <c t="inlineStr" r="C45">
         <is>
-          <t xml:space="preserve">Ireland, Premier Division</t>
+          <t xml:space="preserve">Brazil, Serie C</t>
         </is>
       </c>
       <c r="D45" s="65">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E45" s="66">
-        <v>43.75</v>
+        <v>50.00</v>
       </c>
       <c r="F45" s="66">
-        <v>25.00</v>
+        <v>18.75</v>
       </c>
       <c r="G45" s="66">
-        <v>18.75</v>
+        <v>12.50</v>
       </c>
       <c r="H45" s="66">
-        <v>0.00</v>
+        <v>6.25</v>
       </c>
       <c r="I45" s="66">
         <v>50.00</v>
       </c>
       <c r="J45" s="66">
-        <v>13.63</v>
+        <v>8.34</v>
       </c>
       <c r="K45" s="66">
-        <v>18.45</v>
+        <v>17.16</v>
       </c>
       <c r="L45" s="66">
-        <v>24.28</v>
+        <v>14.38</v>
       </c>
       <c r="M45" s="66">
-        <v>8.71</v>
+        <v>11.44</v>
       </c>
       <c r="N45" s="66">
-        <v>7.79</v>
+        <v>17.16</v>
       </c>
       <c r="O45" s="66">
-        <v>27.16</v>
+        <v>31.54</v>
       </c>
       <c r="P45" s="66">
-        <v>7.00</v>
+        <v>-19.00</v>
       </c>
       <c r="Q45" s="66">
-        <v>-0.50</v>
+        <v>-1.50</v>
       </c>
       <c r="R45" s="66">
-        <v>57.88</v>
+        <v>53.00</v>
       </c>
       <c r="S45" s="66">
-        <v>12.50</v>
+        <v>50.00</v>
       </c>
       <c r="T45" s="66">
-        <v>62.50</v>
+        <v>37.50</v>
       </c>
       <c r="U45" s="66">
-        <v>62.50</v>
+        <v>25.00</v>
       </c>
       <c r="V45" s="66">
-        <v>37.50</v>
+        <v>50.00</v>
       </c>
       <c r="W45" s="66">
-        <v>37.50</v>
+        <v>6.25</v>
       </c>
       <c r="X45" s="66">
-        <v>12.50</v>
+        <v>0.00</v>
       </c>
       <c r="Y45" s="66">
-        <v>6.25</v>
+        <v>0.00</v>
       </c>
       <c r="Z45" s="66">
-        <v>56.35</v>
+        <v>39.87</v>
       </c>
       <c r="AA45" s="66">
-        <v>43.65</v>
+        <v>60.14</v>
       </c>
       <c r="AB45" s="66">
-        <v>2.50</v>
+        <v>1.85</v>
       </c>
       <c r="AC45" s="66">
-        <v>2.88</v>
+        <v>4.50</v>
       </c>
       <c r="AD45" s="66">
-        <v>3.10</v>
+        <v>3.00</v>
       </c>
       <c r="AE45" s="66">
-        <v>1.36</v>
+        <v>1.53</v>
       </c>
       <c r="AF45" s="66">
-        <v>1.25</v>
+        <v>1.13</v>
       </c>
       <c r="AG45" s="66">
-        <v>8.00</v>
+        <v>12.00</v>
       </c>
     </row>
     <row r="46">
       <c t="inlineStr" r="A46">
         <is>
-          <t xml:space="preserve">Fri 04 Jul 2025 20:15</t>
+          <t xml:space="preserve">Tue 08 Jul 2025 00:00</t>
         </is>
       </c>
       <c t="inlineStr" r="B46">
         <is>
-          <t xml:space="preserve">Fylkir v IR Reykjavik</t>
+          <t xml:space="preserve">Real Esppor Club v Monagas SC</t>
         </is>
       </c>
       <c t="inlineStr" r="C46">
         <is>
-          <t xml:space="preserve">Iceland, 1. Deild</t>
+          <t xml:space="preserve">Venezuela, Primera División</t>
         </is>
       </c>
       <c r="D46" s="65">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E46" s="66">
-        <v>87.50</v>
+        <v>75.00</v>
       </c>
       <c r="F46" s="66">
-        <v>50.00</v>
+        <v>75.00</v>
       </c>
       <c r="G46" s="66">
+        <v>37.50</v>
+      </c>
+      <c r="H46" s="66">
+        <v>25.00</v>
+      </c>
+      <c r="I46" s="66">
         <v>18.75</v>
       </c>
-      <c r="H46" s="66">
+      <c r="J46" s="66">
+        <v>12.31</v>
+      </c>
+      <c r="K46" s="66">
+        <v>18.89</v>
+      </c>
+      <c r="L46" s="66">
+        <v>19.19</v>
+      </c>
+      <c r="M46" s="66">
+        <v>11.12</v>
+      </c>
+      <c r="N46" s="66">
+        <v>15.66</v>
+      </c>
+      <c r="O46" s="66">
+        <v>22.84</v>
+      </c>
+      <c r="P46" s="66">
+        <v>-11.00</v>
+      </c>
+      <c r="Q46" s="66">
+        <v>-3.50</v>
+      </c>
+      <c r="R46" s="66">
+        <v>73.18</v>
+      </c>
+      <c r="S46" s="66">
+        <v>25.00</v>
+      </c>
+      <c r="T46" s="66">
+        <v>50.00</v>
+      </c>
+      <c r="U46" s="66">
+        <v>75.00</v>
+      </c>
+      <c r="V46" s="66">
+        <v>12.50</v>
+      </c>
+      <c r="W46" s="66">
+        <v>50.00</v>
+      </c>
+      <c r="X46" s="66">
         <v>18.75</v>
       </c>
-      <c r="I46" s="66">
-        <v>25.00</v>
-      </c>
-      <c r="J46" s="66">
-        <v>12.15</v>
-      </c>
-      <c r="K46" s="66">
-        <v>18.15</v>
-      </c>
-      <c r="L46" s="66">
-        <v>9.97</v>
-      </c>
-      <c r="M46" s="66">
-        <v>15.14</v>
-      </c>
-      <c r="N46" s="66">
-        <v>21.22</v>
-      </c>
-      <c r="O46" s="66">
-        <v>23.39</v>
-      </c>
-      <c r="P46" s="66">
-        <v>8.00</v>
-      </c>
-      <c r="Q46" s="66">
-        <v>-3.00</v>
-      </c>
-      <c r="R46" s="66">
-        <v>79.25</v>
-      </c>
-      <c r="S46" s="66">
-        <v>37.50</v>
-      </c>
-      <c r="T46" s="66">
-        <v>62.50</v>
-      </c>
-      <c r="U46" s="66">
-        <v>87.50</v>
-      </c>
-      <c r="V46" s="66">
-        <v>0.00</v>
-      </c>
-      <c r="W46" s="66">
-        <v>18.75</v>
-      </c>
-      <c r="X46" s="66">
-        <v>6.25</v>
-      </c>
       <c r="Y46" s="66">
         <v>0.00</v>
       </c>
       <c r="Z46" s="66">
-        <v>40.26</v>
+        <v>50.38</v>
       </c>
       <c r="AA46" s="66">
-        <v>59.75</v>
+        <v>49.62</v>
       </c>
       <c r="AB46" s="66">
-        <v>2.63</v>
+        <v>2.00</v>
       </c>
       <c r="AC46" s="66">
-        <v>2.30</v>
+        <v>3.25</v>
       </c>
       <c r="AD46" s="66">
         <v>3.30</v>
       </c>
       <c r="AE46" s="66">
-        <v>1.20</v>
+        <v>1.29</v>
       </c>
       <c r="AF46" s="66">
-        <v>1.40</v>
+        <v>1.33</v>
       </c>
       <c r="AG46" s="66">
-        <v>5.50</v>
+        <v>6.50</v>
       </c>
     </row>
     <row r="47">
       <c t="inlineStr" r="A47">
         <is>
-          <t xml:space="preserve">Fri 04 Jul 2025 20:15</t>
+          <t xml:space="preserve">Tue 08 Jul 2025 01:00</t>
         </is>
       </c>
       <c t="inlineStr" r="B47">
         <is>
-          <t xml:space="preserve">Leiknir R. v Fjolnir</t>
+          <t xml:space="preserve">Jorge Wilstermann v Guabirá</t>
         </is>
       </c>
       <c t="inlineStr" r="C47">
         <is>
-          <t xml:space="preserve">Iceland, 1. Deild</t>
+          <t xml:space="preserve">Bolivia, Primera División</t>
         </is>
       </c>
       <c r="D47" s="65">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E47" s="66">
         <v>87.50</v>
       </c>
       <c r="F47" s="66">
-        <v>62.50</v>
+        <v>50.00</v>
       </c>
       <c r="G47" s="66">
-        <v>37.50</v>
+        <v>43.75</v>
       </c>
       <c r="H47" s="66">
-        <v>25.00</v>
+        <v>18.75</v>
       </c>
       <c r="I47" s="66">
-        <v>0.00</v>
+        <v>12.50</v>
       </c>
       <c r="J47" s="66">
-        <v>18.34</v>
+        <v>11.81</v>
       </c>
       <c r="K47" s="66">
-        <v>14.09</v>
+        <v>11.81</v>
       </c>
       <c r="L47" s="66">
-        <v>12.78</v>
+        <v>17.36</v>
       </c>
       <c r="M47" s="66">
-        <v>12.66</v>
+        <v>15.28</v>
       </c>
       <c r="N47" s="66">
-        <v>18.18</v>
+        <v>12.85</v>
       </c>
       <c r="O47" s="66">
-        <v>23.97</v>
+        <v>30.91</v>
       </c>
       <c r="P47" s="66">
-        <v>-2.00</v>
+        <v>7.00</v>
       </c>
       <c r="Q47" s="66">
-        <v>8.00</v>
+        <v>10.50</v>
       </c>
       <c r="R47" s="66">
-        <v>85.00</v>
+        <v>78.75</v>
       </c>
       <c r="S47" s="66">
         <v>12.50</v>
       </c>
       <c r="T47" s="66">
-        <v>87.50</v>
+        <v>75.00</v>
       </c>
       <c r="U47" s="66">
-        <v>25.00</v>
+        <v>50.00</v>
       </c>
       <c r="V47" s="66">
-        <v>75.00</v>
+        <v>50.00</v>
       </c>
       <c r="W47" s="66">
         <v>43.75</v>
@@ -5286,93 +5258,93 @@
         <v>12.50</v>
       </c>
       <c r="Y47" s="66">
-        <v>0.00</v>
+        <v>6.25</v>
       </c>
       <c r="Z47" s="66">
-        <v>45.20</v>
+        <v>40.97</v>
       </c>
       <c r="AA47" s="66">
-        <v>54.80</v>
+        <v>59.03</v>
       </c>
       <c r="AB47" s="66">
-        <v>1.90</v>
+        <v>1.95</v>
       </c>
       <c r="AC47" s="66">
-        <v>3.25</v>
+        <v>3.40</v>
       </c>
       <c r="AD47" s="66">
-        <v>3.75</v>
+        <v>3.50</v>
       </c>
       <c r="AE47" s="66">
-        <v>1.13</v>
+        <v>1.22</v>
       </c>
       <c r="AF47" s="66">
-        <v>1.67</v>
+        <v>1.40</v>
       </c>
       <c r="AG47" s="66">
-        <v>3.50</v>
+        <v>5.50</v>
       </c>
     </row>
     <row r="48">
       <c t="inlineStr" r="A48">
         <is>
-          <t xml:space="preserve">Fri 04 Jul 2025 21:15</t>
+          <t xml:space="preserve">Tue 08 Jul 2025 01:00</t>
         </is>
       </c>
       <c t="inlineStr" r="B48">
         <is>
-          <t xml:space="preserve">Cultural Santa Rosa v ADT</t>
+          <t xml:space="preserve">America Mineiro v Athletic Club</t>
         </is>
       </c>
       <c t="inlineStr" r="C48">
         <is>
-          <t xml:space="preserve">Peru, Primera División</t>
+          <t xml:space="preserve">Brazil, Serie B</t>
         </is>
       </c>
       <c r="D48" s="65">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E48" s="66">
-        <v>81.25</v>
+        <v>75.00</v>
       </c>
       <c r="F48" s="66">
-        <v>68.75</v>
+        <v>56.25</v>
       </c>
       <c r="G48" s="66">
-        <v>25.00</v>
+        <v>6.25</v>
       </c>
       <c r="H48" s="66">
-        <v>12.50</v>
+        <v>0.00</v>
       </c>
       <c r="I48" s="66">
         <v>12.50</v>
       </c>
       <c r="J48" s="66">
-        <v>14.31</v>
+        <v>13.37</v>
       </c>
       <c r="K48" s="66">
-        <v>19.55</v>
+        <v>13.37</v>
       </c>
       <c r="L48" s="66">
-        <v>16.27</v>
+        <v>14.76</v>
       </c>
       <c r="M48" s="66">
-        <v>14.15</v>
+        <v>14.76</v>
       </c>
       <c r="N48" s="66">
-        <v>12.19</v>
+        <v>11.64</v>
       </c>
       <c r="O48" s="66">
-        <v>23.55</v>
+        <v>32.12</v>
       </c>
       <c r="P48" s="66">
-        <v>-8.00</v>
+        <v>-13.00</v>
       </c>
       <c r="Q48" s="66">
-        <v>4.00</v>
+        <v>7.50</v>
       </c>
       <c r="R48" s="66">
-        <v>80.63</v>
+        <v>75.54</v>
       </c>
       <c r="S48" s="66">
         <v>37.50</v>
@@ -5381,334 +5353,334 @@
         <v>62.50</v>
       </c>
       <c r="U48" s="66">
-        <v>37.50</v>
+        <v>50.00</v>
       </c>
       <c r="V48" s="66">
         <v>50.00</v>
       </c>
       <c r="W48" s="66">
-        <v>56.25</v>
+        <v>31.25</v>
       </c>
       <c r="X48" s="66">
-        <v>18.75</v>
+        <v>6.25</v>
       </c>
       <c r="Y48" s="66">
-        <v>6.25</v>
+        <v>0.00</v>
       </c>
       <c r="Z48" s="66">
-        <v>50.13</v>
+        <v>41.50</v>
       </c>
       <c r="AA48" s="66">
-        <v>49.88</v>
+        <v>58.51</v>
       </c>
       <c r="AB48" s="66">
-        <v>2.45</v>
+        <v>1.67</v>
       </c>
       <c r="AC48" s="66">
-        <v>2.63</v>
+        <v>5.00</v>
       </c>
       <c r="AD48" s="66">
-        <v>3.10</v>
+        <v>3.60</v>
       </c>
       <c r="AE48" s="66">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="AF48" s="66">
-        <v>1.33</v>
+        <v>1.22</v>
       </c>
       <c r="AG48" s="66">
-        <v>6.50</v>
+        <v>8.00</v>
       </c>
     </row>
     <row r="49">
       <c t="inlineStr" r="A49">
         <is>
-          <t xml:space="preserve">Fri 04 Jul 2025 21:30</t>
+          <t xml:space="preserve">Tue 08 Jul 2025 01:00</t>
         </is>
       </c>
       <c t="inlineStr" r="B49">
         <is>
-          <t xml:space="preserve">12 de Junio VH v Sportivo Carapeguá</t>
+          <t xml:space="preserve">Tecnico Universitario v Orense SC</t>
         </is>
       </c>
       <c t="inlineStr" r="C49">
         <is>
-          <t xml:space="preserve">Paraguay, Division Intermedia</t>
+          <t xml:space="preserve">Ecuador, Liga Pro</t>
         </is>
       </c>
       <c r="D49" s="65">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E49" s="66">
-        <v>81.25</v>
+        <v>62.50</v>
       </c>
       <c r="F49" s="66">
-        <v>56.25</v>
+        <v>43.75</v>
       </c>
       <c r="G49" s="66">
         <v>18.75</v>
       </c>
       <c r="H49" s="66">
-        <v>0.00</v>
+        <v>18.75</v>
       </c>
       <c r="I49" s="66">
-        <v>43.75</v>
+        <v>31.25</v>
       </c>
       <c r="J49" s="66">
-        <v>13.40</v>
+        <v>12.37</v>
       </c>
       <c r="K49" s="66">
-        <v>14.69</v>
+        <v>14.44</v>
       </c>
       <c r="L49" s="66">
-        <v>12.10</v>
+        <v>24.95</v>
       </c>
       <c r="M49" s="66">
-        <v>23.93</v>
+        <v>18.43</v>
       </c>
       <c r="N49" s="66">
-        <v>11.97</v>
+        <v>9.32</v>
       </c>
       <c r="O49" s="66">
-        <v>23.93</v>
+        <v>20.50</v>
       </c>
       <c r="P49" s="66">
-        <v>-5.00</v>
+        <v>11.00</v>
       </c>
       <c r="Q49" s="66">
-        <v>-10.50</v>
+        <v>6.50</v>
       </c>
       <c r="R49" s="66">
-        <v>78.83</v>
+        <v>64.73</v>
       </c>
       <c r="S49" s="66">
-        <v>75.00</v>
+        <v>37.50</v>
       </c>
       <c r="T49" s="66">
-        <v>25.00</v>
+        <v>50.00</v>
       </c>
       <c r="U49" s="66">
         <v>50.00</v>
       </c>
       <c r="V49" s="66">
-        <v>50.00</v>
+        <v>25.00</v>
       </c>
       <c r="W49" s="66">
+        <v>37.50</v>
+      </c>
+      <c r="X49" s="66">
         <v>18.75</v>
       </c>
-      <c r="X49" s="66">
-        <v>0.00</v>
-      </c>
       <c r="Y49" s="66">
-        <v>0.00</v>
+        <v>12.50</v>
       </c>
       <c r="Z49" s="66">
-        <v>40.18</v>
+        <v>51.76</v>
       </c>
       <c r="AA49" s="66">
-        <v>59.82</v>
-      </c>
-      <c t="inlineStr" r="AB49">
-        <is>
-          <t xml:space="preserve">-</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="AC49">
-        <is>
-          <t xml:space="preserve">-</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="AD49">
-        <is>
-          <t xml:space="preserve">-</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="AE49">
-        <is>
-          <t xml:space="preserve">-</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="AF49">
-        <is>
-          <t xml:space="preserve">-</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="AG49">
-        <is>
-          <t xml:space="preserve">-</t>
-        </is>
+        <v>48.24</v>
+      </c>
+      <c r="AB49" s="66">
+        <v>2.30</v>
+      </c>
+      <c r="AC49" s="66">
+        <v>3.10</v>
+      </c>
+      <c r="AD49" s="66">
+        <v>3.00</v>
+      </c>
+      <c r="AE49" s="66">
+        <v>1.40</v>
+      </c>
+      <c r="AF49" s="66">
+        <v>1.20</v>
+      </c>
+      <c r="AG49" s="66">
+        <v>9.00</v>
       </c>
     </row>
     <row r="50">
       <c t="inlineStr" r="A50">
         <is>
-          <t xml:space="preserve">Fri 04 Jul 2025 23:00</t>
+          <t xml:space="preserve">Tue 08 Jul 2025 16:30</t>
         </is>
       </c>
       <c t="inlineStr" r="B50">
         <is>
-          <t xml:space="preserve">Coritiba v Volta Redonda</t>
+          <t xml:space="preserve">HaPK Edustus v Reipas</t>
         </is>
       </c>
       <c t="inlineStr" r="C50">
         <is>
-          <t xml:space="preserve">Brazil, Serie B</t>
+          <t xml:space="preserve">Finland, Kakkonen - Lohko A</t>
         </is>
       </c>
       <c r="D50" s="65">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E50" s="66">
-        <v>43.75</v>
+        <v>100.00</v>
       </c>
       <c r="F50" s="66">
-        <v>6.25</v>
+        <v>81.25</v>
       </c>
       <c r="G50" s="66">
-        <v>0.00</v>
+        <v>68.75</v>
       </c>
       <c r="H50" s="66">
-        <v>0.00</v>
+        <v>56.25</v>
       </c>
       <c r="I50" s="66">
-        <v>56.25</v>
+        <v>0.00</v>
       </c>
       <c r="J50" s="66">
-        <v>5.27</v>
+        <v>11.71</v>
       </c>
       <c r="K50" s="66">
-        <v>18.42</v>
+        <v>21.45</v>
       </c>
       <c r="L50" s="66">
-        <v>13.16</v>
+        <v>14.85</v>
       </c>
       <c r="M50" s="66">
-        <v>13.16</v>
+        <v>14.69</v>
       </c>
       <c r="N50" s="66">
-        <v>13.16</v>
+        <v>15.64</v>
       </c>
       <c r="O50" s="66">
-        <v>36.85</v>
+        <v>21.68</v>
       </c>
       <c r="P50" s="66">
-        <v>-12.00</v>
+        <v>8.00</v>
       </c>
       <c r="Q50" s="66">
-        <v>-1.00</v>
+        <v>4.00</v>
       </c>
       <c r="R50" s="66">
-        <v>46.97</v>
+        <v>95.34</v>
       </c>
       <c r="S50" s="66">
-        <v>62.50</v>
+        <v>25.00</v>
       </c>
       <c r="T50" s="66">
-        <v>12.50</v>
+        <v>75.00</v>
       </c>
       <c r="U50" s="66">
-        <v>37.50</v>
+        <v>50.00</v>
       </c>
       <c r="V50" s="66">
         <v>50.00</v>
       </c>
       <c r="W50" s="66">
-        <v>6.25</v>
+        <v>75.00</v>
       </c>
       <c r="X50" s="66">
-        <v>0.00</v>
+        <v>50.00</v>
       </c>
       <c r="Y50" s="66">
-        <v>0.00</v>
+        <v>31.25</v>
       </c>
       <c r="Z50" s="66">
-        <v>36.85</v>
+        <v>48.00</v>
       </c>
       <c r="AA50" s="66">
-        <v>63.16</v>
-      </c>
-      <c r="AB50" s="66">
-        <v>1.67</v>
-      </c>
-      <c r="AC50" s="66">
-        <v>6.00</v>
-      </c>
-      <c r="AD50" s="66">
-        <v>3.30</v>
-      </c>
-      <c r="AE50" s="66">
-        <v>1.57</v>
-      </c>
-      <c r="AF50" s="66">
-        <v>1.13</v>
-      </c>
-      <c r="AG50" s="66">
-        <v>13.00</v>
+        <v>52.00</v>
+      </c>
+      <c t="inlineStr" r="AB50">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="AC50">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="AD50">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="AE50">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="AF50">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="AG50">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
       </c>
     </row>
     <row r="51">
       <c t="inlineStr" r="A51">
         <is>
-          <t xml:space="preserve">Sat 05 Jul 2025 00:00</t>
+          <t xml:space="preserve">Tue 08 Jul 2025 16:30</t>
         </is>
       </c>
       <c t="inlineStr" r="B51">
         <is>
-          <t xml:space="preserve">Pittsburgh Riverhounds v New Mexico United</t>
+          <t xml:space="preserve">Vaajakoski v VJS</t>
         </is>
       </c>
       <c t="inlineStr" r="C51">
         <is>
-          <t xml:space="preserve">USA, USL Championship</t>
+          <t xml:space="preserve">Finland, Kakkonen - Lohko A</t>
         </is>
       </c>
       <c r="D51" s="65">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E51" s="66">
-        <v>68.75</v>
+        <v>87.50</v>
       </c>
       <c r="F51" s="66">
-        <v>50.00</v>
+        <v>75.00</v>
       </c>
       <c r="G51" s="66">
-        <v>6.25</v>
+        <v>62.50</v>
       </c>
       <c r="H51" s="66">
-        <v>6.25</v>
+        <v>50.00</v>
       </c>
       <c r="I51" s="66">
-        <v>37.50</v>
+        <v>25.00</v>
       </c>
       <c r="J51" s="66">
-        <v>11.50</v>
+        <v>10.87</v>
       </c>
       <c r="K51" s="66">
-        <v>10.07</v>
+        <v>19.83</v>
       </c>
       <c r="L51" s="66">
-        <v>19.50</v>
+        <v>18.77</v>
       </c>
       <c r="M51" s="66">
-        <v>12.92</v>
+        <v>16.88</v>
       </c>
       <c r="N51" s="66">
-        <v>25.22</v>
+        <v>13.87</v>
       </c>
       <c r="O51" s="66">
-        <v>20.81</v>
+        <v>19.81</v>
       </c>
       <c r="P51" s="66">
-        <v>16.00</v>
+        <v>12.00</v>
       </c>
       <c r="Q51" s="66">
-        <v>-6.00</v>
+        <v>-2.00</v>
       </c>
       <c r="R51" s="66">
-        <v>70.96</v>
+        <v>88.86</v>
       </c>
       <c r="S51" s="66">
-        <v>37.50</v>
+        <v>50.00</v>
       </c>
       <c r="T51" s="66">
         <v>50.00</v>
@@ -5720,46 +5692,1081 @@
         <v>25.00</v>
       </c>
       <c r="W51" s="66">
+        <v>68.75</v>
+      </c>
+      <c r="X51" s="66">
+        <v>37.50</v>
+      </c>
+      <c r="Y51" s="66">
+        <v>25.00</v>
+      </c>
+      <c r="Z51" s="66">
+        <v>49.45</v>
+      </c>
+      <c r="AA51" s="66">
+        <v>50.55</v>
+      </c>
+      <c t="inlineStr" r="AB51">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="AC51">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="AD51">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="AE51">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="AF51">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="AG51">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c t="inlineStr" r="A52">
+        <is>
+          <t xml:space="preserve">Tue 08 Jul 2025 16:30</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="B52">
+        <is>
+          <t xml:space="preserve">JIPPO v JäPS</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C52">
+        <is>
+          <t xml:space="preserve">Finland, Ykkösliiga</t>
+        </is>
+      </c>
+      <c r="D52" s="65">
+        <v>13</v>
+      </c>
+      <c r="E52" s="66">
+        <v>87.50</v>
+      </c>
+      <c r="F52" s="66">
+        <v>56.25</v>
+      </c>
+      <c r="G52" s="66">
+        <v>43.75</v>
+      </c>
+      <c r="H52" s="66">
         <v>18.75</v>
       </c>
-      <c r="X51" s="66">
+      <c r="I52" s="66">
+        <v>12.50</v>
+      </c>
+      <c r="J52" s="66">
+        <v>14.35</v>
+      </c>
+      <c r="K52" s="66">
+        <v>17.60</v>
+      </c>
+      <c r="L52" s="66">
+        <v>16.67</v>
+      </c>
+      <c r="M52" s="66">
+        <v>12.04</v>
+      </c>
+      <c r="N52" s="66">
+        <v>8.80</v>
+      </c>
+      <c r="O52" s="66">
+        <v>30.56</v>
+      </c>
+      <c r="P52" s="66">
+        <v>-3.00</v>
+      </c>
+      <c r="Q52" s="66">
+        <v>4.50</v>
+      </c>
+      <c r="R52" s="66">
+        <v>80.58</v>
+      </c>
+      <c r="S52" s="66">
+        <v>50.00</v>
+      </c>
+      <c r="T52" s="66">
+        <v>37.50</v>
+      </c>
+      <c r="U52" s="66">
+        <v>25.00</v>
+      </c>
+      <c r="V52" s="66">
+        <v>75.00</v>
+      </c>
+      <c r="W52" s="66">
+        <v>43.75</v>
+      </c>
+      <c r="X52" s="66">
+        <v>25.00</v>
+      </c>
+      <c r="Y52" s="66">
         <v>6.25</v>
       </c>
-      <c r="Y51" s="66">
-        <v>0.00</v>
-      </c>
-      <c r="Z51" s="66">
-        <v>41.06</v>
-      </c>
-      <c r="AA51" s="66">
-        <v>58.94</v>
-      </c>
-      <c t="inlineStr" r="AB51">
-        <is>
-          <t xml:space="preserve">-</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="AC51">
-        <is>
-          <t xml:space="preserve">-</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="AD51">
-        <is>
-          <t xml:space="preserve">-</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="AE51">
-        <is>
-          <t xml:space="preserve">-</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="AF51">
-        <is>
-          <t xml:space="preserve">-</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="AG51">
+      <c r="Z52" s="66">
+        <v>48.61</v>
+      </c>
+      <c r="AA52" s="66">
+        <v>51.39</v>
+      </c>
+      <c r="AB52" s="66">
+        <v>1.62</v>
+      </c>
+      <c r="AC52" s="66">
+        <v>4.33</v>
+      </c>
+      <c r="AD52" s="66">
+        <v>3.90</v>
+      </c>
+      <c r="AE52" s="66">
+        <v>1.11</v>
+      </c>
+      <c r="AF52" s="66">
+        <v>1.57</v>
+      </c>
+      <c r="AG52" s="66">
+        <v>4.00</v>
+      </c>
+    </row>
+    <row r="53">
+      <c t="inlineStr" r="A53">
+        <is>
+          <t xml:space="preserve">Tue 08 Jul 2025 16:30</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="B53">
+        <is>
+          <t xml:space="preserve">SJK Akatemia v Lahti</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C53">
+        <is>
+          <t xml:space="preserve">Finland, Ykkösliiga</t>
+        </is>
+      </c>
+      <c r="D53" s="65">
+        <v>13</v>
+      </c>
+      <c r="E53" s="66">
+        <v>81.25</v>
+      </c>
+      <c r="F53" s="66">
+        <v>75.00</v>
+      </c>
+      <c r="G53" s="66">
+        <v>50.00</v>
+      </c>
+      <c r="H53" s="66">
+        <v>31.25</v>
+      </c>
+      <c r="I53" s="66">
+        <v>18.75</v>
+      </c>
+      <c r="J53" s="66">
+        <v>16.54</v>
+      </c>
+      <c r="K53" s="66">
+        <v>17.33</v>
+      </c>
+      <c r="L53" s="66">
+        <v>14.63</v>
+      </c>
+      <c r="M53" s="66">
+        <v>19.54</v>
+      </c>
+      <c r="N53" s="66">
+        <v>10.02</v>
+      </c>
+      <c r="O53" s="66">
+        <v>21.95</v>
+      </c>
+      <c r="P53" s="66">
+        <v>8.00</v>
+      </c>
+      <c r="Q53" s="66">
+        <v>-3.00</v>
+      </c>
+      <c r="R53" s="66">
+        <v>80.00</v>
+      </c>
+      <c r="S53" s="66">
+        <v>50.00</v>
+      </c>
+      <c r="T53" s="66">
+        <v>37.50</v>
+      </c>
+      <c r="U53" s="66">
+        <v>75.00</v>
+      </c>
+      <c r="V53" s="66">
+        <v>25.00</v>
+      </c>
+      <c r="W53" s="66">
+        <v>62.50</v>
+      </c>
+      <c r="X53" s="66">
+        <v>37.50</v>
+      </c>
+      <c r="Y53" s="66">
+        <v>0.00</v>
+      </c>
+      <c r="Z53" s="66">
+        <v>48.50</v>
+      </c>
+      <c r="AA53" s="66">
+        <v>51.50</v>
+      </c>
+      <c r="AB53" s="66">
+        <v>4.75</v>
+      </c>
+      <c r="AC53" s="66">
+        <v>1.53</v>
+      </c>
+      <c r="AD53" s="66">
+        <v>4.20</v>
+      </c>
+      <c r="AE53" s="66">
+        <v>1.11</v>
+      </c>
+      <c r="AF53" s="66">
+        <v>1.60</v>
+      </c>
+      <c r="AG53" s="66">
+        <v>3.80</v>
+      </c>
+    </row>
+    <row r="54">
+      <c t="inlineStr" r="A54">
+        <is>
+          <t xml:space="preserve">Tue 08 Jul 2025 17:00</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="B54">
+        <is>
+          <t xml:space="preserve">HPS v Atlantis II</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C54">
+        <is>
+          <t xml:space="preserve">Finland, Kakkonen - Lohko B</t>
+        </is>
+      </c>
+      <c r="D54" s="65">
+        <v>11</v>
+      </c>
+      <c r="E54" s="66">
+        <v>87.50</v>
+      </c>
+      <c r="F54" s="66">
+        <v>68.75</v>
+      </c>
+      <c r="G54" s="66">
+        <v>56.25</v>
+      </c>
+      <c r="H54" s="66">
+        <v>31.25</v>
+      </c>
+      <c r="I54" s="66">
+        <v>12.50</v>
+      </c>
+      <c r="J54" s="66">
+        <v>10.69</v>
+      </c>
+      <c r="K54" s="66">
+        <v>12.17</v>
+      </c>
+      <c r="L54" s="66">
+        <v>16.01</v>
+      </c>
+      <c r="M54" s="66">
+        <v>13.57</v>
+      </c>
+      <c r="N54" s="66">
+        <v>22.34</v>
+      </c>
+      <c r="O54" s="66">
+        <v>25.23</v>
+      </c>
+      <c r="P54" s="66">
+        <v>-5.00</v>
+      </c>
+      <c r="Q54" s="66">
+        <v>6.50</v>
+      </c>
+      <c r="R54" s="66">
+        <v>84.89</v>
+      </c>
+      <c r="S54" s="66">
+        <v>75.00</v>
+      </c>
+      <c r="T54" s="66">
+        <v>25.00</v>
+      </c>
+      <c r="U54" s="66">
+        <v>12.50</v>
+      </c>
+      <c r="V54" s="66">
+        <v>87.50</v>
+      </c>
+      <c r="W54" s="66">
+        <v>37.50</v>
+      </c>
+      <c r="X54" s="66">
+        <v>18.75</v>
+      </c>
+      <c r="Y54" s="66">
+        <v>18.75</v>
+      </c>
+      <c r="Z54" s="66">
+        <v>38.86</v>
+      </c>
+      <c r="AA54" s="66">
+        <v>61.14</v>
+      </c>
+      <c t="inlineStr" r="AB54">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="AC54">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="AD54">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="AE54">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="AF54">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="AG54">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c t="inlineStr" r="A55">
+        <is>
+          <t xml:space="preserve">Tue 08 Jul 2025 17:00</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="B55">
+        <is>
+          <t xml:space="preserve">TPV v Musa</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C55">
+        <is>
+          <t xml:space="preserve">Finland, Kakkonen - Lohko B</t>
+        </is>
+      </c>
+      <c r="D55" s="65">
+        <v>11</v>
+      </c>
+      <c r="E55" s="66">
+        <v>93.75</v>
+      </c>
+      <c r="F55" s="66">
+        <v>50.00</v>
+      </c>
+      <c r="G55" s="66">
+        <v>25.00</v>
+      </c>
+      <c r="H55" s="66">
+        <v>25.00</v>
+      </c>
+      <c r="I55" s="66">
+        <v>31.25</v>
+      </c>
+      <c r="J55" s="66">
+        <v>16.33</v>
+      </c>
+      <c r="K55" s="66">
+        <v>13.30</v>
+      </c>
+      <c r="L55" s="66">
+        <v>20.61</v>
+      </c>
+      <c r="M55" s="66">
+        <v>16.33</v>
+      </c>
+      <c r="N55" s="66">
+        <v>18.11</v>
+      </c>
+      <c r="O55" s="66">
+        <v>15.34</v>
+      </c>
+      <c r="P55" s="66">
+        <v>-4.00</v>
+      </c>
+      <c r="Q55" s="66">
+        <v>-5.00</v>
+      </c>
+      <c r="R55" s="66">
+        <v>81.48</v>
+      </c>
+      <c r="S55" s="66">
+        <v>75.00</v>
+      </c>
+      <c r="T55" s="66">
+        <v>25.00</v>
+      </c>
+      <c r="U55" s="66">
+        <v>75.00</v>
+      </c>
+      <c r="V55" s="66">
+        <v>25.00</v>
+      </c>
+      <c r="W55" s="66">
+        <v>62.50</v>
+      </c>
+      <c r="X55" s="66">
+        <v>18.75</v>
+      </c>
+      <c r="Y55" s="66">
+        <v>12.50</v>
+      </c>
+      <c r="Z55" s="66">
+        <v>50.23</v>
+      </c>
+      <c r="AA55" s="66">
+        <v>49.78</v>
+      </c>
+      <c t="inlineStr" r="AB55">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="AC55">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="AD55">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="AE55">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="AF55">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="AG55">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c t="inlineStr" r="A56">
+        <is>
+          <t xml:space="preserve">Tue 08 Jul 2025 19:30</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="B56">
+        <is>
+          <t xml:space="preserve">Atletico Atlas v Victoriano Arenas</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C56">
+        <is>
+          <t xml:space="preserve">Argentina, Primera C</t>
+        </is>
+      </c>
+      <c r="D56" s="65">
+        <v>15</v>
+      </c>
+      <c r="E56" s="66">
+        <v>75.00</v>
+      </c>
+      <c r="F56" s="66">
+        <v>50.00</v>
+      </c>
+      <c r="G56" s="66">
+        <v>25.00</v>
+      </c>
+      <c r="H56" s="66">
+        <v>12.50</v>
+      </c>
+      <c r="I56" s="66">
+        <v>25.00</v>
+      </c>
+      <c r="J56" s="66">
+        <v>14.87</v>
+      </c>
+      <c r="K56" s="66">
+        <v>15.91</v>
+      </c>
+      <c r="L56" s="66">
+        <v>10.70</v>
+      </c>
+      <c r="M56" s="66">
+        <v>12.88</v>
+      </c>
+      <c r="N56" s="66">
+        <v>21.97</v>
+      </c>
+      <c r="O56" s="66">
+        <v>23.68</v>
+      </c>
+      <c r="P56" s="66">
+        <v>-11.00</v>
+      </c>
+      <c r="Q56" s="66">
+        <v>8.50</v>
+      </c>
+      <c r="R56" s="66">
+        <v>72.42</v>
+      </c>
+      <c r="S56" s="66">
+        <v>25.00</v>
+      </c>
+      <c r="T56" s="66">
+        <v>75.00</v>
+      </c>
+      <c r="U56" s="66">
+        <v>37.50</v>
+      </c>
+      <c r="V56" s="66">
+        <v>50.00</v>
+      </c>
+      <c r="W56" s="66">
+        <v>18.75</v>
+      </c>
+      <c r="X56" s="66">
+        <v>12.50</v>
+      </c>
+      <c r="Y56" s="66">
+        <v>0.00</v>
+      </c>
+      <c r="Z56" s="66">
+        <v>41.48</v>
+      </c>
+      <c r="AA56" s="66">
+        <v>58.53</v>
+      </c>
+      <c t="inlineStr" r="AB56">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="AC56">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="AD56">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="AE56">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="AF56">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="AG56">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c t="inlineStr" r="A57">
+        <is>
+          <t xml:space="preserve">Tue 08 Jul 2025 19:30</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="B57">
+        <is>
+          <t xml:space="preserve">Claypole v Puerto Nuevo</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C57">
+        <is>
+          <t xml:space="preserve">Argentina, Primera C</t>
+        </is>
+      </c>
+      <c r="D57" s="65">
+        <v>14</v>
+      </c>
+      <c r="E57" s="66">
+        <v>56.25</v>
+      </c>
+      <c r="F57" s="66">
+        <v>50.00</v>
+      </c>
+      <c r="G57" s="66">
+        <v>18.75</v>
+      </c>
+      <c r="H57" s="66">
+        <v>12.50</v>
+      </c>
+      <c r="I57" s="66">
+        <v>31.25</v>
+      </c>
+      <c r="J57" s="66">
+        <v>12.00</v>
+      </c>
+      <c r="K57" s="66">
+        <v>8.69</v>
+      </c>
+      <c r="L57" s="66">
+        <v>24.07</v>
+      </c>
+      <c r="M57" s="66">
+        <v>14.69</v>
+      </c>
+      <c r="N57" s="66">
+        <v>15.82</v>
+      </c>
+      <c r="O57" s="66">
+        <v>24.75</v>
+      </c>
+      <c r="P57" s="66">
+        <v>-17.00</v>
+      </c>
+      <c r="Q57" s="66">
+        <v>14.50</v>
+      </c>
+      <c r="R57" s="66">
+        <v>60.54</v>
+      </c>
+      <c r="S57" s="66">
+        <v>12.50</v>
+      </c>
+      <c r="T57" s="66">
+        <v>37.50</v>
+      </c>
+      <c r="U57" s="66">
+        <v>37.50</v>
+      </c>
+      <c r="V57" s="66">
+        <v>62.50</v>
+      </c>
+      <c r="W57" s="66">
+        <v>31.25</v>
+      </c>
+      <c r="X57" s="66">
+        <v>12.50</v>
+      </c>
+      <c r="Y57" s="66">
+        <v>0.00</v>
+      </c>
+      <c r="Z57" s="66">
+        <v>44.75</v>
+      </c>
+      <c r="AA57" s="66">
+        <v>55.25</v>
+      </c>
+      <c t="inlineStr" r="AB57">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="AC57">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="AD57">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="AE57">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="AF57">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="AG57">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c t="inlineStr" r="A58">
+        <is>
+          <t xml:space="preserve">Tue 08 Jul 2025 21:30</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="B58">
+        <is>
+          <t xml:space="preserve">Gualaceo SC v Cumbayá</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C58">
+        <is>
+          <t xml:space="preserve">Ecuador, Liga Pro Serie B</t>
+        </is>
+      </c>
+      <c r="D58" s="65">
+        <v>16</v>
+      </c>
+      <c r="E58" s="66">
+        <v>62.50</v>
+      </c>
+      <c r="F58" s="66">
+        <v>43.75</v>
+      </c>
+      <c r="G58" s="66">
+        <v>31.25</v>
+      </c>
+      <c r="H58" s="66">
+        <v>6.25</v>
+      </c>
+      <c r="I58" s="66">
+        <v>31.25</v>
+      </c>
+      <c r="J58" s="66">
+        <v>10.90</v>
+      </c>
+      <c r="K58" s="66">
+        <v>17.92</v>
+      </c>
+      <c r="L58" s="66">
+        <v>21.80</v>
+      </c>
+      <c r="M58" s="66">
+        <v>18.68</v>
+      </c>
+      <c r="N58" s="66">
+        <v>10.10</v>
+      </c>
+      <c r="O58" s="66">
+        <v>20.61</v>
+      </c>
+      <c r="P58" s="66">
+        <v>-5.00</v>
+      </c>
+      <c r="Q58" s="66">
+        <v>-0.50</v>
+      </c>
+      <c r="R58" s="66">
+        <v>65.00</v>
+      </c>
+      <c r="S58" s="66">
+        <v>25.00</v>
+      </c>
+      <c r="T58" s="66">
+        <v>62.50</v>
+      </c>
+      <c r="U58" s="66">
+        <v>50.00</v>
+      </c>
+      <c r="V58" s="66">
+        <v>25.00</v>
+      </c>
+      <c r="W58" s="66">
+        <v>25.00</v>
+      </c>
+      <c r="X58" s="66">
+        <v>12.50</v>
+      </c>
+      <c r="Y58" s="66">
+        <v>0.00</v>
+      </c>
+      <c r="Z58" s="66">
+        <v>50.62</v>
+      </c>
+      <c r="AA58" s="66">
+        <v>49.39</v>
+      </c>
+      <c t="inlineStr" r="AB58">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="AC58">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="AD58">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="AE58">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="AF58">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="AG58">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c t="inlineStr" r="A59">
+        <is>
+          <t xml:space="preserve">Tue 08 Jul 2025 23:30</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="B59">
+        <is>
+          <t xml:space="preserve">Goias v Criciuma</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C59">
+        <is>
+          <t xml:space="preserve">Brazil, Serie B</t>
+        </is>
+      </c>
+      <c r="D59" s="65">
+        <v>14</v>
+      </c>
+      <c r="E59" s="66">
+        <v>56.25</v>
+      </c>
+      <c r="F59" s="66">
+        <v>31.25</v>
+      </c>
+      <c r="G59" s="66">
+        <v>6.25</v>
+      </c>
+      <c r="H59" s="66">
+        <v>6.25</v>
+      </c>
+      <c r="I59" s="66">
+        <v>43.75</v>
+      </c>
+      <c r="J59" s="66">
+        <v>13.35</v>
+      </c>
+      <c r="K59" s="66">
+        <v>20.02</v>
+      </c>
+      <c r="L59" s="66">
+        <v>18.41</v>
+      </c>
+      <c r="M59" s="66">
+        <v>17.97</v>
+      </c>
+      <c r="N59" s="66">
+        <v>3.45</v>
+      </c>
+      <c r="O59" s="66">
+        <v>26.81</v>
+      </c>
+      <c r="P59" s="66">
+        <v>-13.00</v>
+      </c>
+      <c r="Q59" s="66">
+        <v>-8.50</v>
+      </c>
+      <c r="R59" s="66">
+        <v>62.86</v>
+      </c>
+      <c r="S59" s="66">
+        <v>37.50</v>
+      </c>
+      <c r="T59" s="66">
+        <v>50.00</v>
+      </c>
+      <c r="U59" s="66">
+        <v>50.00</v>
+      </c>
+      <c r="V59" s="66">
+        <v>37.50</v>
+      </c>
+      <c r="W59" s="66">
+        <v>25.00</v>
+      </c>
+      <c r="X59" s="66">
+        <v>6.25</v>
+      </c>
+      <c r="Y59" s="66">
+        <v>0.00</v>
+      </c>
+      <c r="Z59" s="66">
+        <v>51.78</v>
+      </c>
+      <c r="AA59" s="66">
+        <v>48.22</v>
+      </c>
+      <c r="AB59" s="66">
+        <v>1.91</v>
+      </c>
+      <c r="AC59" s="66">
+        <v>4.50</v>
+      </c>
+      <c r="AD59" s="66">
+        <v>3.20</v>
+      </c>
+      <c r="AE59" s="66">
+        <v>1.47</v>
+      </c>
+      <c r="AF59" s="66">
+        <v>1.17</v>
+      </c>
+      <c r="AG59" s="66">
+        <v>11.00</v>
+      </c>
+    </row>
+    <row r="60">
+      <c t="inlineStr" r="A60">
+        <is>
+          <t xml:space="preserve">Wed 09 Jul 2025 00:00</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="B60">
+        <is>
+          <t xml:space="preserve">Deportivo Merlo v Liniers</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C60">
+        <is>
+          <t xml:space="preserve">Argentina, Primera B Metropolitana</t>
+        </is>
+      </c>
+      <c r="D60" s="65">
+        <v>22</v>
+      </c>
+      <c r="E60" s="66">
+        <v>62.50</v>
+      </c>
+      <c r="F60" s="66">
+        <v>31.25</v>
+      </c>
+      <c r="G60" s="66">
+        <v>6.25</v>
+      </c>
+      <c r="H60" s="66">
+        <v>0.00</v>
+      </c>
+      <c r="I60" s="66">
+        <v>18.75</v>
+      </c>
+      <c r="J60" s="66">
+        <v>14.92</v>
+      </c>
+      <c r="K60" s="66">
+        <v>11.75</v>
+      </c>
+      <c r="L60" s="66">
+        <v>14.03</v>
+      </c>
+      <c r="M60" s="66">
+        <v>19.90</v>
+      </c>
+      <c r="N60" s="66">
+        <v>11.80</v>
+      </c>
+      <c r="O60" s="66">
+        <v>27.62</v>
+      </c>
+      <c r="P60" s="66">
+        <v>5.00</v>
+      </c>
+      <c r="Q60" s="66">
+        <v>-1.50</v>
+      </c>
+      <c r="R60" s="66">
+        <v>64.32</v>
+      </c>
+      <c r="S60" s="66">
+        <v>25.00</v>
+      </c>
+      <c r="T60" s="66">
+        <v>62.50</v>
+      </c>
+      <c r="U60" s="66">
+        <v>12.50</v>
+      </c>
+      <c r="V60" s="66">
+        <v>87.50</v>
+      </c>
+      <c r="W60" s="66">
+        <v>12.50</v>
+      </c>
+      <c r="X60" s="66">
+        <v>0.00</v>
+      </c>
+      <c r="Y60" s="66">
+        <v>0.00</v>
+      </c>
+      <c r="Z60" s="66">
+        <v>40.69</v>
+      </c>
+      <c r="AA60" s="66">
+        <v>59.31</v>
+      </c>
+      <c t="inlineStr" r="AB60">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="AC60">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="AD60">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="AE60">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="AF60">
+        <is>
+          <t xml:space="preserve">-</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="AG60">
         <is>
           <t xml:space="preserve">-</t>
         </is>
